--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -21,15 +21,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_C</t>
   </si>
   <si>
     <t xml:space="preserve">depth</t>
   </si>
   <si>
-    <t xml:space="preserve">Temp</t>
+    <t xml:space="preserve">pCO2_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pCO2_air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaCO2_atm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCO2_md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k600_md</t>
   </si>
   <si>
     <t xml:space="preserve">KO2_1d</t>
@@ -44,7 +80,19 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medianQbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_ID</t>
   </si>
   <si>
     <t xml:space="preserve">Q_avg</t>
@@ -84,8 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -445,35 +494,229 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45442.6111111111</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="n">
+        <v>0.000201378</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0001756364</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.010430083825238</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0000000625805029514278</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>45442</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45231.64375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.035173797620323</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00102817</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000782989</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.122494884221719</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000734969305330311</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000000472358099778226</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000339012990271454</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.133387594851899</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.000604936515652732</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.604936515652732</v>
+      </c>
+      <c r="M3" t="n">
+        <v>54.8568630213964</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49.1977237399609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>56.1373044477037</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1398.70378146302</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1559.59454857672</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1595.9978235409</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45279.6388888889</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.330556366567279</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0008881709</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0006455732</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.195932201543597</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000117559320926158</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000000771591039539023</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000553773473353366</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.30719749398599</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00320859021058326</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.20859021058327</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.0742822739393</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.4955855573841</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21.2936027073645</v>
+      </c>
+      <c r="P4" t="n">
+        <v>46.877286673679</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>51.6531641827086</v>
+      </c>
+      <c r="R4" t="n">
+        <v>64.4174635887115</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.330556366567279</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55.47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.3084763142639</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.2255791500265</v>
-      </c>
-      <c r="F2" t="n">
-        <v>55.7621574820593</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>238.639858273496</v>
-      </c>
-      <c r="I2" t="n">
-        <v>206.833734153858</v>
-      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,35 +760,255 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45296.6913194444</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.296969095756373</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001045726</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006240298</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.240403478768732</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0000014424208726124</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0000009546994735817</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000685191009747631</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.377622749961714</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.004848364003814</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.848364003814</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.04318377946034</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.33514495885765</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.8848489106076</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24.7000279277384</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>27.0842451096621</v>
+      </c>
+      <c r="R2" t="n">
+        <v>36.6531368622186</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.296969095756373</v>
-      </c>
-      <c r="C2" t="n">
-        <v>53.67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.1414358040695</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.6863451873172</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38.3309893445648</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>234.405992260346</v>
-      </c>
-      <c r="I2" t="n">
-        <v>219.234050465566</v>
-      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45231.6090277778</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0980755161510328</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0009403201</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0007167223</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.154071474440302</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000924428846641809</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000000597811339593186</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000429051200664966</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.184201643633752</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00115362834759077</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.15362834759078</v>
+      </c>
+      <c r="M3" t="n">
+        <v>39.9196677450404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>35.9231885226907</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.2470663434277</v>
+      </c>
+      <c r="P3" t="n">
+        <v>366.280902028293</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>407.029902178292</v>
+      </c>
+      <c r="R3" t="n">
+        <v>440.956805945622</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45266.6384259259</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.089761863160091</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007699163</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0006486447</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0351730876679298</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.000000211038526007579</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000000138513419762991</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000099411545284443</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.30719749398599</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00320859021058326</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.20859021058327</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.13161255434131</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.56468057726477</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.64682928353094</v>
+      </c>
+      <c r="P4" t="n">
+        <v>61.9938176566156</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>68.3097736441313</v>
+      </c>
+      <c r="R4" t="n">
+        <v>85.1901800421941</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45266</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -589,122 +1052,359 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45231.4722222222</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.456692462475835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000848524</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006591576</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0999497599747199</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.000000599698559848319</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.000000385302584469759</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000276532955361071</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.130877292740549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.000582381435673244</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.582381435673244</v>
+      </c>
+      <c r="M2" t="n">
+        <v>60.1793775040893</v>
+      </c>
+      <c r="N2" t="n">
+        <v>53.9622305611327</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61.4121803904275</v>
+      </c>
+      <c r="P2" t="n">
+        <v>118.158793925766</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>131.772215328107</v>
+      </c>
+      <c r="R2" t="n">
+        <v>134.471631209979</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.456692462475835</v>
-      </c>
-      <c r="C2" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.4618280985274</v>
-      </c>
-      <c r="E2" t="n">
-        <v>70.5448588092989</v>
-      </c>
-      <c r="F2" t="n">
-        <v>76.012158871614</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.62973916331676</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.51818495800401</v>
-      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>45266.5417824074</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.552135735180561</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0007117866</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005852961</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0602580135730778</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000361548081438467</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0000002348054734558</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000168520674729043</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.21937929987588</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00163632742527706</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.63632742527707</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.540528804471</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17.6264284180196</v>
+      </c>
+      <c r="O3" t="n">
+        <v>22.0308976427619</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31.9240855009236</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>35.3908062083336</v>
+      </c>
+      <c r="R3" t="n">
+        <v>39.9012348576882</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="1" t="n">
         <v>45266</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.552135735180561</v>
-      </c>
-      <c r="C3" t="n">
-        <v>57.06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.1944175467391</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17.8399834102588</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.3386238693966</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21.9596392714948</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.3593502609761</v>
-      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>45279.5114583333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0790663344963</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0009096144</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0007040552</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000684840809058271</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000000410904485434962</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00000000269646870611361</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.00000193526462161264</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.305742815505066</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0031782747539208</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.17827475392081</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0710924108599727</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0645126533214391</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0885114006589023</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0597856232365482</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0658832627682318</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0820259124293952</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0790663344963</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0474065680967353</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0521010159345864</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0678553340471849</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1021.87536938467</v>
-      </c>
-      <c r="I4" t="n">
-        <v>676.207568078253</v>
-      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>45296.5040509259</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.67402234259014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0008342646</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0006925722</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0889418058210932</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.000000533650834926559</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000000350733675717946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000251722733768861</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.318561393586812</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00345036629045503</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.45036629045504</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.3572525525822</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.2235465477211</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.6149709777163</v>
+      </c>
+      <c r="P5" t="n">
+        <v>16.6515942254839</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>18.3335948554697</v>
+      </c>
+      <c r="R5" t="n">
+        <v>23.1668447632031</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.67402234259014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.0151292543945</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.954287777472</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15.473387283193</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>63.3667992297015</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60.8422245503749</v>
-      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45330.5857638889</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="n">
+        <v>0.000252601</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0001268207</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,35 +1448,255 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45296.4760416667</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.214055653565853</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0009255905</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006024109</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.262926384166113</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00000157755830499668</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00000104454675110708</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000749674701751491</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.380879033653058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00493234050140056</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.93234050140056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11.2872230654121</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.2959125382429</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15.3329433338401</v>
+      </c>
+      <c r="P2" t="n">
+        <v>48.0992319834965</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>52.730319790127</v>
+      </c>
+      <c r="R2" t="n">
+        <v>71.6306394080969</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45279.4587962963</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.533074473421674</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002406129</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0006994171</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.48492789819004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00000890956738914024</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00000584975897229793</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00419839160691239</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.310108371040997</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00326968486084983</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.26968486084983</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18.0562713957809</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16.3900921941922</v>
+      </c>
+      <c r="O3" t="n">
+        <v>22.5942195749986</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30.7463459823695</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33.8719490353423</v>
+      </c>
+      <c r="R3" t="n">
+        <v>42.3847336563911</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.533074473421674</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.907670470279</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.4847517847539</v>
-      </c>
-      <c r="F2" t="n">
-        <v>36.8461988252689</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="n">
-        <v>909.003146654529</v>
-      </c>
-      <c r="I2" t="n">
-        <v>825.818674300336</v>
-      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45330.4778935185</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.22983750331137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0003740311</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0001517148</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.120664324631877</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.000000723985947791261</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000000478397255412934</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000343347312497321</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.363737826625803</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00449837702162774</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.49837702162774</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.23982021904321</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.50729864262237</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10.9724484439972</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32.6635058876877</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>35.8506340363452</v>
+      </c>
+      <c r="R4" t="n">
+        <v>47.7400262616514</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,64 +1740,282 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45279</v>
+        <v>45296.6100694444</v>
       </c>
       <c r="B2" t="n">
-        <v>0.864893218877346</v>
+        <v>12.21</v>
       </c>
       <c r="C2" t="n">
-        <v>55.22</v>
+        <v>0.414405954266454</v>
       </c>
       <c r="D2" t="n">
-        <v>15.5430458697982</v>
+        <v>0.0005554393</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0870579399826</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.1479861637351</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="n">
-        <v>467.724960190567</v>
-      </c>
-      <c r="I2" t="n">
-        <v>381.724280241517</v>
-      </c>
+        <v>0.0004179419</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="n">
+        <v>0.360789488642255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00442574787390114</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.42574787390115</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>45231.5059027778</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.320485291879674</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0007565507</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000657973</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="n">
+        <v>0.162788698020493</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.000901005446909043</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.901005446909043</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45279.4587962963</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.864893218877346</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002418379</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0006994171</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.47044813591085</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000882268881546511</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00000578687153674628</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.00415325708378919</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.301672408670131</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0030942122331965</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.09421223319651</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18.7406092928694</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17.0013183622931</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23.222860505998</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19.6571299106278</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21.6681191201791</v>
+      </c>
+      <c r="R4" t="n">
+        <v>26.8505521827791</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45331.5131944444</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.387139990643618</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0001671141</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0000178215</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.125222545074599</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.000000751335270447597</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000000494458511055984</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000354874529466017</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.329663678057141</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00369505678142552</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.69505678142552</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.4392668423277</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.0336087950248</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19.7621193996259</v>
+      </c>
+      <c r="P5" t="n">
+        <v>36.2494424089179</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>39.880320337509</v>
+      </c>
+      <c r="R5" t="n">
+        <v>51.0464428300767</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>45331</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.387139990643618</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.8322480374708</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36.0776063506555</v>
-      </c>
-      <c r="F3" t="n">
-        <v>47.1150905309659</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.0009048099328</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17.381019555285</v>
-      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,93 +2059,404 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.226590049543736</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50.65</v>
-      </c>
+        <v>45442.3959490741</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>25.9599327978629</v>
+        <v>0.0002918604</v>
       </c>
       <c r="E2" t="n">
-        <v>28.3931511109888</v>
+        <v>0.0002380042</v>
       </c>
       <c r="F2" t="n">
-        <v>40.1343475580353</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="n">
-        <v>166.885006794814</v>
-      </c>
-      <c r="I2" t="n">
-        <v>166.589287539714</v>
-      </c>
+        <v>0.023784817875461</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.000000142708907252766</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>45442</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45279</v>
+        <v>45296.4006944444</v>
       </c>
       <c r="B3" t="n">
-        <v>0.70300463873655</v>
+        <v>12.15</v>
       </c>
       <c r="C3" t="n">
-        <v>55.54</v>
+        <v>0.226590049543736</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9219353172502</v>
+        <v>0.0007454537</v>
       </c>
       <c r="E3" t="n">
-        <v>14.2107642828925</v>
+        <v>0.0003726156</v>
       </c>
       <c r="F3" t="n">
-        <v>18.3073616343575</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>0.204500949728</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000001227005698368</v>
       </c>
       <c r="H3" t="n">
-        <v>495.672117921759</v>
+        <v>0.000000810670236722689</v>
       </c>
       <c r="I3" t="n">
-        <v>468.583293539817</v>
-      </c>
+        <v>0.000581820744059346</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.362558243412365</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00446924831545281</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.46924831545282</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.38003190013853</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.6344248251413</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11.1438748625357</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.692674680614</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>36.9832299212285</v>
+      </c>
+      <c r="R3" t="n">
+        <v>49.1807777304217</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>45266.452662037</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.141480788416122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0005648875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0003503205</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.224093727157303</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000134456236294382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000000873008304547637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000626560984125099</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.217385461179252</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00160671891689195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.60671891689195</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43.6186031570506</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.3405525065948</v>
+      </c>
+      <c r="O4" t="n">
+        <v>49.0661159419864</v>
+      </c>
+      <c r="P4" t="n">
+        <v>278.062858901286</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>308.300537799945</v>
+      </c>
+      <c r="R4" t="n">
+        <v>346.804089030616</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45266</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45279.4179398148</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.70300463873655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0008476419</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0004189223</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.240442487960112</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00000144265492776067</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000000943425552541044</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000677099678857208</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.276755227874139</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00260417750929265</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.60417750929266</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.5552586332939</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.1815833944189</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17.5252623102717</v>
+      </c>
+      <c r="P5" t="n">
+        <v>18.7503505213124</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20.7043564597992</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24.9290848802483</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45330.4283564815</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.216585484080059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0003204185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0001219046</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0687928114807487</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000000412756868884492</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.000000272370144581573</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000195480965010699</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.352250982112431</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.00421874564957185</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.21874564957186</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.60197868572372</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.09991798165505</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.36091806172438</v>
+      </c>
+      <c r="P6" t="n">
+        <v>23.546905755558</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>25.8649775607907</v>
+      </c>
+      <c r="R6" t="n">
+        <v>33.9862022286012</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.216585484080059</v>
-      </c>
-      <c r="C4" t="n">
-        <v>51.87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.838462996515</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20.6317401345424</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28.5045207463196</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>168.411988343586</v>
-      </c>
-      <c r="I4" t="n">
-        <v>162.483172568217</v>
-      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45376.3855324074</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.0002207713</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0001299305</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0498672002101783</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00000029920320126107</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,35 +2500,235 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45296.4349537037</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.423553959835191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008393849</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005508729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.189566895443038</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00000113740137265823</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.000000749787603239663</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000538125074095452</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.343729795068469</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00401710584860558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.01710584860559</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11.1433895708425</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.13872103375</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.4981016595963</v>
+      </c>
+      <c r="P2" t="n">
+        <v>23.9372594644023</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>26.3092560276817</v>
+      </c>
+      <c r="R2" t="n">
+        <v>34.2296449435572</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45231.4138888889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.363310637530366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0008369056</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0003971049</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.302248152425738</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00000181348891455443</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00000116718430341406</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000837692083789992</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.145122737939261</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00071606070827757</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.71606070827757</v>
+      </c>
+      <c r="M3" t="n">
+        <v>63.8395611751688</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57.2982044702679</v>
+      </c>
+      <c r="O3" t="n">
+        <v>66.1905087084084</v>
+      </c>
+      <c r="P3" t="n">
+        <v>157.7113317126</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>175.716190445519</v>
+      </c>
+      <c r="R3" t="n">
+        <v>182.187092451638</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.363310637530366</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.427</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.07703519536804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.32732036936057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.2204430004287</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.59520934729303</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.69935732264614</v>
-      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45330.5431712963</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.42566760042611</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0002164096</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0001354155</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="n">
+        <v>0.329663678057141</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00369505678142552</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.69505678142552</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,93 +2772,296 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45296.6502314815</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.287101494202989</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008795358</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005545688</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.296751051785178</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00000178050631071107</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00000116862083275411</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000838723085708689</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.30719749398599</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00320859021058326</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.20859021058327</v>
+      </c>
+      <c r="M2" t="n">
+        <v>19.3052897157669</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17.5203129303623</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.0759267512841</v>
+      </c>
+      <c r="P2" t="n">
+        <v>61.0248058060432</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>67.2420384622502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>83.858590907443</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.287101494202989</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.07384466060167</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.35271615514642</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.3355569725592</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>164.325790189615</v>
-      </c>
-      <c r="I2" t="n">
-        <v>161.016967035626</v>
-      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0787010974021938</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.472</v>
-      </c>
+        <v>45442.5163194444</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>10.3672514112632</v>
+        <v>0.0003265674</v>
       </c>
       <c r="E3" t="n">
-        <v>10.9971515503266</v>
+        <v>0.0001603865</v>
       </c>
       <c r="F3" t="n">
-        <v>28.9467294966878</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36.1939100968323</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32.697437946942</v>
-      </c>
+        <v>0.0497127904203844</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000298276742522307</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45442</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>45231.5655092593</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0787010974021938</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0009563069</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0006433425</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.121956450628833</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.000000731738703772995</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000000470281821487845</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000337522838388405</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.133387594851899</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.000604936515652732</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.604936515652732</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42.7867861831164</v>
+      </c>
+      <c r="N4" t="n">
+        <v>38.3728191955981</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43.7854939201236</v>
+      </c>
+      <c r="P4" t="n">
+        <v>487.576672527167</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>543.661875062033</v>
+      </c>
+      <c r="R4" t="n">
+        <v>556.351758303476</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45266.6111111111</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0702419695748477</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0007375734</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005553293</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.134929617456475</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.000000809577704738849</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000000525251106316846</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000376974478217832</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.211125365908641</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00151551328442195</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.51551328442195</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32.757440857773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>29.5319901462643</v>
+      </c>
+      <c r="O5" t="n">
+        <v>36.5870371423577</v>
+      </c>
+      <c r="P5" t="n">
+        <v>420.432261865833</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>466.351400110836</v>
+      </c>
+      <c r="R5" t="n">
+        <v>520.87145852839</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>45266</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.0702419695748477</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.4758463663056</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23.7794249186294</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67.0048691180402</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29.7116018188837</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.3308472793225</v>
-      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,35 +3105,255 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45296.6498842593</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.037117163325236</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008795358</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005545688</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.280001773467854</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00000168001064080713</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00000111238339091632</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.00079836128534664</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.380879033653058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00493234050140056</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.93234050140056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11.9541416871179</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.9042584315965</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16.2389080140486</v>
+      </c>
+      <c r="P2" t="n">
+        <v>293.779412398756</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>322.065066836352</v>
+      </c>
+      <c r="R2" t="n">
+        <v>437.504015911901</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45331.5456018519</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0450080881979952</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0001716399</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00003453164</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.149044317373089</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000894265904238533</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000000589510005101284</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000423093305096615</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.343729795068469</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00401710584860558</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.01710584860559</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18.4361613469686</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16.7739892464324</v>
+      </c>
+      <c r="O3" t="n">
+        <v>23.9863588831583</v>
+      </c>
+      <c r="P3" t="n">
+        <v>372.688330431676</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>409.61885041342</v>
+      </c>
+      <c r="R3" t="n">
+        <v>532.934408980889</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45279.5347222222</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.386783771749363</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0008628448</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0007040552</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00652969820521457</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0000000391781892312874</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0000000257402779231433</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0000184738836768971</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.315644627871642</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00338747205754373</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.38747205754373</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.824274131082673</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.748500215388074</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.03806369326463</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.93519033128697</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.13109802242894</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.68383466185675</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.386783771749363</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69898614027281</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.8681389734767</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.41322919888448</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="n">
-        <v>109.102778213897</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104.722550269221</v>
-      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,93 +3397,322 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>45296.5511574074</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.235967061025032</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008715553</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006140667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.251321776875706</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00000150793066125424</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.000000989718022614938</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000710323939675793</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.30719749398599</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00320859021058326</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.20859021058327</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.634570486437</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18.7266877331932</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25.7336934534541</v>
+      </c>
+      <c r="P2" t="n">
+        <v>79.3614483811649</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>87.4468258273052</v>
+      </c>
+      <c r="R2" t="n">
+        <v>109.056295152671</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.235967061025032</v>
-      </c>
-      <c r="C2" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.2216546760952</v>
-      </c>
-      <c r="E2" t="n">
-        <v>58.3589761358274</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78.9772626404988</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.6642341396764</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.5299158189663</v>
-      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45279</v>
+        <v>45231.5222222222</v>
       </c>
       <c r="B3" t="n">
-        <v>0.731052142104283</v>
+        <v>20.33</v>
       </c>
       <c r="C3" t="n">
-        <v>56.88</v>
+        <v>0.126837317310998</v>
       </c>
       <c r="D3" t="n">
-        <v>13.9713069161837</v>
+        <v>0.0008478626</v>
       </c>
       <c r="E3" t="n">
-        <v>15.3878625116803</v>
+        <v>0.0006885226</v>
       </c>
       <c r="F3" t="n">
-        <v>19.3332408734267</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>0.103366506236497</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000620199037418981</v>
       </c>
       <c r="H3" t="n">
-        <v>817.949198000253</v>
+        <v>0.000000398338237924496</v>
       </c>
       <c r="I3" t="n">
-        <v>743.019077998914</v>
-      </c>
+        <v>0.000285888687505619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.12808987392633</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.000557838537283745</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.557838537283745</v>
+      </c>
+      <c r="M3" t="n">
+        <v>77.1924608678692</v>
+      </c>
+      <c r="N3" t="n">
+        <v>69.2049931887076</v>
+      </c>
+      <c r="O3" t="n">
+        <v>78.5298821853742</v>
+      </c>
+      <c r="P3" t="n">
+        <v>545.620127072072</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>608.594241067062</v>
+      </c>
+      <c r="R3" t="n">
+        <v>619.138624580203</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>45279.41875</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.731052142104283</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0008662419</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0004189223</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.247865781902499</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000148719469141499</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00000097127190079554</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000697085096264741</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.265792612757303</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00240195424187601</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.40195424187602</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.5709238847449</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14.0906816794137</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18.5131467784299</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19.2745234818062</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21.2993341896585</v>
+      </c>
+      <c r="R4" t="n">
+        <v>25.3239758317937</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45331.4569444444</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.227653408034089</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0001171699</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.00002316232</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0837502287289524</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.000000502501372373714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000000329606103113403</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000236559404148375</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.301963020489453</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00310017663526587</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.10017663526588</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19.4805918611387</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.6729808256799</v>
+      </c>
+      <c r="O5" t="n">
+        <v>24.1479379522287</v>
+      </c>
+      <c r="P5" t="n">
+        <v>77.6310839283967</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>85.5712727051366</v>
+      </c>
+      <c r="R5" t="n">
+        <v>106.073254781289</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>45331</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.227653408034089</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54.97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.1724896123765</v>
-      </c>
-      <c r="E4" t="n">
-        <v>69.4704696855217</v>
-      </c>
-      <c r="F4" t="n">
-        <v>89.5578674988205</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25.0435028150997</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22.7367206252144</v>
-      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -21,12 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Date</t>
+    <t xml:space="preserve">day</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_enviro</t>
   </si>
   <si>
     <t xml:space="preserve">depth</t>
@@ -35,22 +41,7 @@
     <t xml:space="preserve">Q</t>
   </si>
   <si>
-    <t xml:space="preserve">Temp_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO2_1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCO2_1d</t>
-  </si>
-  <si>
     <t xml:space="preserve">k600_1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pCO2_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pCO2_air</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -88,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -442,78 +433,68 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45231.64375</v>
+        <v>45442</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.035173797620323</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.13896152794437</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0379130411690893</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0422741205900139</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0432608619434713</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.004695205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.000782989</v>
+        <v>175.6364</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45279.6388888889</v>
+        <v>45231</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>840.8607</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4695.205</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.035173797620323</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.13896152794437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.34248318816917</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>654.3467</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4360.498</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.330556366567279</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F4" t="n">
         <v>190.3974005449</v>
       </c>
-      <c r="E3" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00590225241012434</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00650357634626325</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.00811071110764718</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004360498</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0006455732</v>
+      <c r="G4" t="n">
+        <v>1.19582428181441</v>
       </c>
     </row>
   </sheetData>
@@ -552,206 +533,97 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.6913194444</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
+        <v>699.5814</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4167.053</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.296969095756373</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>196.864418232578</v>
       </c>
-      <c r="E2" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00798247302314806</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.00875299641655113</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0118454390850238</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.004167053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0006240298</v>
+        <v>1.86434062270287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45296.7083333333</v>
+        <v>45231</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.299012281660927</v>
+        <v>721.2306</v>
       </c>
       <c r="D3" t="n">
-        <v>198.853064043906</v>
+        <v>2687.313</v>
       </c>
       <c r="E3" t="n">
-        <v>11.64</v>
+        <v>0.0980755161510328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00792792785104415</v>
+        <v>38.802278129263</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00869318616795008</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0117644978138582</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004167053</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0006240298</v>
+        <v>6.08858534018993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45231.6090277778</v>
+        <v>45266</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0980755161510328</v>
+        <v>739.4684</v>
       </c>
       <c r="D4" t="n">
-        <v>38.802278129263</v>
+        <v>3986.563</v>
       </c>
       <c r="E4" t="n">
-        <v>18.33</v>
+        <v>0.089761863160091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0325815781530077</v>
+        <v>34.077410940261</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0362063009427904</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0392241816470906</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.002687313</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0007167223</v>
+        <v>0.806678245973644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45266.6384259259</v>
+        <v>45502</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.089761863160091</v>
+        <v>171.4131</v>
       </c>
       <c r="D5" t="n">
-        <v>34.077410940261</v>
+        <v>5518.321</v>
       </c>
       <c r="E5" t="n">
-        <v>14.04</v>
+        <v>0.133514223392082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00434260618271195</v>
+        <v>60.9869501547559</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00478503271099972</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0059674886390562</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.003986563</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0006486447</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45502.6175925926</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.133514223392082</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60.9869501547559</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.00809590389607621</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.00911455822431225</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0079116721169454</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.005518321</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0001633749</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45502.625</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.155848358969445</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76.5080420081151</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00693570550559002</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.00780837970273112</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.00677787540023989</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.005518321</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0001633749</v>
+        <v>1.17958379755853</v>
       </c>
     </row>
   </sheetData>
@@ -790,174 +662,114 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45231.4722222222</v>
+        <v>45231</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
+        <v>682.4269</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22186.28</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.456692462475835</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>8.50645802354061</v>
       </c>
-      <c r="E2" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.000433880179402423</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.000483868788155823</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.000493781068132579</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02218628</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0006591576</v>
+        <v>0.0684351718048159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45266.5417824074</v>
+        <v>45266</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
+        <v>689.974</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10983.57</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.552135735180561</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>22.0316654781918</v>
       </c>
-      <c r="E3" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.000416896926871453</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.000462168864549951</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.000521070593864468</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01098357</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0005852961</v>
+        <v>0.0698327516820318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279.5114583333</v>
+        <v>45279</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
+        <v>812.3528</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5353.459</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.0790663344963</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>634.241910988811</v>
       </c>
-      <c r="E4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00000505549885321294</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.00000557111796013039</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00000693614758484359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.005353459</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0007040552</v>
+        <v>0.0028010546543966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45279.55</v>
+        <v>45296</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1.06962540652354</v>
+        <v>761.1271</v>
       </c>
       <c r="D5" t="n">
-        <v>606.900840310578</v>
+        <v>7096.215</v>
       </c>
       <c r="E5" t="n">
-        <v>14.09</v>
+        <v>0.67402234259014</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00000471716364562042</v>
+        <v>59.9016340445825</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00000519827535719612</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00000647195146866428</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.005730915</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0007040552</v>
+        <v>0.146668655159062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45296.5040509259</v>
+        <v>45330</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67402234259014</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59.9016340445825</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.000755282819807817</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.000831574985082297</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.00105080147893728</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.007096215</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0006925722</v>
+        <v>126.8207</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -996,174 +808,120 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.4760416667</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
+        <v>655.3443</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.214055653565853</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>33.3534947452844</v>
       </c>
-      <c r="E2" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00732691643555558</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.0080323662310231</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0109114363686434</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.006443836</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0006024109</v>
+        <v>1.59736864786896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45484.5087962963</v>
+        <v>45484</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
+        <v>185.5751</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.235192059475028</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>46.7677177950231</v>
       </c>
-      <c r="E3" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0215618178212011</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.0242336266713568</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0216533861960001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006443836</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0001855751</v>
+        <v>3.24596632164389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279.4587962963</v>
+        <v>45279</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>699.4171</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.533074473421674</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>882.279604435074</v>
       </c>
-      <c r="E4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0178959084093273</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.0197151654355765</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0246700310958399</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.006443836</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0006994171</v>
+        <v>4.85377436183465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45330.4778935185</v>
+        <v>45330</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
+        <v>151.7148</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.22983750331137</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>43.0568948071327</v>
       </c>
-      <c r="E5" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00294809943084721</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.00323575901991282</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00430885602833152</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.006443836</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0001517148</v>
+        <v>0.620780269687417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45502.4672453704</v>
+        <v>45502</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
+        <v>190.8975</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.305153563034398</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>119.104421174517</v>
       </c>
-      <c r="E6" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0193820280168667</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.0217799972849965</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0195182501493803</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.006443836</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0001908975</v>
+        <v>3.35464099793977</v>
       </c>
     </row>
   </sheetData>
@@ -1202,194 +960,120 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.6100694444</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
+        <v>473.8488</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.414405954266454</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>40.117155253862</v>
       </c>
-      <c r="E2" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2" t="n">
-        <v>0.006443836</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0004179419</v>
+      <c r="G2" t="n">
+        <v>0.0735270971971461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231.5059027778</v>
+        <v>45231</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
+        <v>730.7166</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6744.454</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.320485291879674</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>19.249977356038</v>
       </c>
-      <c r="E3" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="n">
-        <v>0.006744454</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.000657973</v>
+      <c r="G3" t="n">
+        <v>0.0222985802921828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279.4587962963</v>
+        <v>45279</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
+        <v>699.4171</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8053.117</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.864893218877346</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>328.297607354443</v>
       </c>
-      <c r="E4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00859081713460041</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.00946968605582419</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0117345810306004</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.008053117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0006994171</v>
+        <v>2.11922155836978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45331.5131944444</v>
+        <v>45331</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
+        <v>17.8215</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5860.433</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.387139990643618</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>33.0279064365409</v>
       </c>
-      <c r="E5" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00201094959683937</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.00221237372977657</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00283181800346735</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.005860433</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0000178215</v>
+        <v>0.430119710800841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45505.4024305556</v>
+        <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
+        <v>152.9137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9327.649</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.403837751311867</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>37.2628849619717</v>
       </c>
-      <c r="E6" t="n">
-        <v>24.93</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.00103143922432156</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.0011598250270382</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.00102755880125457</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.009327649</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0001529137</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45505.4166666667</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.396862737361838</v>
-      </c>
-      <c r="D7" t="n">
-        <v>35.4534259287069</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24.93</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00104956716202132</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.00118020939417975</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.00104561853903915</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.009327649</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0001529137</v>
+        <v>0.144630229801659</v>
       </c>
     </row>
   </sheetData>
@@ -1428,366 +1112,181 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45484.4175925926</v>
+        <v>45442</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.261606028666603</v>
+        <v>238.0594</v>
       </c>
       <c r="D2" t="n">
-        <v>192.941170737779</v>
+        <v>650.3409</v>
       </c>
       <c r="E2" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00363695163613916</v>
-      </c>
+        <v>-0.0198604433572502</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.00408762048278299</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.00365239698278412</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.006961397</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0001607188</v>
+        <v>22.2704475067779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45484.4583333333</v>
+        <v>45484</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26209921147115</v>
+        <v>164.4795</v>
       </c>
       <c r="D3" t="n">
-        <v>193.276737230752</v>
+        <v>6961.397</v>
       </c>
       <c r="E3" t="n">
-        <v>24.64</v>
+        <v>0.261606028666603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00369358583172851</v>
+        <v>192.941170737779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00415127244219224</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.00370927169154778</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006844521</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0001607188</v>
+        <v>0.568248505056918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45296.4006944444</v>
+        <v>45296</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
+        <v>429.0588</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3375.242</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.226590049543736</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>168.984448600999</v>
       </c>
-      <c r="E4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0106304218448311</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.0116686294268364</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0155170944096068</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.003375242</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0003726156</v>
+        <v>2.4559431573667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45296.4166666667</v>
+        <v>45266</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225180955816457</v>
+        <v>409.7124</v>
       </c>
       <c r="D5" t="n">
-        <v>168.014663183867</v>
+        <v>4325.972</v>
       </c>
       <c r="E5" t="n">
-        <v>12.15</v>
+        <v>0.141480788416122</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0108081223284763</v>
+        <v>109.428373856397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0118636848181362</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0157764815930699</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.003344355</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0003726156</v>
+        <v>2.86773058572655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45266.452662037</v>
+        <v>45279</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.141480788416122</v>
+        <v>444.28</v>
       </c>
       <c r="D6" t="n">
-        <v>109.428373856397</v>
+        <v>3363.2</v>
       </c>
       <c r="E6" t="n">
-        <v>17.16</v>
+        <v>0.70300463873655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0158506394704604</v>
+        <v>480.305323417482</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0175743020571863</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0197691507734128</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.004325972</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0003503205</v>
+        <v>0.950330759704999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45266.4583333333</v>
+        <v>45330</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.142185335279762</v>
+        <v>121.9046</v>
       </c>
       <c r="D7" t="n">
-        <v>109.931045038529</v>
+        <v>3088.784</v>
       </c>
       <c r="E7" t="n">
-        <v>17.16</v>
+        <v>0.216585484080059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0164595769055066</v>
+        <v>162.088682488652</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0182494578095693</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0205286265022904</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.004159918</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0003503205</v>
+        <v>0.820949005332906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45279.4179398148</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.70300463873655</v>
-      </c>
-      <c r="D8" t="n">
-        <v>480.305323417482</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00440453289497349</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.00486353676390149</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00585594249407953</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0033632</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0004189223</v>
+        <v>129.9305</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45330.4283564815</v>
+        <v>45502</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216585484080059</v>
+        <v>13.78195</v>
       </c>
       <c r="D9" t="n">
-        <v>162.088682488652</v>
+        <v>6713.144</v>
       </c>
       <c r="E9" t="n">
-        <v>12.5</v>
+        <v>0.426681358817262</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00381808981891601</v>
+        <v>302.999579661364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00419396113088176</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00551080358751655</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.003088784</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0001219046</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45502.4106481481</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.426681358817262</v>
-      </c>
-      <c r="D10" t="n">
-        <v>302.999579661364</v>
-      </c>
-      <c r="E10" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00139996736249137</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.00157317311313406</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.001409806711573</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.006713144</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.00001378195</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45502.372337963</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.435910922730936</v>
-      </c>
-      <c r="D11" t="n">
-        <v>309.041623837592</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.00138067606908733</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.00155149507626411</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.00139037983374384</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.006662922</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.00001378195</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45502.4166666667</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.424356354167254</v>
-      </c>
-      <c r="D12" t="n">
-        <v>301.475951249984</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00140814398866136</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.00158236136194</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.00141804080528213</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.006710735</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.00001378195</v>
+        <v>0.233989057347097</v>
       </c>
     </row>
   </sheetData>
@@ -1826,136 +1325,74 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.4349537037</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
+        <v>650.676</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4929.498</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.423553959835191</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>12.8199502849837</v>
       </c>
-      <c r="E2" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00367073007938591</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.00403447093058812</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.00524904647033088</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.004929498</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0005508729</v>
+        <v>0.777524033759385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231.4138888889</v>
+        <v>45231</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
+        <v>402.3127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17383.67</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.363310637530366</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>7.68451828953275</v>
       </c>
-      <c r="E3" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00206612060558619</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.0023019959179356</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.00238676892585069</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01738367</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0003971049</v>
+        <v>0.339482655876474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45231.4166666667</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.364437912512188</v>
+        <v>137.3116</v>
       </c>
       <c r="D4" t="n">
-        <v>7.76434492835462</v>
+        <v>4929.498</v>
       </c>
       <c r="E4" t="n">
-        <v>19.72</v>
+        <v>0.42566760042611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00207810736435061</v>
+        <v>13.0346069934256</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00231535112559888</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00240061595068711</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01723345</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0003971049</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45330.5431712963</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.42566760042611</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.0346069934256</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="n">
-        <v>0.004929498</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0001354155</v>
+        <v>0.651734119580782</v>
       </c>
     </row>
   </sheetData>
@@ -1994,174 +1431,133 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.6502314815</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
+        <v>644.8127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>850.9911</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.287101494202989</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>160.549987790855</v>
       </c>
-      <c r="E2" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.128989231210041</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.142130707860159</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.177253414060634</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0008509911</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0005545688</v>
+        <v>254.289705321252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231.5655092593</v>
+        <v>45442</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0787010974021938</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.3556115066771</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00629327151589383</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00701717695982408</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0071809683904712</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01113056</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0006433425</v>
-      </c>
+        <v>163.7652</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45266.6111111111</v>
+        <v>45484</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0702419695748477</v>
+        <v>11.57285</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2229187963794</v>
+        <v>1573.128</v>
       </c>
       <c r="E4" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00786692500555991</v>
-      </c>
+        <v>-0.046501445730163</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.00872614169671062</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0097462946435045</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01031943</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0005553293</v>
+        <v>73.5460866912723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45502.5287037037</v>
+        <v>45231</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13012845298418</v>
+        <v>698.6585</v>
       </c>
       <c r="D5" t="n">
-        <v>57.9844463316489</v>
+        <v>11130.56</v>
       </c>
       <c r="E5" t="n">
-        <v>23.83</v>
+        <v>0.0787010974021938</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0715495535494808</v>
+        <v>30.3556115066771</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08030376476991</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.07348710367913</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.001573128</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.000006975608</v>
+        <v>1.02584571862724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45502.5416666667</v>
+        <v>45266</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.111176142352286</v>
+        <v>595.437</v>
       </c>
       <c r="D6" t="n">
-        <v>47.3511459073645</v>
+        <v>10319.43</v>
       </c>
       <c r="E6" t="n">
-        <v>23.83</v>
+        <v>0.0702419695748477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0837466790815594</v>
+        <v>26.2229187963794</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0939932296373565</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0860145253623884</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.001573128</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.000006975608</v>
+        <v>1.35540103149778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.975608</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1573.128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.13012845298418</v>
+      </c>
+      <c r="F7" t="n">
+        <v>57.9844463316489</v>
+      </c>
+      <c r="G7" t="n">
+        <v>83.2826119029043</v>
       </c>
     </row>
   </sheetData>
@@ -2200,174 +1596,97 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.6498842593</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
+        <v>637.0341</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1245.823</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.037117163325236</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.321281255408811</v>
       </c>
-      <c r="E2" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.380260141766288</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.416872329388862</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.566293389164272</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.001245823</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0005545688</v>
+        <v>147.778907017979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45331.5456018519</v>
+        <v>45331</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
+        <v>34.53164</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8912.528</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0450080881979952</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.517232432375374</v>
       </c>
-      <c r="E3" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0133951121902923</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.0147224638082738</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0191546544805885</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.008912528</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00003453164</v>
+        <v>2.88743495726164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45502.5103009259</v>
+        <v>45502</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
+        <v>7.563263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21211.78</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.087069535957254</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>2.64000164331967</v>
       </c>
-      <c r="E4" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00256153857551975</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.0028789488000584</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00257241687559121</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02121178</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.000007563263</v>
+        <v>0.359786706577395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45279.5347222222</v>
+        <v>45279</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
+        <v>801.0999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7747.794</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.386783771749363</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>105.039870644414</v>
       </c>
-      <c r="E5" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0000880550120702301</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.0000969692019714811</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.000122119819287818</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.007747794</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0007040552</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45279.55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.388192865476641</v>
-      </c>
-      <c r="D6" t="n">
-        <v>105.987703938119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0000866700425743972</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0000954440260205807</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.000120199062926836</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.007834375</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0007040552</v>
+        <v>0.0272365717854974</v>
       </c>
     </row>
   </sheetData>
@@ -2406,200 +1725,120 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.5511574074</v>
+        <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>679.7284</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8812.951</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.235967061025032</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>24.0460853935087</v>
       </c>
-      <c r="E2" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00480542156728728</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.00529499991989912</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.00660347666864745</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008812951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0006140667</v>
+        <v>0.93871656829109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231.5222222222</v>
+        <v>45231</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
+        <v>719.916</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4485.295</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.126837317310998</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>3.69999456244952</v>
       </c>
-      <c r="E3" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00918119056154874</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.0102408606733082</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0104182918009092</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004485295</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0006885226</v>
+        <v>1.4602382555091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279.41875</v>
+        <v>45279</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
+        <v>418.9223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9377.646</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.731052142104283</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>727.238167981532</v>
       </c>
-      <c r="E4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00144779303192805</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.00159988534365597</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00190219362800815</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.009377646</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0004189223</v>
+        <v>0.277599313870848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45331.4569444444</v>
+        <v>45331</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
+        <v>23.16232</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7246.695</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.227653408034089</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>21.5814112555406</v>
       </c>
-      <c r="E5" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0018919646976586</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.00208547683349575</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00258513527386852</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.007246695</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.00002316232</v>
+        <v>0.374381817909918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45331.4583333333</v>
+        <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226807951797721</v>
+        <v>179.0738</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3406698211679</v>
+        <v>3742.647</v>
       </c>
       <c r="E6" t="n">
-        <v>14.22</v>
+        <v>0.27281486199336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00191581967595772</v>
+        <v>37.2422869213013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002111771724023</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.00261773014518654</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.007183342</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.00002316232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45505.4266203704</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.27281486199336</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37.2422869213013</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="n">
-        <v>0.003742647</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0001735585</v>
+        <v>0.307763524511539</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -551,7 +551,7 @@
         <v>0.296969095756373</v>
       </c>
       <c r="F2" t="n">
-        <v>196.864418232578</v>
+        <v>160.775079076322</v>
       </c>
       <c r="G2" t="n">
         <v>1.86434062270287</v>
@@ -574,7 +574,7 @@
         <v>0.0980755161510328</v>
       </c>
       <c r="F3" t="n">
-        <v>38.802278129263</v>
+        <v>34.2347763847126</v>
       </c>
       <c r="G3" t="n">
         <v>6.08858534018993</v>
@@ -597,7 +597,7 @@
         <v>0.089761863160091</v>
       </c>
       <c r="F4" t="n">
-        <v>34.077410940261</v>
+        <v>30.2524072633045</v>
       </c>
       <c r="G4" t="n">
         <v>0.806678245973644</v>
@@ -620,7 +620,7 @@
         <v>0.133514223392082</v>
       </c>
       <c r="F5" t="n">
-        <v>60.9869501547559</v>
+        <v>52.6627348025052</v>
       </c>
       <c r="G5" t="n">
         <v>1.17958379755853</v>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -453,47 +453,64 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231</v>
+        <v>45569</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>840.8607</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4695.205</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.035173797620323</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.13896152794437</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.34248318816917</v>
+        <v>410.61864</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279</v>
+        <v>45231</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
+        <v>840.8607</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4695.205</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.035173797620323</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.13896152794437</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.34248318816917</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>654.3467</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4360.498</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.330556366567279</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>190.3974005449</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>1.19582428181441</v>
       </c>
     </row>
@@ -626,6 +643,23 @@
         <v>1.17958379755853</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>396.4812</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -820,7 +854,7 @@
         <v>655.3443</v>
       </c>
       <c r="D2" t="n">
-        <v>6443.836</v>
+        <v>3992.646</v>
       </c>
       <c r="E2" t="n">
         <v>0.214055653565853</v>
@@ -829,7 +863,7 @@
         <v>33.3534947452844</v>
       </c>
       <c r="G2" t="n">
-        <v>1.59736864786896</v>
+        <v>2.87398527771799</v>
       </c>
     </row>
     <row r="3">
@@ -843,7 +877,7 @@
         <v>185.5751</v>
       </c>
       <c r="D3" t="n">
-        <v>6443.836</v>
+        <v>8306.523</v>
       </c>
       <c r="E3" t="n">
         <v>0.235192059475028</v>
@@ -852,7 +886,7 @@
         <v>46.7677177950231</v>
       </c>
       <c r="G3" t="n">
-        <v>3.24596632164389</v>
+        <v>2.45769923351205</v>
       </c>
     </row>
     <row r="4">
@@ -866,7 +900,7 @@
         <v>699.4171</v>
       </c>
       <c r="D4" t="n">
-        <v>6443.836</v>
+        <v>3992.646</v>
       </c>
       <c r="E4" t="n">
         <v>0.533074473421674</v>
@@ -875,7 +909,7 @@
         <v>882.279604435074</v>
       </c>
       <c r="G4" t="n">
-        <v>4.85377436183465</v>
+        <v>12.3529207170174</v>
       </c>
     </row>
     <row r="5">
@@ -889,7 +923,7 @@
         <v>151.7148</v>
       </c>
       <c r="D5" t="n">
-        <v>6443.836</v>
+        <v>3992.646</v>
       </c>
       <c r="E5" t="n">
         <v>0.22983750331137</v>
@@ -898,7 +932,7 @@
         <v>43.0568948071327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.620780269687417</v>
+        <v>1.04128657701929</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +946,7 @@
         <v>190.8975</v>
       </c>
       <c r="D6" t="n">
-        <v>6443.836</v>
+        <v>13061.48</v>
       </c>
       <c r="E6" t="n">
         <v>0.305153563034398</v>
@@ -921,8 +955,25 @@
         <v>119.104421174517</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35464099793977</v>
-      </c>
+        <v>1.45288383955037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>547.61718</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6443.836</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1076,6 +1127,23 @@
         <v>0.144630229801659</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>395.73576</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1289,6 +1357,23 @@
         <v>0.233989057347097</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>395.84652</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1395,6 +1480,23 @@
         <v>0.651734119580782</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>547.30542</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1560,6 +1662,23 @@
         <v>83.2826119029043</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>395.6382</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1841,6 +1960,23 @@
         <v>0.307763524511539</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>365.72466</v>
+      </c>
+      <c r="D7" t="n">
+        <v>982.3046</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -469,109 +469,130 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45331</v>
+        <v>45590</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>609.1381296</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4695.205</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0537650279846015</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.03021997925883</v>
-      </c>
-      <c r="G3" t="n">
-        <v>58.7118333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>181.070798983661</v>
-      </c>
-      <c r="I3" t="n">
-        <v>219.842009977068</v>
+        <v>365.64864</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45569</v>
+        <v>45331</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>410.61864</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
+        <v>609.1381296</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2525.272</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0534585500989185</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.98056401243498</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58.7118333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35.5620436672876</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43.1766535663998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45231</v>
+        <v>45569</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>840.8607</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4695.205</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0367414206545583</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.26148301458118</v>
-      </c>
-      <c r="G5" t="n">
-        <v>68.2418333333333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.93192547499175</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.07227221814056</v>
+        <v>410.61864</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45279</v>
+        <v>45231</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="n">
+        <v>840.8607</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0367414206545583</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.26148301458118</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68.2418333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.1565969967869</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21.6571527601944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
         <v>654.3467</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4360.498</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>0.335585069806503</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>197.523871403503</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>58.1367916666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>0.956167840717644</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>1.17338885771569</v>
       </c>
     </row>
@@ -635,7 +656,7 @@
         <v>0.304619300450722</v>
       </c>
       <c r="F2" t="n">
-        <v>166.625020500851</v>
+        <v>165.823972739732</v>
       </c>
       <c r="G2" t="n">
         <v>52.2674583333333</v>
@@ -649,139 +670,168 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231</v>
+        <v>45590</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>721.2306</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2687.313</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.102308668556731</v>
-      </c>
-      <c r="F3" t="n">
-        <v>36.3214614553113</v>
-      </c>
-      <c r="G3" t="n">
-        <v>65.8377083333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.45069458380159</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.81745167067084</v>
+        <v>380.19384</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45266</v>
+        <v>45231</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>739.4684</v>
+        <v>721.2306</v>
       </c>
       <c r="D4" t="n">
-        <v>3986.563</v>
+        <v>2687.313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0932141427919221</v>
+        <v>0.1019830414486</v>
       </c>
       <c r="F4" t="n">
-        <v>31.8969539395837</v>
+        <v>36.0540742085476</v>
       </c>
       <c r="G4" t="n">
-        <v>57.605125</v>
+        <v>65.8377083333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.625915910285651</v>
+        <v>1.82495889091172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.775618212081237</v>
+        <v>1.94775362765518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45331</v>
+        <v>45266</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>447.771114</v>
+        <v>739.4684</v>
       </c>
       <c r="D5" t="n">
-        <v>3393.52</v>
+        <v>3986.563</v>
       </c>
       <c r="E5" t="n">
-        <v>0.262243742214757</v>
+        <v>0.0929485828202428</v>
       </c>
       <c r="F5" t="n">
-        <v>135.197771337058</v>
+        <v>31.6815348320814</v>
       </c>
       <c r="G5" t="n">
-        <v>55.680375</v>
+        <v>57.605125</v>
       </c>
       <c r="H5" t="n">
-        <v>110.100462922186</v>
+        <v>0.21060279927259</v>
       </c>
       <c r="I5" t="n">
-        <v>141.454668866733</v>
+        <v>0.260973341541299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45502</v>
+        <v>45331</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>719.93502</v>
+        <v>447.771114</v>
       </c>
       <c r="D6" t="n">
-        <v>5518.321</v>
+        <v>3393.52</v>
       </c>
       <c r="E6" t="n">
-        <v>0.149184519884191</v>
+        <v>0.262140092531933</v>
       </c>
       <c r="F6" t="n">
-        <v>61.5479243247423</v>
+        <v>134.504322807786</v>
       </c>
       <c r="G6" t="n">
-        <v>77.6787083333333</v>
+        <v>55.680375</v>
       </c>
       <c r="H6" t="n">
-        <v>7.51274892514844</v>
+        <v>36.6989769712196</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5689915421026</v>
+        <v>47.150043673119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45569</v>
+        <v>45502</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="n">
+        <v>719.93502</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5518.321</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.149697122890749</v>
+      </c>
+      <c r="F7" t="n">
+        <v>61.6176764261218</v>
+      </c>
+      <c r="G7" t="n">
+        <v>77.6787083333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.54253644329191</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.22314103104973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
         <v>396.4812</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
+      <c r="D8" t="n">
+        <v>8222.763</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.193682525546869</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88.1944702176749</v>
+      </c>
+      <c r="G8" t="n">
+        <v>76.7826666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.488676963637731</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.433582956035906</v>
       </c>
     </row>
   </sheetData>
@@ -838,22 +888,22 @@
         <v>682.4269</v>
       </c>
       <c r="D2" t="n">
-        <v>22186.28</v>
+        <v>830.2119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45710344814629</v>
+        <v>0.457071833863947</v>
       </c>
       <c r="F2" t="n">
-        <v>8.54697044820926</v>
+        <v>8.54385410785013</v>
       </c>
       <c r="G2" t="n">
         <v>68.4705833333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0670503007400046</v>
+        <v>26.0801538435877</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0683601994450067</v>
+        <v>26.589657296502</v>
       </c>
     </row>
     <row r="3">
@@ -867,22 +917,22 @@
         <v>689.974</v>
       </c>
       <c r="D3" t="n">
-        <v>10983.57</v>
+        <v>830.2119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.554070303443637</v>
+        <v>0.553959427639135</v>
       </c>
       <c r="F3" t="n">
-        <v>22.4326437048015</v>
+        <v>22.4094036332088</v>
       </c>
       <c r="G3" t="n">
         <v>62.6400833333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0616144650427493</v>
+        <v>5.34528612711999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0696250374446129</v>
+        <v>6.04023335258504</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +946,7 @@
         <v>812.3528</v>
       </c>
       <c r="D4" t="n">
-        <v>5353.459</v>
+        <v>830.2119</v>
       </c>
       <c r="E4" t="n">
         <v>1.08829296279805</v>
@@ -908,10 +958,10 @@
         <v>57.986125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0022507913233756</v>
+        <v>0.125967908669242</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0027695360543889</v>
+        <v>0.15500000427948</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +975,7 @@
         <v>761.1271</v>
       </c>
       <c r="D5" t="n">
-        <v>7096.215</v>
+        <v>830.2119</v>
       </c>
       <c r="E5" t="n">
         <v>0.676482385389013</v>
@@ -937,10 +987,10 @@
         <v>56.9804166666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11633218327696</v>
+        <v>179.748405162988</v>
       </c>
       <c r="I5" t="n">
-        <v>0.145863767263071</v>
+        <v>225.378556458287</v>
       </c>
     </row>
   </sheetData>
@@ -1000,19 +1050,19 @@
         <v>3992.646</v>
       </c>
       <c r="E2" t="n">
-        <v>0.216151680485179</v>
+        <v>0.215852248068133</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5633404382459</v>
+        <v>34.3905053392513</v>
       </c>
       <c r="G2" t="n">
         <v>53.7677083333333</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12592954072479</v>
+        <v>0.425924034599155</v>
       </c>
       <c r="I2" t="n">
-        <v>2.83290741848358</v>
+        <v>0.567565074106377</v>
       </c>
     </row>
     <row r="3">
@@ -1029,77 +1079,69 @@
         <v>8306.523</v>
       </c>
       <c r="E3" t="n">
-        <v>0.235262514161392</v>
+        <v>0.236097905442564</v>
       </c>
       <c r="F3" t="n">
-        <v>46.911351019178</v>
+        <v>47.5142551577471</v>
       </c>
       <c r="G3" t="n">
         <v>76.44125</v>
       </c>
       <c r="H3" t="n">
-        <v>15.7409039480651</v>
+        <v>15.6852075034425</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0442862758361</v>
+        <v>13.9945930170877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279</v>
+        <v>45590</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>699.4171</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3992.646</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.528260069853473</v>
-      </c>
-      <c r="F4" t="n">
-        <v>855.511327136857</v>
-      </c>
-      <c r="G4" t="n">
-        <v>57.950125</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.0849792289545</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.4176080852851</v>
+        <v>532.55862</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45330</v>
+        <v>45279</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>637.20216</v>
+        <v>699.4171</v>
       </c>
       <c r="D5" t="n">
         <v>3992.646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.22990208677387</v>
+        <v>0.528260069853473</v>
       </c>
       <c r="F5" t="n">
-        <v>43.2063922049183</v>
+        <v>855.511327136857</v>
       </c>
       <c r="G5" t="n">
-        <v>54.89125</v>
+        <v>57.950125</v>
       </c>
       <c r="H5" t="n">
-        <v>4.98425306633946</v>
+        <v>10.0849792289545</v>
       </c>
       <c r="I5" t="n">
-        <v>6.50024965276151</v>
+        <v>12.4176080852851</v>
       </c>
     </row>
     <row r="6">
@@ -1116,19 +1158,19 @@
         <v>13061.48</v>
       </c>
       <c r="E6" t="n">
-        <v>0.313161912384431</v>
+        <v>0.312017862477283</v>
       </c>
       <c r="F6" t="n">
-        <v>130.828131056292</v>
+        <v>129.153315358895</v>
       </c>
       <c r="G6" t="n">
         <v>76.3831666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>10.7415255513334</v>
+        <v>3.59373602358429</v>
       </c>
       <c r="I6" t="n">
-        <v>9.59220340800406</v>
+        <v>3.20921332525369</v>
       </c>
     </row>
     <row r="7">
@@ -1144,20 +1186,20 @@
       <c r="D7" t="n">
         <v>6443.836</v>
       </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
+      <c r="E7" t="n">
+        <v>0.249963155450786</v>
+      </c>
+      <c r="F7" t="n">
+        <v>58.2627767675511</v>
       </c>
       <c r="G7" t="n">
-        <v>76.1801818181818</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
+        <v>76.3036666666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.9128595521566</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33.0116836786571</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1262,7 @@
         <v>0.414226881938612</v>
       </c>
       <c r="F2" t="n">
-        <v>40.0715568194239</v>
+        <v>39.2335750636623</v>
       </c>
       <c r="G2" t="n">
         <v>54.1457916666667</v>
@@ -1234,89 +1276,81 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231</v>
+        <v>45590</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>730.7166</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6744.454</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.322687000828547</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.6390347659575</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67.0364166666667</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0211332013024744</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0220906236678744</v>
+        <v>411.06708</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279</v>
+        <v>45231</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>699.4171</v>
+        <v>730.7166</v>
       </c>
       <c r="D4" t="n">
-        <v>8053.117</v>
+        <v>6744.454</v>
       </c>
       <c r="E4" t="n">
-        <v>0.865679962875077</v>
+        <v>0.322687000828547</v>
       </c>
       <c r="F4" t="n">
-        <v>330.063824555946</v>
+        <v>18.5265754025319</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5171666666667</v>
+        <v>67.0364166666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73058886604297</v>
+        <v>0.0211332013024744</v>
       </c>
       <c r="I4" t="n">
-        <v>2.10887680757056</v>
+        <v>0.0220906236678744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45330</v>
+        <v>45279</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>532.64694</v>
+        <v>699.4171</v>
       </c>
       <c r="D5" t="n">
-        <v>2838.85</v>
+        <v>8053.117</v>
       </c>
       <c r="E5" t="n">
-        <v>0.394026936235691</v>
+        <v>0.865679962875077</v>
       </c>
       <c r="F5" t="n">
-        <v>34.7381358037017</v>
+        <v>360.825783894642</v>
       </c>
       <c r="G5" t="n">
-        <v>55.0367083333333</v>
+        <v>58.5171666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>2887.65260585549</v>
+        <v>1.73058886604297</v>
       </c>
       <c r="I5" t="n">
-        <v>3755.69924893158</v>
+        <v>2.10887680757056</v>
       </c>
     </row>
     <row r="6">
@@ -1333,19 +1367,19 @@
         <v>9327.649</v>
       </c>
       <c r="E6" t="n">
-        <v>0.396686600645929</v>
+        <v>0.397236689158693</v>
       </c>
       <c r="F6" t="n">
-        <v>35.5096887232002</v>
+        <v>34.6942253975892</v>
       </c>
       <c r="G6" t="n">
         <v>76.9123333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.339128191068414</v>
+        <v>0.338658570493698</v>
       </c>
       <c r="I6" t="n">
-        <v>0.300278142582652</v>
+        <v>0.299862321080316</v>
       </c>
     </row>
     <row r="7">
@@ -1358,15 +1392,23 @@
       <c r="C7" t="n">
         <v>395.73576</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
+      <c r="D7" t="n">
+        <v>3225.154</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.384873698232245</v>
+      </c>
+      <c r="F7" t="n">
+        <v>31.4751395946957</v>
+      </c>
+      <c r="G7" t="n">
+        <v>75.441</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.32229029820532</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.73455946415561</v>
       </c>
     </row>
   </sheetData>
@@ -1422,23 +1464,15 @@
       <c r="C2" t="n">
         <v>688.71222</v>
       </c>
-      <c r="D2" t="n">
-        <v>885.2657</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.0213781547260064</v>
-      </c>
-      <c r="F2" t="e">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G2" t="n">
-        <v>72.257625</v>
-      </c>
-      <c r="H2" t="n">
-        <v>61.5312486880872</v>
-      </c>
-      <c r="I2" t="n">
-        <v>58.8159809395364</v>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
@@ -1455,177 +1489,222 @@
         <v>6961.397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.255925619578512</v>
+        <v>0.25670942796431</v>
       </c>
       <c r="F3" t="n">
-        <v>189.018634121478</v>
+        <v>183.588766949175</v>
       </c>
       <c r="G3" t="n">
         <v>76.5790416666667</v>
       </c>
       <c r="H3" t="n">
-        <v>4.76004734611016</v>
+        <v>4.74551354010129</v>
       </c>
       <c r="I3" t="n">
-        <v>4.23703449765457</v>
+        <v>4.22409760166086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45296</v>
+        <v>45590</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>429.0588</v>
+        <v>548.1441</v>
       </c>
       <c r="D4" t="n">
-        <v>3375.242</v>
+        <v>8635.243</v>
       </c>
       <c r="E4" t="n">
-        <v>0.224749420862478</v>
+        <v>0.00145530175357868</v>
       </c>
       <c r="F4" t="n">
-        <v>167.714549984267</v>
+        <v>1.5389269136462</v>
       </c>
       <c r="G4" t="n">
-        <v>54.8710416666667</v>
+        <v>69.717</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88918874086874</v>
+        <v>47.9960623899611</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46463931252116</v>
+        <v>47.9025876477804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45266</v>
+        <v>45296</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>409.7124</v>
+        <v>429.0588</v>
       </c>
       <c r="D5" t="n">
-        <v>4325.972</v>
+        <v>3375.242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.14059423361271</v>
+        <v>0.225012367816944</v>
       </c>
       <c r="F5" t="n">
-        <v>108.790470773255</v>
+        <v>162.666032445591</v>
       </c>
       <c r="G5" t="n">
-        <v>62.9686666666667</v>
+        <v>54.8710416666667</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56798905985438</v>
+        <v>0.425674054587034</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88496209448095</v>
+        <v>0.55533520106257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45279</v>
+        <v>45266</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>444.28</v>
+        <v>409.7124</v>
       </c>
       <c r="D6" t="n">
-        <v>3363.2</v>
+        <v>4325.972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.69658739105357</v>
+        <v>0.140716626048637</v>
       </c>
       <c r="F6" t="n">
-        <v>476.230542962433</v>
+        <v>105.612366635934</v>
       </c>
       <c r="G6" t="n">
-        <v>59.3927083333333</v>
+        <v>62.9686666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>0.799184617246561</v>
+        <v>1.9954189154176</v>
       </c>
       <c r="I6" t="n">
-        <v>0.958108412494849</v>
+        <v>2.24171824700706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45376</v>
+        <v>45279</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>545.7081</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
+        <v>444.28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3363.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.69658739105357</v>
+      </c>
+      <c r="F7" t="n">
+        <v>460.073629292569</v>
+      </c>
+      <c r="G7" t="n">
+        <v>59.3927083333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.799184617246561</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.958108412494849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45502</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>776.9643</v>
+        <v>545.7081</v>
       </c>
       <c r="D8" t="n">
-        <v>6713.144</v>
+        <v>4021.938</v>
       </c>
       <c r="E8" t="n">
-        <v>0.41613664075813</v>
+        <v>0.140700754388522</v>
       </c>
       <c r="F8" t="n">
-        <v>296.027365807586</v>
+        <v>105.531008594004</v>
       </c>
       <c r="G8" t="n">
-        <v>76.3617916666667</v>
+        <v>62.8327916666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1.76966633964349</v>
+        <v>0.589332373083387</v>
       </c>
       <c r="I8" t="n">
-        <v>1.58077950286943</v>
+        <v>0.663579045241418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45569</v>
+        <v>45502</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
+        <v>776.9643</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6713.144</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.416947772916525</v>
+      </c>
+      <c r="F9" t="n">
+        <v>286.874799063841</v>
+      </c>
+      <c r="G9" t="n">
+        <v>76.3617916666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.651146133908608</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.581645499378578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
         <v>395.84652</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
+      <c r="D10" t="n">
+        <v>8379.938</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0700180580780742</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55.5349404092721</v>
+      </c>
+      <c r="G10" t="n">
+        <v>75.6006666666667</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.331652883862523</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.300024569764145</v>
       </c>
     </row>
   </sheetData>
@@ -1702,52 +1781,81 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231</v>
+        <v>45590</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>402.3127</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17383.67</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.36326953896332</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.69898152094339</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67.2998333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.326577927862064</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.339771845657304</v>
+        <v>835.7736</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45569</v>
+        <v>45231</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
+        <v>402.3127</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17383.67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.36326953896332</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.69898152094339</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67.2998333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.326577927862064</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.339771845657304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
         <v>547.30542</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
+      <c r="D5" t="n">
+        <v>14306.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.386909393539067</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.48592572074131</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75.3191666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.034262617898</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.939778319672984</v>
       </c>
     </row>
   </sheetData>
@@ -1836,8 +1944,12 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1849,160 +1961,181 @@
       <c r="C4" t="n">
         <v>20605.83</v>
       </c>
-      <c r="D4" t="n">
-        <v>1573.128</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.0138222137050331</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.176109667045731</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73.537</v>
-      </c>
-      <c r="H4" t="n">
-        <v>695.263239644147</v>
-      </c>
-      <c r="I4" t="n">
-        <v>650.585354935572</v>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45231</v>
+        <v>45590</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>698.6585</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11130.56</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0833480434549802</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32.711449100851</v>
-      </c>
-      <c r="G5" t="n">
-        <v>68.2785652173913</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.946788998254612</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.968587474316254</v>
+        <v>502.29234</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45266</v>
+        <v>45231</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>595.437</v>
+        <v>698.6585</v>
       </c>
       <c r="D6" t="n">
-        <v>10319.43</v>
+        <v>11130.56</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0746042889055479</v>
+        <v>0.0829762877707573</v>
       </c>
       <c r="F6" t="n">
-        <v>28.3443060133672</v>
+        <v>32.5229820933171</v>
       </c>
       <c r="G6" t="n">
-        <v>63.18275</v>
+        <v>68.2785652173913</v>
       </c>
       <c r="H6" t="n">
-        <v>1.14085922621083</v>
+        <v>0.333415106015588</v>
       </c>
       <c r="I6" t="n">
-        <v>1.27670885500044</v>
+        <v>0.341091516726389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45331</v>
+        <v>45266</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>433.461546</v>
+        <v>595.437</v>
       </c>
       <c r="D7" t="n">
-        <v>12721.81</v>
+        <v>10319.43</v>
       </c>
       <c r="E7" t="n">
-        <v>0.186462845955995</v>
+        <v>0.0742687258801095</v>
       </c>
       <c r="F7" t="n">
-        <v>92.1709305442585</v>
+        <v>28.1811223812913</v>
       </c>
       <c r="G7" t="n">
-        <v>56.771625</v>
+        <v>63.18275</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2582646813026</v>
+        <v>0.383005373881123</v>
       </c>
       <c r="I7" t="n">
-        <v>5.36090822569601</v>
+        <v>0.428612348581226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45502</v>
+        <v>45331</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>667.35564</v>
+        <v>433.461546</v>
       </c>
       <c r="D8" t="n">
-        <v>1573.128</v>
+        <v>10290.9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.143965140736606</v>
+        <v>0.186952867332309</v>
       </c>
       <c r="F8" t="n">
-        <v>66.0993936578114</v>
+        <v>92.4803513874843</v>
       </c>
       <c r="G8" t="n">
-        <v>74.1734347826087</v>
+        <v>56.771625</v>
       </c>
       <c r="H8" t="n">
-        <v>11.2213983734336</v>
+        <v>5.17008204362746</v>
       </c>
       <c r="I8" t="n">
-        <v>10.3914080356234</v>
+        <v>6.50883339330784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45569</v>
+        <v>45502</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
+        <v>667.35564</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1573.128</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.142858205716412</v>
+      </c>
+      <c r="F9" t="n">
+        <v>65.4501978717184</v>
+      </c>
+      <c r="G9" t="n">
+        <v>74.1734347826087</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.14278834793163</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.54050729287015</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
         <v>395.6382</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
+      <c r="D10" t="n">
+        <v>1740.903</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.267561157919519</v>
+      </c>
+      <c r="F10" t="n">
+        <v>146.747643377652</v>
+      </c>
+      <c r="G10" t="n">
+        <v>75.3264583333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.6819886917393</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.5234349734661</v>
       </c>
     </row>
   </sheetData>
@@ -2050,88 +2183,109 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296</v>
+        <v>45590</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>637.0341</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1245.823</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0395155582735407</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.376579663058533</v>
-      </c>
-      <c r="G2" t="n">
-        <v>52.15875</v>
-      </c>
-      <c r="H2" t="n">
-        <v>101.306027305579</v>
-      </c>
-      <c r="I2" t="n">
-        <v>139.191840531939</v>
+        <v>411.13854</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45502</v>
+        <v>45296</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>647.25276</v>
+        <v>637.0341</v>
       </c>
       <c r="D3" t="n">
-        <v>21211.78</v>
+        <v>9416.662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.092779301164663</v>
+        <v>0.0393744230845104</v>
       </c>
       <c r="F3" t="n">
-        <v>3.12578282183737</v>
+        <v>0.373263379928333</v>
       </c>
       <c r="G3" t="n">
-        <v>76.43375</v>
+        <v>52.15875</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3915324023077</v>
+        <v>4.36213642925469</v>
       </c>
       <c r="I3" t="n">
-        <v>1.24154746668876</v>
+        <v>5.99346173557774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279</v>
+        <v>45502</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="n">
+        <v>647.25276</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20938.13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0923400884564007</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.08841503887447</v>
+      </c>
+      <c r="G4" t="n">
+        <v>76.43375</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.47263363728687</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.421691290890725</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
         <v>801.0999</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7747.794</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.386132065900496</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>104.631273579158</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>57.4105416666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>0.021870162654265</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>0.0272013048184807</v>
       </c>
     </row>
@@ -2192,135 +2346,156 @@
         <v>8812.951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.242821714885854</v>
+        <v>0.242294433819637</v>
       </c>
       <c r="F2" t="n">
-        <v>26.3254334346919</v>
+        <v>26.1500989699855</v>
       </c>
       <c r="G2" t="n">
         <v>57.088375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.729589752329137</v>
+        <v>0.24390358452309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.912952109683355</v>
+        <v>0.305202055454904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45231</v>
+        <v>45590</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>719.916</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4485.295</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.130862041269537</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.07116854309537</v>
-      </c>
-      <c r="G3" t="n">
-        <v>68.842375</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.39599317628476</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.41403824357145</v>
+        <v>441.7437</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279</v>
+        <v>45231</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>418.9223</v>
+        <v>719.916</v>
       </c>
       <c r="D4" t="n">
-        <v>9377.646</v>
+        <v>4485.295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.731386801864513</v>
+        <v>0.13055244711888</v>
       </c>
       <c r="F4" t="n">
-        <v>728.911562578317</v>
+        <v>4.0426166984303</v>
       </c>
       <c r="G4" t="n">
-        <v>60.1737083333333</v>
+        <v>68.842375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.234441144677444</v>
+        <v>0.468721400921995</v>
       </c>
       <c r="I4" t="n">
-        <v>0.277085084418484</v>
+        <v>0.474780248029585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45505</v>
+        <v>45279</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>642.23754</v>
+        <v>418.9223</v>
       </c>
       <c r="D5" t="n">
-        <v>3474.255</v>
+        <v>9377.646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.266095246281402</v>
+        <v>0.731386801864513</v>
       </c>
       <c r="F5" t="n">
-        <v>34.889648340833</v>
+        <v>728.911562578317</v>
       </c>
       <c r="G5" t="n">
-        <v>76.7822916666667</v>
+        <v>60.1737083333333</v>
       </c>
       <c r="H5" t="n">
-        <v>4.03486577631418</v>
+        <v>0.234441144677444</v>
       </c>
       <c r="I5" t="n">
-        <v>3.57997032943694</v>
+        <v>0.277085084418484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45569</v>
+        <v>45505</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
+        <v>642.23754</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3474.255</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.266612139797706</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35.0706205393306</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76.7822916666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.0239547132745</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.57028939229797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
         <v>365.72466</v>
       </c>
-      <c r="D6" t="n">
-        <v>982.3046</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="n">
-        <v>75.975</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
+      <c r="D7" t="n">
+        <v>1201.488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.263452518093847</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33.5601796390159</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76.0062916666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.64240896655356</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.37428124084699</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -455,107 +455,207 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.474298453442381</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" s="1" t="n">
-        <v>45331.5462962963</v>
+        <v>45442.6111111111</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>841.7328192</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2525.272</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0534585500989185</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.98056401243498</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58.7118333333333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2442.33913134876</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2965.2972577307</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.47206823595364</v>
+        <v>749.64344</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.100881407272675</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" s="1" t="n">
-        <v>45231.64375</v>
+        <v>45590.5591435185</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>861.608416666667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4695.205</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0367414206545583</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.26148301458118</v>
-      </c>
-      <c r="H3" t="n">
-        <v>68.2418333333333</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.2165979978598</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15.5766160020993</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.19247311371887</v>
+        <v>380.7333</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.29561958903759</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" s="1" t="n">
-        <v>45279.6388888889</v>
+        <v>45639.6267361111</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="n">
+        <v>350.53264</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.464611084235012</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45331.5462962963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>841.7328192</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2525.272</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0534585500989185</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.91481559359605</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58.7118333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2442.33913134876</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2965.2972577307</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.47206823595364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" s="1" t="n">
+        <v>45569.5924768519</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>410.829216</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0898548597300253</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45231.64375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>861.608416666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4695.205</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0367414206545583</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.22985768636425</v>
+      </c>
+      <c r="H7" t="n">
+        <v>68.2418333333333</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.2165979978598</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.5766160020993</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.19247311371887</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.29241377937344</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45279.6388888889</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
         <v>682.46505</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E8" t="n">
         <v>4360.498</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F8" t="n">
         <v>0.335585069806503</v>
       </c>
-      <c r="G4" t="n">
-        <v>197.523871403503</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G8" t="n">
+        <v>196.071187605879</v>
+      </c>
+      <c r="H8" t="n">
         <v>58.1367916666667</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I8" t="n">
         <v>2.42642112532325</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J8" t="n">
         <v>2.97765244901289</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K8" t="n">
         <v>0.473874005610801</v>
       </c>
     </row>
@@ -610,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.53643855745725</v>
+        <v>1.4881172315497</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.4760416667</v>
@@ -628,7 +728,7 @@
         <v>0.215852248068133</v>
       </c>
       <c r="G2" t="n">
-        <v>34.3905053392513</v>
+        <v>30.7692727491814</v>
       </c>
       <c r="H2" t="n">
         <v>53.7677083333333</v>
@@ -645,7 +745,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.67682392557344</v>
+        <v>1.6248134307019</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45484.5087962963</v>
@@ -663,7 +763,7 @@
         <v>0.236097905442564</v>
       </c>
       <c r="G3" t="n">
-        <v>47.5142551577471</v>
+        <v>42.1515385023547</v>
       </c>
       <c r="H3" t="n">
         <v>76.44125</v>
@@ -680,7 +780,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.10283120723874</v>
+        <v>1.06577306541398</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.4100694444</v>
@@ -698,7 +798,7 @@
         <v>0.163249695310579</v>
       </c>
       <c r="G4" t="n">
-        <v>12.6715927640022</v>
+        <v>11.6351789032592</v>
       </c>
       <c r="H4" t="n">
         <v>69.3495</v>
@@ -715,106 +815,141 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.93222576405884</v>
+        <v>0.3246951004139</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45279.4587962963</v>
+        <v>45639.4833333333</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>743.7952</v>
+        <v>660.91974</v>
       </c>
       <c r="E5" t="n">
-        <v>3992.646</v>
+        <v>4022.262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.528260069853473</v>
+        <v>0.100274044883754</v>
       </c>
       <c r="G5" t="n">
-        <v>855.511327136857</v>
+        <v>2.11200577028172</v>
       </c>
       <c r="H5" t="n">
-        <v>57.950125</v>
+        <v>55.5208333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>24.5945005502199</v>
+        <v>81.783855367662</v>
       </c>
       <c r="J5" t="n">
-        <v>30.2831430737235</v>
+        <v>105.395844870759</v>
       </c>
       <c r="K5" t="n">
-        <v>1.48120094839522</v>
+        <v>2.02282348957414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.11110555896921</v>
+        <v>2.84742212067015</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45502.4672453704</v>
+        <v>45279.4587962963</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>801.7695</v>
+        <v>743.7952</v>
       </c>
       <c r="E6" t="n">
-        <v>4010.916</v>
+        <v>3992.646</v>
       </c>
       <c r="F6" t="n">
-        <v>0.312017862477283</v>
+        <v>0.528260069853473</v>
       </c>
       <c r="G6" t="n">
-        <v>129.153315358895</v>
+        <v>703.756016428581</v>
       </c>
       <c r="H6" t="n">
-        <v>76.3831666666667</v>
+        <v>57.950125</v>
       </c>
       <c r="I6" t="n">
-        <v>106.921669755234</v>
+        <v>24.5945005502199</v>
       </c>
       <c r="J6" t="n">
-        <v>95.4812610289166</v>
+        <v>30.2831430737235</v>
       </c>
       <c r="K6" t="n">
-        <v>1.97991814613576</v>
+        <v>1.48120094839522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.76539117898865</v>
+        <v>2.04776300348103</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45569.4208333333</v>
+        <v>45502.4672453704</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="n">
+        <v>801.7695</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4010.916</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.312017862477283</v>
+      </c>
+      <c r="G7" t="n">
+        <v>111.625393657806</v>
+      </c>
+      <c r="H7" t="n">
+        <v>76.3831666666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>106.921669755234</v>
+      </c>
+      <c r="J7" t="n">
+        <v>95.4812610289166</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.97991814613576</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.71108095362448</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45569.4208333333</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
         <v>693.87467</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>6443.836</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>0.249963155450786</v>
       </c>
-      <c r="G7" t="n">
-        <v>58.2627767675511</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G8" t="n">
+        <v>51.4139479591211</v>
+      </c>
+      <c r="H8" t="n">
         <v>76.3036666666667</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>262.116599005408</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>234.414519987693</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>2.36998450903218</v>
       </c>
     </row>
@@ -869,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.59013126411246</v>
+        <v>1.5793165496351</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.6100694444</v>
@@ -884,27 +1019,27 @@
         <v>6443.836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41311509484043</v>
+        <v>0.412753905123254</v>
       </c>
       <c r="G2" t="n">
-        <v>38.9162750412012</v>
+        <v>37.9591561800967</v>
       </c>
       <c r="H2" t="n">
-        <v>54.664183908046</v>
+        <v>54.8325956006768</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0706542923942246</v>
+        <v>0.0708810643150279</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0925538412518045</v>
+        <v>0.0925662232043585</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.03360555206134</v>
+        <v>-1.03354745556387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.3870902571252</v>
+        <v>1.37477885123213</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45590.4736111111</v>
@@ -922,7 +1057,7 @@
         <v>0.353585946262801</v>
       </c>
       <c r="G3" t="n">
-        <v>24.3831750834711</v>
+        <v>23.7016647670735</v>
       </c>
       <c r="H3" t="n">
         <v>68.4775833333333</v>
@@ -939,7 +1074,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.26908110219757</v>
+        <v>1.25618350175535</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45231.5059027778</v>
@@ -954,92 +1089,117 @@
         <v>6744.454</v>
       </c>
       <c r="F4" t="n">
-        <v>0.323004348865841</v>
+        <v>0.323240054140384</v>
       </c>
       <c r="G4" t="n">
-        <v>18.5815142264417</v>
+        <v>18.037797280416</v>
       </c>
       <c r="H4" t="n">
-        <v>67.13388</v>
+        <v>67.2085132275132</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0727296096808373</v>
+        <v>0.0727481208053596</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0758816139530767</v>
+        <v>0.0758058207694044</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.11986344052111</v>
+        <v>-1.12029744567433</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2.55996005442021</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" s="1" t="n">
-        <v>45279.4587962963</v>
+        <v>45639.5269675926</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>743.7952</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8053.117</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.867436886945846</v>
-      </c>
-      <c r="G5" t="n">
-        <v>363.044661077487</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58.592009009009</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.54895968222529</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.53591165463463</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.74318915077478</v>
+        <v>365.8083</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.49837460724152</v>
+        <v>2.56499734138787</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45569.462962963</v>
+        <v>45279.4587962963</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="n">
+        <v>743.7952</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8053.117</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.868715799079058</v>
+      </c>
+      <c r="G6" t="n">
+        <v>367.280052120008</v>
+      </c>
+      <c r="H6" t="n">
+        <v>58.6289981220657</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.54457774345002</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.52688689568124</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.742480577105002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.48789393781438</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45569.462962963</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
         <v>395.82372</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>3225.154</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.384995267102834</v>
-      </c>
-      <c r="G6" t="n">
-        <v>31.5046462311162</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75.4384705882353</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.7789864366346</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.4051067798782</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.12727027775397</v>
+      <c r="F7" t="n">
+        <v>0.385103328321135</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.7534567069137</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75.4362222222222</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.7748394060531</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.4013452642964</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.12714839624061</v>
       </c>
     </row>
   </sheetData>
@@ -1093,211 +1253,381 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.26384610496309</v>
+        <v>0.651910064244363</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45484.4175925926</v>
+        <v>45660.4115740741</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>2034.862788</v>
+        <v>552.81112</v>
       </c>
       <c r="E2" t="n">
-        <v>6961.397</v>
+        <v>3976.076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25670942796431</v>
+        <v>0.00525665233148642</v>
       </c>
       <c r="G2" t="n">
-        <v>183.588766949175</v>
+        <v>4.48652471236458</v>
       </c>
       <c r="H2" t="n">
-        <v>76.5790416666667</v>
+        <v>59.1123</v>
       </c>
       <c r="I2" t="n">
-        <v>5.23630994528206</v>
+        <v>3181.07011696172</v>
       </c>
       <c r="J2" t="n">
-        <v>4.66096747896893</v>
+        <v>3833.99386389492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.668476072734428</v>
+        <v>3.58365141347717</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2.21129687400897</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" s="1" t="n">
-        <v>45296.4006944444</v>
+        <v>45442.334837963</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>426.60745</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3375.242</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.225012367816944</v>
-      </c>
-      <c r="G3" t="n">
-        <v>162.666032445591</v>
-      </c>
-      <c r="H3" t="n">
-        <v>54.8710416666667</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.60331475600706</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.00549340048817</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.778548694054773</v>
+        <v>998.806161818182</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.02371477470622</v>
+        <v>2.31187621061259</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45266.452662037</v>
+        <v>45484.4175925926</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>409.7124</v>
+        <v>2034.862788</v>
       </c>
       <c r="E4" t="n">
-        <v>4325.972</v>
+        <v>6961.397</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140716626048637</v>
+        <v>0.25670942796431</v>
       </c>
       <c r="G4" t="n">
-        <v>105.612366635934</v>
+        <v>205.05776079028</v>
       </c>
       <c r="H4" t="n">
-        <v>62.9686666666667</v>
+        <v>76.5790416666667</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75876431979859</v>
+        <v>5.23630994528206</v>
       </c>
       <c r="J4" t="n">
-        <v>6.46958238000064</v>
+        <v>4.66096747896893</v>
       </c>
       <c r="K4" t="n">
-        <v>0.81087624729699</v>
+        <v>0.668476072734428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.66282734089153</v>
+        <v>0.101874619105087</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45279.4179398148</v>
+        <v>45590.3521990741</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>444.28</v>
+        <v>551.097192</v>
       </c>
       <c r="E5" t="n">
-        <v>3363.2</v>
+        <v>8635.243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.69658739105357</v>
+        <v>0.00145530175357868</v>
       </c>
       <c r="G5" t="n">
-        <v>460.073629292569</v>
+        <v>1.26437127056194</v>
       </c>
       <c r="H5" t="n">
-        <v>59.3927083333333</v>
+        <v>69.717</v>
       </c>
       <c r="I5" t="n">
-        <v>1.92361508691423</v>
+        <v>339.753418284182</v>
       </c>
       <c r="J5" t="n">
-        <v>2.30614023018154</v>
+        <v>339.091731437434</v>
       </c>
       <c r="K5" t="n">
-        <v>0.362885712040372</v>
+        <v>2.53031719987871</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2.45769239868789</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" s="1" t="n">
-        <v>45502.4107638889</v>
+        <v>45597.3579861111</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1722.98714</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6713.144</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.416947772916525</v>
-      </c>
-      <c r="G6" t="n">
-        <v>286.874799063841</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.3617916666667</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.51139246729725</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.35007271120727</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.130357159032578</v>
+        <v>628.45452</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.74456631019229</v>
+        <v>2.25565121744966</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45569.3364583333</v>
+        <v>45296.4006944444</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="n">
+        <v>426.60745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3375.242</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.225012367816944</v>
+      </c>
+      <c r="G7" t="n">
+        <v>180.157031589773</v>
+      </c>
+      <c r="H7" t="n">
+        <v>54.8710416666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.60331475600706</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.00549340048817</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.778548694054773</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" s="1" t="n">
+        <v>45618.3987268519</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3118.512384</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.05529443086168</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45266.452662037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>409.7124</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4325.972</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.140716626048637</v>
+      </c>
+      <c r="G9" t="n">
+        <v>113.578055954835</v>
+      </c>
+      <c r="H9" t="n">
+        <v>62.9686666666667</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.75876431979859</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.46958238000064</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.81087624729699</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" s="1" t="n">
+        <v>45635.3928240741</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2329.16652</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.73797318208378</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45279.4179398148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>444.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3363.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.69658739105357</v>
+      </c>
+      <c r="G11" t="n">
+        <v>546.982185408996</v>
+      </c>
+      <c r="H11" t="n">
+        <v>59.3927083333333</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.92361508691423</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.30614023018154</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.362885712040372</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.51890145624969</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45502.4107638889</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1722.98714</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6713.144</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.416947772916525</v>
+      </c>
+      <c r="G12" t="n">
+        <v>330.294586917779</v>
+      </c>
+      <c r="H12" t="n">
+        <v>76.3617916666667</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.51139246729725</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.35007271120727</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.130357159032578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.75731936877058</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45569.3364583333</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
         <v>520.154188</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E13" t="n">
         <v>8379.938</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F13" t="n">
         <v>0.0700180580780742</v>
       </c>
-      <c r="G7" t="n">
-        <v>55.5349404092721</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G13" t="n">
+        <v>57.1899041630006</v>
+      </c>
+      <c r="H13" t="n">
         <v>75.6006666666667</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>1.9735868782611</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J13" t="n">
         <v>1.78537435630409</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K13" t="n">
         <v>0.251729292622446</v>
       </c>
     </row>
@@ -1364,7 +1694,7 @@
         <v>618.29095</v>
       </c>
       <c r="E2" t="n">
-        <v>4929.498</v>
+        <v>5480.453</v>
       </c>
       <c r="F2" t="n">
         <v>0.425990517738611</v>
@@ -1376,13 +1706,13 @@
         <v>55.2622916666667</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45678128745316</v>
+        <v>1.2851116692374</v>
       </c>
       <c r="J2" t="n">
-        <v>1.88697299549934</v>
+        <v>1.66460884481262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.275765685014141</v>
+        <v>0.221312197904229</v>
       </c>
     </row>
     <row r="3">
@@ -1540,283 +1870,303 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2.20683808773562</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" s="1" t="n">
-        <v>45296.6502314815</v>
+        <v>45660.5268518519</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>612.310275</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7115.516</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.287726779544469</v>
-      </c>
-      <c r="G2" t="n">
-        <v>161.004527140063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>57.3474166666667</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.29763769799997</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.86156511357376</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.456603632524347</v>
+        <v>350.63274</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2.03099458571514</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" s="1" t="n">
-        <v>45590.5094907407</v>
+        <v>45296.6502314815</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>509.79309</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9416.662</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.210021357525233</v>
-      </c>
-      <c r="G3" t="n">
-        <v>107.397602315806</v>
-      </c>
-      <c r="H3" t="n">
-        <v>68.8635</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28.9643529215488</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.3296846474043</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.46730739347396</v>
+        <v>612.310275</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.80445381139536</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" s="1" t="n">
-        <v>45597.4420138889</v>
+        <v>45442.5159722222</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>709.2594</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9416.662</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.140018529582514</v>
-      </c>
-      <c r="G4" t="n">
-        <v>63.7461281387246</v>
-      </c>
-      <c r="H4" t="n">
-        <v>69.1992916666667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13183.6431571932</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13271.8369261322</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.12293103678092</v>
+        <v>664.4421</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.14216681830184</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" s="1" t="n">
-        <v>45618.5153935185</v>
+        <v>45484.5509259259</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2030.428296</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9416.662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0428210056420111</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13.8728860259441</v>
-      </c>
-      <c r="H5" t="n">
-        <v>65.7722307692308</v>
-      </c>
-      <c r="I5" t="n">
-        <v>345.585111025163</v>
-      </c>
-      <c r="J5" t="n">
-        <v>369.306117145308</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.56738650131588</v>
+        <v>20118.9135</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.44995828594489</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" s="1" t="n">
-        <v>45266.6111111111</v>
+        <v>45590.5094907407</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>615.23295</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10319.43</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0742687258801095</v>
-      </c>
-      <c r="G6" t="n">
-        <v>28.1811223812913</v>
-      </c>
-      <c r="H6" t="n">
-        <v>63.18275</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.98405511927871</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.33938623369513</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.523666652496055</v>
+        <v>509.79309</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1.96604947122087</v>
-      </c>
+      <c r="A7"/>
       <c r="B7" s="1" t="n">
-        <v>45331.4570601852</v>
+        <v>45597.4420138889</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>504.21780864</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12721.81</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.186952867332309</v>
-      </c>
-      <c r="G7" t="n">
-        <v>92.4803513874843</v>
-      </c>
-      <c r="H7" t="n">
-        <v>56.771625</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.1233281358362</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.7446829017268</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.10532903433306</v>
+        <v>709.2594</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1.81591096386562</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" s="1" t="n">
-        <v>45502.5288194444</v>
+        <v>45618.5153935185</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>2747.582712</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9416.662</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.117907274695669</v>
-      </c>
-      <c r="G8" t="n">
-        <v>65.4501978717184</v>
-      </c>
-      <c r="H8" t="n">
-        <v>74.3296666666667</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47.814199417273</v>
-      </c>
-      <c r="J8" t="n">
-        <v>44.1593885078999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.64502305091943</v>
+        <v>2030.428296</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2.16657113563482</v>
-      </c>
+      <c r="A9"/>
       <c r="B9" s="1" t="n">
-        <v>45569.4864583333</v>
+        <v>45266.6111111111</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>1103.890144</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9416.662</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.267561157919519</v>
-      </c>
-      <c r="G9" t="n">
-        <v>146.747643377652</v>
-      </c>
-      <c r="H9" t="n">
-        <v>75.3264583333333</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.60520781899275</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.27585671914813</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.51532489814206</v>
+        <v>615.23295</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" s="1" t="n">
+        <v>45639.5510416667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>526.36744</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" s="1" t="n">
+        <v>45331.4570601852</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>504.21780864</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" s="1" t="n">
+        <v>45502.5288194444</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4121.81737333333</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" s="1" t="n">
+        <v>45569.4864583333</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1576.01968</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +2220,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.704444826986316</v>
+        <v>-2.37909660638304</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45590.4924768519</v>
@@ -1888,7 +2238,7 @@
         <v>0.0301448591708373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.197494576168613</v>
+        <v>0.00417737432950786</v>
       </c>
       <c r="H2" t="n">
         <v>67.9985833333333</v>
@@ -1905,7 +2255,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.427984615686272</v>
+        <v>-1.94161785158211</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6498842593</v>
@@ -1923,7 +2273,7 @@
         <v>0.0393744230845104</v>
       </c>
       <c r="G3" t="n">
-        <v>0.373263379928333</v>
+        <v>0.0114388442944727</v>
       </c>
       <c r="H3" t="n">
         <v>52.15875</v>
@@ -1940,7 +2290,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.489735658561678</v>
+        <v>-0.422218509888519</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45502.5104166667</v>
@@ -1958,7 +2308,7 @@
         <v>0.0923400884564007</v>
       </c>
       <c r="G4" t="n">
-        <v>3.08841503887447</v>
+        <v>0.378252223911605</v>
       </c>
       <c r="H4" t="n">
         <v>76.43375</v>
@@ -1975,7 +2325,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.01966151161424</v>
+        <v>2.09178193473096</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45279.5347222222</v>
@@ -1993,7 +2343,7 @@
         <v>0.386132065900496</v>
       </c>
       <c r="G5" t="n">
-        <v>104.631273579158</v>
+        <v>123.53270029118</v>
       </c>
       <c r="H5" t="n">
         <v>57.4105416666667</v>
@@ -2059,7 +2409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.41747333687584</v>
+        <v>1.44834574536004</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.5511574074</v>
@@ -2077,7 +2427,7 @@
         <v>0.242294433819637</v>
       </c>
       <c r="G2" t="n">
-        <v>26.1500989699855</v>
+        <v>28.0766795568978</v>
       </c>
       <c r="H2" t="n">
         <v>57.088375</v>
@@ -2094,7 +2444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.27952656840493</v>
+        <v>1.32722727332793</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45590.450462963</v>
@@ -2109,27 +2459,27 @@
         <v>2233.951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.160025038511615</v>
+        <v>0.218316630467253</v>
       </c>
       <c r="G3" t="n">
-        <v>19.0338467550061</v>
+        <v>21.2435588096117</v>
       </c>
       <c r="H3" t="n">
-        <v>69.407</v>
+        <v>69.4796956521739</v>
       </c>
       <c r="I3" t="n">
-        <v>7.68000511947609</v>
+        <v>5.63489781718714</v>
       </c>
       <c r="J3" t="n">
-        <v>7.70522192581192</v>
+        <v>5.64644376236186</v>
       </c>
       <c r="K3" t="n">
-        <v>0.88678515178481</v>
+        <v>0.751775006997514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.606662565561199</v>
+        <v>0.73522198120372</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45231.5222222222</v>
@@ -2147,7 +2497,7 @@
         <v>0.13055244711888</v>
       </c>
       <c r="G4" t="n">
-        <v>4.0426166984303</v>
+        <v>5.43528074341473</v>
       </c>
       <c r="H4" t="n">
         <v>68.842375</v>
@@ -2164,7 +2514,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.86267483940973</v>
+        <v>2.71996815724048</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45279.41875</v>
@@ -2182,7 +2532,7 @@
         <v>0.731386801864513</v>
       </c>
       <c r="G5" t="n">
-        <v>728.911562578317</v>
+        <v>524.768982429259</v>
       </c>
       <c r="H5" t="n">
         <v>60.1737083333333</v>
@@ -2199,7 +2549,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.52582427682962</v>
+        <v>1.54386883051916</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45569.4483796296</v>
@@ -2217,7 +2567,7 @@
         <v>0.263452518093847</v>
       </c>
       <c r="G6" t="n">
-        <v>33.5601796390159</v>
+        <v>34.9839489437211</v>
       </c>
       <c r="H6" t="n">
         <v>76.0062916666667</v>
@@ -2282,274 +2632,334 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2.21964731557483</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" s="1" t="n">
-        <v>45296.6913194444</v>
+        <v>45660.5559027778</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>680.577033333333</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4167.053</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="G2" t="n">
-        <v>165.823972739732</v>
-      </c>
-      <c r="H2" t="n">
-        <v>52.2674583333333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.24239418088936</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.44575197355207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.647945229950382</v>
+        <v>335.25396</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.93082107397803</v>
+        <v>2.15243335263438</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45590.5368055556</v>
+        <v>45296.6913194444</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>385.73862</v>
+        <v>680.577033333333</v>
       </c>
       <c r="E3" t="n">
-        <v>11406.38</v>
+        <v>4167.053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.189070453385662</v>
+        <v>0.304619300450722</v>
       </c>
       <c r="G3" t="n">
-        <v>85.2748715653596</v>
+        <v>142.0474208413</v>
       </c>
       <c r="H3" t="n">
-        <v>67.770875</v>
+        <v>52.2674583333333</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24948952918913</v>
+        <v>3.24239418088936</v>
       </c>
       <c r="J3" t="n">
-        <v>2.32142883577927</v>
+        <v>4.44575197355207</v>
       </c>
       <c r="K3" t="n">
-        <v>0.365755374755548</v>
+        <v>0.647945229950382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.74983328981014</v>
+        <v>1.87062750523785</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45597.5128472222</v>
+        <v>45590.5368055556</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>366.03866</v>
+        <v>385.73862</v>
       </c>
       <c r="E4" t="n">
-        <v>3957.608</v>
+        <v>11406.38</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140225032268246</v>
+        <v>0.189070453385662</v>
       </c>
       <c r="G4" t="n">
-        <v>56.2125503801791</v>
+        <v>74.2382122946598</v>
       </c>
       <c r="H4" t="n">
-        <v>68.7422083333333</v>
+        <v>67.770875</v>
       </c>
       <c r="I4" t="n">
-        <v>5.98707457535708</v>
+        <v>2.24948952918913</v>
       </c>
       <c r="J4" t="n">
-        <v>6.07573352541785</v>
+        <v>2.32142883577927</v>
       </c>
       <c r="K4" t="n">
-        <v>0.783598717959278</v>
+        <v>0.365755374755548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.41438658720066</v>
+        <v>1.69403875911316</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45618.5591435185</v>
+        <v>45597.5128472222</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>2122.394256</v>
-      </c>
-      <c r="E5"/>
+        <v>366.03866</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3957.608</v>
+      </c>
       <c r="F5" t="n">
-        <v>0.0805957084641443</v>
+        <v>0.140225032268246</v>
       </c>
       <c r="G5" t="n">
-        <v>25.9648959876038</v>
+        <v>49.4354804284234</v>
       </c>
       <c r="H5" t="n">
-        <v>56.7722142857143</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+        <v>68.7422083333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.98707457535708</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.07573352541785</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.783598717959278</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.50080621309918</v>
+        <v>1.33837785071146</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45266.6384259259</v>
+        <v>45618.5591435185</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>711.255675</v>
+        <v>2122.394256</v>
       </c>
       <c r="E6" t="n">
-        <v>3986.563</v>
+        <v>3764.232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0929485828202428</v>
+        <v>0.0767954910734997</v>
       </c>
       <c r="G6" t="n">
-        <v>31.6815348320814</v>
+        <v>21.7960527708121</v>
       </c>
       <c r="H6" t="n">
-        <v>57.605125</v>
+        <v>56.827625</v>
       </c>
       <c r="I6" t="n">
-        <v>1.74934976466679</v>
+        <v>324.265975905442</v>
       </c>
       <c r="J6" t="n">
-        <v>2.16774731953429</v>
+        <v>407.818907929547</v>
       </c>
       <c r="K6" t="n">
-        <v>0.336008657881384</v>
+        <v>2.61046735733988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.12873624226705</v>
+        <v>1.45106574211743</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45331.5136574074</v>
+        <v>45266.6384259259</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>464.2354962</v>
+        <v>711.255675</v>
       </c>
       <c r="E7" t="n">
-        <v>3393.52</v>
+        <v>3986.563</v>
       </c>
       <c r="F7" t="n">
-        <v>0.262140092531933</v>
+        <v>0.0929485828202428</v>
       </c>
       <c r="G7" t="n">
-        <v>134.504322807786</v>
+        <v>28.2530762862963</v>
       </c>
       <c r="H7" t="n">
-        <v>55.680375</v>
+        <v>57.605125</v>
       </c>
       <c r="I7" t="n">
-        <v>247.731842123073</v>
+        <v>1.74934976466679</v>
       </c>
       <c r="J7" t="n">
-        <v>318.280457367664</v>
+        <v>2.16774731953429</v>
       </c>
       <c r="K7" t="n">
-        <v>2.50280997346881</v>
+        <v>0.336008657881384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.78970531724707</v>
+        <v>1.14396940161106</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45502.6175925926</v>
+        <v>45639.5956018518</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>703.29945</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5518.321</v>
-      </c>
+        <v>335.75364</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="n">
-        <v>0.149697122890749</v>
+        <v>0.0552282276592525</v>
       </c>
       <c r="G8" t="n">
-        <v>61.6176764261218</v>
+        <v>13.9305865099121</v>
       </c>
       <c r="H8" t="n">
-        <v>77.6787083333333</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18.435644843617</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16.1197447508915</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.20735816066033</v>
-      </c>
+        <v>51.5931666666667</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.94544135577539</v>
+        <v>2.06372892354623</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45569.5574074074</v>
+        <v>45331.5136574074</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="n">
+        <v>464.2354962</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3784.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.262140092531933</v>
+      </c>
+      <c r="G9" t="n">
+        <v>115.805430012386</v>
+      </c>
+      <c r="H9" t="n">
+        <v>55.680375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>134.29547670046</v>
+      </c>
+      <c r="J9" t="n">
+        <v>172.539893863929</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.23688952655034</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.73291751991694</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45502.6175925926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>703.29945</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5518.321</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.149697122890749</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54.0651634036788</v>
+      </c>
+      <c r="H10" t="n">
+        <v>77.6787083333333</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.435644843617</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16.1197447508915</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.20735816066033</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.88489030406534</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45569.5574074074</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
         <v>403.8474</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E11" t="n">
         <v>8906.689</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F11" t="n">
         <v>0.193682525546869</v>
       </c>
-      <c r="G9" t="n">
-        <v>88.1944702176749</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G11" t="n">
+        <v>76.7167690431876</v>
+      </c>
+      <c r="H11" t="n">
         <v>76.7826666666667</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>3.52886405062264</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J11" t="n">
         <v>3.13101582511279</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K11" t="n">
         <v>0.495685262679768</v>
       </c>
     </row>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -1895,7 +1895,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="n">
+        <v>2.18811562375951</v>
+      </c>
       <c r="B3" s="1" t="n">
         <v>45296.6502314815</v>
       </c>
@@ -1905,18 +1907,26 @@
       <c r="D3" t="n">
         <v>612.310275</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
+      <c r="E3" t="n">
+        <v>7115.516</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.287726779544469</v>
+      </c>
+      <c r="G3" t="n">
+        <v>154.211095996949</v>
+      </c>
+      <c r="H3" t="n">
+        <v>57.3474166666667</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.29763769799997</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.86156511357376</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.456603632524347</v>
       </c>
     </row>
     <row r="4">
@@ -1970,7 +1980,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="n">
+        <v>2.0110110910579</v>
+      </c>
       <c r="B6" s="1" t="n">
         <v>45590.5094907407</v>
       </c>
@@ -1980,22 +1992,32 @@
       <c r="D6" t="n">
         <v>509.79309</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#NUM!</v>
+      <c r="E6" t="n">
+        <v>11548.536</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.210021357525233</v>
+      </c>
+      <c r="G6" t="n">
+        <v>102.567811979203</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68.8635</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22.2991493012617</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.5804118145796</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.35373185818986</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="n">
+        <v>1.78284340384112</v>
+      </c>
       <c r="B7" s="1" t="n">
         <v>45597.4420138889</v>
       </c>
@@ -2005,22 +2027,32 @@
       <c r="D7" t="n">
         <v>709.2594</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K7" t="e">
-        <v>#NUM!</v>
+      <c r="E7" t="n">
+        <v>10979.754</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.140018529582514</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60.65175944789</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69.1992916666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>421.436718042855</v>
+      </c>
+      <c r="J7" t="n">
+        <v>424.255976125793</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.62762796856231</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="n">
+        <v>0.897974485355915</v>
+      </c>
       <c r="B8" s="1" t="n">
         <v>45618.5153935185</v>
       </c>
@@ -2030,22 +2062,32 @@
       <c r="D8" t="n">
         <v>2030.428296</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K8" t="e">
-        <v>#NUM!</v>
+      <c r="E8" t="n">
+        <v>6021.774</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02724196474367</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.90632177280263</v>
+      </c>
+      <c r="H8" t="n">
+        <v>65.92275</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2295.37831639403</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2445.94945198473</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.388447477659</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9"/>
+      <c r="A9" t="n">
+        <v>1.42579574241579</v>
+      </c>
       <c r="B9" s="1" t="n">
         <v>45266.6111111111</v>
       </c>
@@ -2055,18 +2097,26 @@
       <c r="D9" t="n">
         <v>615.23295</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#NUM!</v>
+      <c r="E9" t="n">
+        <v>10319.43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0742687258801095</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.6560468121497</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.18275</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.98405511927871</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.33938623369513</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.523666652496055</v>
       </c>
     </row>
     <row r="10">
@@ -2095,7 +2145,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11"/>
+      <c r="A11" t="n">
+        <v>1.94560178814029</v>
+      </c>
       <c r="B11" s="1" t="n">
         <v>45331.4570601852</v>
       </c>
@@ -2105,22 +2157,32 @@
       <c r="D11" t="n">
         <v>504.21780864</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#NUM!</v>
+      <c r="E11" t="n">
+        <v>10290.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.186952867332309</v>
+      </c>
+      <c r="G11" t="n">
+        <v>88.2270560822679</v>
+      </c>
+      <c r="H11" t="n">
+        <v>56.771625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.1137942790288</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.5095063088059</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.2177340865537</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="n">
+        <v>1.79439046160364</v>
+      </c>
       <c r="B12" s="1" t="n">
         <v>45502.5288194444</v>
       </c>
@@ -2128,24 +2190,34 @@
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>4121.81737333333</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#NUM!</v>
+        <v>2747.582712</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9438.768</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.142858205716412</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62.2860028938123</v>
+      </c>
+      <c r="H12" t="n">
+        <v>74.1734347826087</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.1066086514066</v>
+      </c>
+      <c r="J12" t="n">
+        <v>36.2140897116962</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.55887757311658</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="n">
+        <v>2.14757031533802</v>
+      </c>
       <c r="B13" s="1" t="n">
         <v>45569.4864583333</v>
       </c>
@@ -2153,20 +2225,28 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>1576.01968</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K13" t="e">
-        <v>#NUM!</v>
+        <v>1103.890144</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10445.418</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.267561157919519</v>
+      </c>
+      <c r="G13" t="n">
+        <v>140.465708905252</v>
+      </c>
+      <c r="H13" t="n">
+        <v>75.3264583333333</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.15911076136802</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.87051252902584</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.457959446788</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2347,7 @@
         <v>637.0341</v>
       </c>
       <c r="E3" t="n">
-        <v>9416.662</v>
+        <v>1245.823</v>
       </c>
       <c r="F3" t="n">
         <v>0.0393744230845104</v>
@@ -2279,13 +2359,13 @@
         <v>52.15875</v>
       </c>
       <c r="I3" t="n">
-        <v>9.67920731859344</v>
+        <v>201.152535994288</v>
       </c>
       <c r="J3" t="n">
-        <v>13.298978524756</v>
+        <v>276.378340533053</v>
       </c>
       <c r="K3" t="n">
-        <v>1.12381828471909</v>
+        <v>2.44150400485427</v>
       </c>
     </row>
     <row r="4">
@@ -2561,7 +2641,7 @@
         <v>373.09719</v>
       </c>
       <c r="E6" t="n">
-        <v>1201.488</v>
+        <v>1077.366</v>
       </c>
       <c r="F6" t="n">
         <v>0.263452518093847</v>
@@ -2573,13 +2653,13 @@
         <v>76.0062916666667</v>
       </c>
       <c r="I6" t="n">
-        <v>18.7028979131606</v>
+        <v>22.5748045119931</v>
       </c>
       <c r="J6" t="n">
-        <v>16.8050972528342</v>
+        <v>20.284117843621</v>
       </c>
       <c r="K6" t="n">
-        <v>1.22544103011981</v>
+        <v>1.30715612498201</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -455,7 +455,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="B2" s="1" t="n">
         <v>45442.6111111111</v>
       </c>
@@ -465,10 +467,18 @@
       <c r="D2" t="n">
         <v>749.64344</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="E2" t="n">
+        <v>4081.731</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="n">
+        <v>73.38625</v>
+      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
@@ -480,7 +490,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="B3" s="1" t="n">
         <v>45590.5591435185</v>
       </c>
@@ -490,10 +502,18 @@
       <c r="D3" t="n">
         <v>380.7333</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="E3" t="n">
+        <v>4180.398</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.7704583333333</v>
+      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
@@ -505,7 +525,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="B4" s="1" t="n">
         <v>45639.6267361111</v>
       </c>
@@ -515,10 +537,18 @@
       <c r="D4" t="n">
         <v>350.53264</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="E4" t="n">
+        <v>1004.816</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="n">
+        <v>56.3528333333333</v>
+      </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
       </c>
@@ -531,7 +561,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.464611084235012</v>
+        <v>0.499025265749003</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45331.5462962963</v>
@@ -549,7 +579,7 @@
         <v>0.0534585500989185</v>
       </c>
       <c r="G5" t="n">
-        <v>2.91481559359605</v>
+        <v>3.15518817595706</v>
       </c>
       <c r="H5" t="n">
         <v>58.7118333333333</v>
@@ -565,7 +595,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="B6" s="1" t="n">
         <v>45569.5924768519</v>
       </c>
@@ -575,10 +607,18 @@
       <c r="D6" t="n">
         <v>410.829216</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="E6" t="n">
+        <v>4180.398</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="n">
+        <v>75.485125</v>
+      </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
       </c>
@@ -591,7 +631,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0898548597300253</v>
+        <v>0.129645221247688</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45231.64375</v>
@@ -609,7 +649,7 @@
         <v>0.0367414206545583</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22985768636425</v>
+        <v>1.34786135364712</v>
       </c>
       <c r="H7" t="n">
         <v>68.2418333333333</v>
@@ -626,7 +666,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.29241377937344</v>
+        <v>2.30080534455042</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45279.6388888889</v>
@@ -644,7 +684,7 @@
         <v>0.335585069806503</v>
       </c>
       <c r="G8" t="n">
-        <v>196.071187605879</v>
+        <v>199.896571092031</v>
       </c>
       <c r="H8" t="n">
         <v>58.1367916666667</v>
@@ -745,211 +785,246 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.6248134307019</v>
+        <v>1.97546997200686</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45484.5087962963</v>
+        <v>45684.4790509259</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>792.3951</v>
+        <v>351.12894</v>
       </c>
       <c r="E3" t="n">
-        <v>8306.523</v>
+        <v>1052.144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.236097905442564</v>
+        <v>0.297576481764534</v>
       </c>
       <c r="G3" t="n">
-        <v>42.1515385023547</v>
+        <v>94.5083045240855</v>
       </c>
       <c r="H3" t="n">
-        <v>76.44125</v>
+        <v>51.2003333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>37.9449411668583</v>
+        <v>29.9809396779035</v>
       </c>
       <c r="J3" t="n">
-        <v>33.8550834326527</v>
+        <v>41.9548094541104</v>
       </c>
       <c r="K3" t="n">
-        <v>1.52962388841246</v>
+        <v>1.62278175299922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.06577306541398</v>
+        <v>1.6248134307019</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45590.4100694444</v>
+        <v>45484.5087962963</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>546.66366</v>
+        <v>792.3951</v>
       </c>
       <c r="E4" t="n">
-        <v>1413.367</v>
+        <v>8306.523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.163249695310579</v>
+        <v>0.236097905442564</v>
       </c>
       <c r="G4" t="n">
-        <v>11.6351789032592</v>
+        <v>42.1515385023547</v>
       </c>
       <c r="H4" t="n">
-        <v>69.3495</v>
+        <v>76.44125</v>
       </c>
       <c r="I4" t="n">
-        <v>133.147923773774</v>
+        <v>37.9449411668583</v>
       </c>
       <c r="J4" t="n">
-        <v>133.708572612851</v>
+        <v>33.8550834326527</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12615925258064</v>
+        <v>1.52962388841246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3246951004139</v>
+        <v>1.06577306541398</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45639.4833333333</v>
+        <v>45590.4100694444</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>660.91974</v>
+        <v>546.66366</v>
       </c>
       <c r="E5" t="n">
-        <v>4022.262</v>
+        <v>1413.367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.100274044883754</v>
+        <v>0.163249695310579</v>
       </c>
       <c r="G5" t="n">
-        <v>2.11200577028172</v>
+        <v>11.6351789032592</v>
       </c>
       <c r="H5" t="n">
-        <v>55.5208333333333</v>
+        <v>69.3495</v>
       </c>
       <c r="I5" t="n">
-        <v>81.783855367662</v>
+        <v>133.147923773774</v>
       </c>
       <c r="J5" t="n">
-        <v>105.395844870759</v>
+        <v>133.708572612851</v>
       </c>
       <c r="K5" t="n">
-        <v>2.02282348957414</v>
+        <v>2.12615925258064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.84742212067015</v>
+        <v>0.3246951004139</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45279.4587962963</v>
+        <v>45639.4833333333</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>743.7952</v>
+        <v>660.91974</v>
       </c>
       <c r="E6" t="n">
-        <v>3992.646</v>
+        <v>4022.262</v>
       </c>
       <c r="F6" t="n">
-        <v>0.528260069853473</v>
+        <v>0.100274044883754</v>
       </c>
       <c r="G6" t="n">
-        <v>703.756016428581</v>
+        <v>2.11200577028172</v>
       </c>
       <c r="H6" t="n">
-        <v>57.950125</v>
+        <v>55.5208333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>24.5945005502199</v>
+        <v>81.783855367662</v>
       </c>
       <c r="J6" t="n">
-        <v>30.2831430737235</v>
+        <v>105.395844870759</v>
       </c>
       <c r="K6" t="n">
-        <v>1.48120094839522</v>
+        <v>2.02282348957414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.04776300348103</v>
+        <v>2.84742212067015</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45502.4672453704</v>
+        <v>45279.4587962963</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>801.7695</v>
+        <v>743.7952</v>
       </c>
       <c r="E7" t="n">
-        <v>4010.916</v>
+        <v>3992.646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.312017862477283</v>
+        <v>0.528260069853473</v>
       </c>
       <c r="G7" t="n">
-        <v>111.625393657806</v>
+        <v>703.756016428581</v>
       </c>
       <c r="H7" t="n">
-        <v>76.3831666666667</v>
+        <v>57.950125</v>
       </c>
       <c r="I7" t="n">
-        <v>106.921669755234</v>
+        <v>24.5945005502199</v>
       </c>
       <c r="J7" t="n">
-        <v>95.4812610289166</v>
+        <v>30.2831430737235</v>
       </c>
       <c r="K7" t="n">
-        <v>1.97991814613576</v>
+        <v>1.48120094839522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.71108095362448</v>
+        <v>2.04776300348103</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45569.4208333333</v>
+        <v>45502.4672453704</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="n">
+        <v>801.7695</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4010.916</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.312017862477283</v>
+      </c>
+      <c r="G8" t="n">
+        <v>111.625393657806</v>
+      </c>
+      <c r="H8" t="n">
+        <v>76.3831666666667</v>
+      </c>
+      <c r="I8" t="n">
+        <v>106.921669755234</v>
+      </c>
+      <c r="J8" t="n">
+        <v>95.4812610289166</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.97991814613576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.71108095362448</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45569.4208333333</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
         <v>693.87467</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>6443.836</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>0.249963155450786</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>51.4139479591211</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>76.3036666666667</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>262.116599005408</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>234.414519987693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>2.36998450903218</v>
       </c>
     </row>
@@ -1039,166 +1114,211 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.37477885123213</v>
+        <v>1.87100816824727</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45590.4736111111</v>
+        <v>45684.528587963</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>411.06708</v>
+        <v>329.190888</v>
       </c>
       <c r="E3" t="n">
-        <v>5182.004</v>
+        <v>5860.433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.353585946262801</v>
+        <v>0.514586113304458</v>
       </c>
       <c r="G3" t="n">
-        <v>23.7016647670735</v>
+        <v>74.3033112794777</v>
       </c>
       <c r="H3" t="n">
-        <v>68.4775833333333</v>
+        <v>51.4724285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>2.09988598413225</v>
+        <v>0.686889621673731</v>
       </c>
       <c r="J3" t="n">
-        <v>2.14024553622096</v>
+        <v>0.956243105494021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.330463599942121</v>
+        <v>-0.0194316830871586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.25618350175535</v>
+        <v>1.37477885123213</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45231.5059027778</v>
+        <v>45590.4736111111</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>714.0472</v>
+        <v>411.06708</v>
       </c>
       <c r="E4" t="n">
-        <v>6744.454</v>
+        <v>5182.004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.323240054140384</v>
+        <v>0.353585946262801</v>
       </c>
       <c r="G4" t="n">
-        <v>18.037797280416</v>
+        <v>23.7016647670735</v>
       </c>
       <c r="H4" t="n">
-        <v>67.2085132275132</v>
+        <v>68.4775833333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0727481208053596</v>
+        <v>2.09988598413225</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0758058207694044</v>
+        <v>2.14024553622096</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.12029744567433</v>
+        <v>0.330463599942121</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="n">
+        <v>1.25618350175535</v>
+      </c>
       <c r="B5" s="1" t="n">
-        <v>45639.5269675926</v>
+        <v>45231.5059027778</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>365.8083</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
+        <v>714.0472</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6744.454</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.323240054140384</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.037797280416</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67.2085132275132</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0727481208053596</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0758058207694044</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.12029744567433</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2.56499734138787</v>
+      <c r="A6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45279.4587962963</v>
+        <v>45639.5269675926</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>743.7952</v>
+        <v>365.8083</v>
       </c>
       <c r="E6" t="n">
-        <v>8053.117</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.868715799079058</v>
-      </c>
-      <c r="G6" t="n">
-        <v>367.280052120008</v>
+        <v>3344.355</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H6" t="n">
-        <v>58.6289981220657</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.54457774345002</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.52688689568124</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.742480577105002</v>
+        <v>54.87</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.48789393781438</v>
+        <v>2.56499734138787</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45569.462962963</v>
+        <v>45279.4587962963</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="n">
+        <v>743.7952</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8053.117</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.868715799079058</v>
+      </c>
+      <c r="G7" t="n">
+        <v>367.280052120008</v>
+      </c>
+      <c r="H7" t="n">
+        <v>58.6289981220657</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.54457774345002</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.52688689568124</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.742480577105002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.48789393781438</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45569.462962963</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
         <v>395.82372</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>3225.154</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>0.385103328321135</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>30.7534567069137</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>75.4362222222222</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>14.7748394060531</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>13.4013452642964</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1.12714839624061</v>
       </c>
     </row>
@@ -1253,7 +1373,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.651910064244363</v>
+        <v>0.468650986440939</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45660.4115740741</v>
@@ -1271,363 +1391,438 @@
         <v>0.00525665233148642</v>
       </c>
       <c r="G2" t="n">
-        <v>4.48652471236458</v>
+        <v>2.9420563487145</v>
       </c>
       <c r="H2" t="n">
-        <v>59.1123</v>
+        <v>58.6762916666667</v>
       </c>
       <c r="I2" t="n">
-        <v>3181.07011696172</v>
+        <v>3161.70241227499</v>
       </c>
       <c r="J2" t="n">
-        <v>3833.99386389492</v>
+        <v>3841.25482029939</v>
       </c>
       <c r="K2" t="n">
-        <v>3.58365141347717</v>
+        <v>3.5844731182506</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="n">
+        <v>2.05743043314321</v>
+      </c>
       <c r="B3" s="1" t="n">
-        <v>45442.334837963</v>
+        <v>45684.409837963</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>998.806161818182</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
+        <v>560.080524</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3223.928</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.161457401795922</v>
+      </c>
+      <c r="G3" t="n">
+        <v>114.13804595354</v>
+      </c>
+      <c r="H3" t="n">
+        <v>53.0998181818182</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24.1248106339086</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.5584369350977</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.51266354711531</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.31187621061259</v>
+      <c r="A4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45484.4175925926</v>
+        <v>45442.334837963</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2034.862788</v>
+        <v>892.5125</v>
       </c>
       <c r="E4" t="n">
-        <v>6961.397</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.25670942796431</v>
-      </c>
-      <c r="G4" t="n">
-        <v>205.05776079028</v>
+        <v>2142.973</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H4" t="n">
-        <v>76.5790416666667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.23630994528206</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.66096747896893</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.668476072734428</v>
+        <v>72.257625</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.101874619105087</v>
+        <v>2.2728374417132</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45590.3521990741</v>
+        <v>45484.4175925926</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>551.097192</v>
+        <v>2034.862788</v>
       </c>
       <c r="E5" t="n">
-        <v>8635.243</v>
+        <v>6961.397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00145530175357868</v>
+        <v>0.25670942796431</v>
       </c>
       <c r="G5" t="n">
-        <v>1.26437127056194</v>
+        <v>187.429282091365</v>
       </c>
       <c r="H5" t="n">
-        <v>69.717</v>
+        <v>76.5790416666667</v>
       </c>
       <c r="I5" t="n">
-        <v>339.753418284182</v>
+        <v>5.23630994528206</v>
       </c>
       <c r="J5" t="n">
-        <v>339.091731437434</v>
+        <v>4.66096747896893</v>
       </c>
       <c r="K5" t="n">
-        <v>2.53031719987871</v>
+        <v>0.668476072734428</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="n">
+        <v>-0.11979583477163</v>
+      </c>
       <c r="B6" s="1" t="n">
-        <v>45597.3579861111</v>
+        <v>45590.3521990741</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>628.45452</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#NUM!</v>
+        <v>551.097192</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8635.243</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00145530175357868</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.758934272109195</v>
+      </c>
+      <c r="H6" t="n">
+        <v>69.5068333333333</v>
+      </c>
+      <c r="I6" t="n">
+        <v>338.844350300782</v>
+      </c>
+      <c r="J6" t="n">
+        <v>339.329787940342</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.53062198569958</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2.25565121744966</v>
+      <c r="A7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45296.4006944444</v>
+        <v>45597.3579861111</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>426.60745</v>
+        <v>628.45452</v>
       </c>
       <c r="E7" t="n">
-        <v>3375.242</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.225012367816944</v>
-      </c>
-      <c r="G7" t="n">
-        <v>180.157031589773</v>
+        <v>4564.343</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H7" t="n">
-        <v>54.8710416666667</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.60331475600706</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.00549340048817</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.778548694054773</v>
+        <v>69.6570416666667</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="n">
+        <v>2.21153465609192</v>
+      </c>
       <c r="B8" s="1" t="n">
-        <v>45618.3987268519</v>
+        <v>45296.4006944444</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>3118.512384</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K8" t="e">
-        <v>#NUM!</v>
+        <v>426.60745</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3375.242</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.225012367816944</v>
+      </c>
+      <c r="G8" t="n">
+        <v>162.755118676755</v>
+      </c>
+      <c r="H8" t="n">
+        <v>54.8710416666667</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.60331475600706</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.00549340048817</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.778548694054773</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2.05529443086168</v>
+      <c r="A9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45266.452662037</v>
+        <v>45618.3987268519</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>409.7124</v>
+        <v>3118.512384</v>
       </c>
       <c r="E9" t="n">
-        <v>4325.972</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.140716626048637</v>
-      </c>
-      <c r="G9" t="n">
-        <v>113.578055954835</v>
+        <v>2542.524</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H9" t="n">
-        <v>62.9686666666667</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.75876431979859</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.46958238000064</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.81087624729699</v>
+        <v>62.832875</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="n">
+        <v>1.99360035723806</v>
+      </c>
       <c r="B10" s="1" t="n">
-        <v>45635.3928240741</v>
+        <v>45266.452662037</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>2329.16652</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K10" t="e">
-        <v>#NUM!</v>
+        <v>409.7124</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4325.972</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.140716626048637</v>
+      </c>
+      <c r="G10" t="n">
+        <v>98.5372317396999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>62.9686666666667</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.75876431979859</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.46958238000064</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.81087624729699</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2.73797318208378</v>
+      <c r="A11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45279.4179398148</v>
+        <v>45635.3928240741</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>444.28</v>
+        <v>2329.16652</v>
       </c>
       <c r="E11" t="n">
-        <v>3363.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.69658739105357</v>
-      </c>
-      <c r="G11" t="n">
-        <v>546.982185408996</v>
+        <v>2353.895</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H11" t="n">
-        <v>59.3927083333333</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.92361508691423</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.30614023018154</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.362885712040372</v>
+        <v>56.8723333333333</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.51890145624969</v>
+        <v>2.73623324833003</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45502.4107638889</v>
+        <v>45279.4179398148</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>1722.98714</v>
+        <v>444.28</v>
       </c>
       <c r="E12" t="n">
-        <v>6713.144</v>
+        <v>3363.2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.416947772916525</v>
+        <v>0.69658739105357</v>
       </c>
       <c r="G12" t="n">
-        <v>330.294586917779</v>
+        <v>544.795169674302</v>
       </c>
       <c r="H12" t="n">
-        <v>76.3617916666667</v>
+        <v>59.3927083333333</v>
       </c>
       <c r="I12" t="n">
-        <v>1.51139246729725</v>
+        <v>1.92361508691423</v>
       </c>
       <c r="J12" t="n">
-        <v>1.35007271120727</v>
+        <v>2.30614023018154</v>
       </c>
       <c r="K12" t="n">
-        <v>0.130357159032578</v>
+        <v>0.362885712040372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.75731936877058</v>
+        <v>2.49799189071829</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45569.3364583333</v>
+        <v>45502.4107638889</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="n">
+        <v>1722.98714</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6713.144</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.416947772916525</v>
+      </c>
+      <c r="G13" t="n">
+        <v>314.768953891403</v>
+      </c>
+      <c r="H13" t="n">
+        <v>76.3617916666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.51139246729725</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.35007271120727</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.130357159032578</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.6697577409753</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45569.3364583333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
         <v>520.154188</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>8379.938</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>0.0700180580780742</v>
       </c>
-      <c r="G13" t="n">
-        <v>57.1899041630006</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G14" t="n">
+        <v>46.747430108433</v>
+      </c>
+      <c r="H14" t="n">
         <v>75.6006666666667</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1.9735868782611</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1.78537435630409</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>0.251729292622446</v>
       </c>
     </row>
@@ -1682,7 +1877,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.11625979912519</v>
+        <v>1.15052348266254</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.4349537037</v>
@@ -1700,7 +1895,7 @@
         <v>0.425990517738611</v>
       </c>
       <c r="G2" t="n">
-        <v>13.0695248584331</v>
+        <v>14.1424119219607</v>
       </c>
       <c r="H2" t="n">
         <v>55.2622916666667</v>
@@ -1717,106 +1912,141 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.833642983679966</v>
+        <v>1.1415133928052</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45590.3826388889</v>
+        <v>45684.4493055556</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>921.7171</v>
+        <v>438.31809</v>
       </c>
       <c r="E3" t="n">
-        <v>4210.08</v>
+        <v>4929.498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.350465352119515</v>
+        <v>0.423142070899526</v>
       </c>
       <c r="G3" t="n">
-        <v>6.81778000976715</v>
+        <v>13.8520290225487</v>
       </c>
       <c r="H3" t="n">
-        <v>68.2630833333333</v>
+        <v>52.7025454545455</v>
       </c>
       <c r="I3" t="n">
-        <v>42.888077344184</v>
+        <v>11.1455271474515</v>
       </c>
       <c r="J3" t="n">
-        <v>43.8755145968776</v>
+        <v>15.1561061813325</v>
       </c>
       <c r="K3" t="n">
-        <v>1.64222222315533</v>
+        <v>1.18058763921349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.886433277238764</v>
+        <v>0.888330297949479</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45231.4138888889</v>
+        <v>45590.3826388889</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>434.69795</v>
+        <v>921.7171</v>
       </c>
       <c r="E4" t="n">
-        <v>17383.67</v>
+        <v>4210.08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36326953896332</v>
+        <v>0.350465352119515</v>
       </c>
       <c r="G4" t="n">
-        <v>7.69898152094339</v>
+        <v>7.73268462442831</v>
       </c>
       <c r="H4" t="n">
-        <v>67.2998333333333</v>
+        <v>68.2630833333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.80706235080412</v>
+        <v>42.888077344184</v>
       </c>
       <c r="J4" t="n">
-        <v>0.839668088680685</v>
+        <v>43.8755145968776</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0758923517245445</v>
+        <v>1.64222222315533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.977079719599168</v>
+        <v>0.937225889387457</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45569.4001157407</v>
+        <v>45231.4138888889</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="n">
+        <v>434.69795</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17383.67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.36326953896332</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.65417931160357</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67.2998333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.80706235080412</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.839668088680685</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.0758923517245445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.02138493772845</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45569.4001157407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
         <v>555.11052</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>14306.2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>0.386909393539067</v>
       </c>
-      <c r="G5" t="n">
-        <v>9.48592572074131</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G6" t="n">
+        <v>10.5047310494453</v>
+      </c>
+      <c r="H6" t="n">
         <v>75.3191666666667</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>7.83767603189423</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>7.12167092180563</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>0.85258190192096</v>
       </c>
     </row>
@@ -1870,7 +2100,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="B2" s="1" t="n">
         <v>45660.5268518519</v>
       </c>
@@ -1880,10 +2112,18 @@
       <c r="D2" t="n">
         <v>350.63274</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="E2" t="n">
+        <v>7013.68</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60.6108333333333</v>
+      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
@@ -1896,7 +2136,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.18811562375951</v>
+        <v>2.13331324235291</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6502314815</v>
@@ -1914,7 +2154,7 @@
         <v>0.287726779544469</v>
       </c>
       <c r="G3" t="n">
-        <v>154.211095996949</v>
+        <v>135.929350688605</v>
       </c>
       <c r="H3" t="n">
         <v>57.3474166666667</v>
@@ -1930,45 +2170,65 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="n">
+        <v>2.0235293889573</v>
+      </c>
       <c r="B4" s="1" t="n">
-        <v>45442.5159722222</v>
+        <v>45684.5840277778</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>664.4421</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#NUM!</v>
+        <v>345.56298</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7013.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.239089827931722</v>
+      </c>
+      <c r="G4" t="n">
+        <v>105.567293879362</v>
+      </c>
+      <c r="H4" t="n">
+        <v>52.6218666666667</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.4288656991903</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.94570380717799</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.289076728687383</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="B5" s="1" t="n">
-        <v>45484.5509259259</v>
+        <v>45442.5159722222</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>20118.9135</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+        <v>664.4421</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13636.37</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="n">
+        <v>69.957</v>
+      </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
       </c>
@@ -1981,271 +2241,316 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.0110110910579</v>
+        <v>-0.998833642320927</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45590.5094907407</v>
+        <v>45484.5509259259</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>509.79309</v>
+        <v>20118.9135</v>
       </c>
       <c r="E6" t="n">
-        <v>11548.536</v>
+        <v>9438.768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.210021357525233</v>
+        <v>0.0013654681854821</v>
       </c>
       <c r="G6" t="n">
-        <v>102.567811979203</v>
+        <v>0.100268924736074</v>
       </c>
       <c r="H6" t="n">
-        <v>68.8635</v>
+        <v>73.537</v>
       </c>
       <c r="I6" t="n">
-        <v>22.2991493012617</v>
+        <v>32458.750221616</v>
       </c>
       <c r="J6" t="n">
-        <v>22.5804118145796</v>
+        <v>30372.9383772734</v>
       </c>
       <c r="K6" t="n">
-        <v>1.35373185818986</v>
+        <v>4.48248680901756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.78284340384112</v>
+        <v>1.9468491266343</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45597.4420138889</v>
+        <v>45590.5094907407</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>709.2594</v>
+        <v>509.79309</v>
       </c>
       <c r="E7" t="n">
-        <v>10979.754</v>
+        <v>11548.536</v>
       </c>
       <c r="F7" t="n">
-        <v>0.140018529582514</v>
+        <v>0.210021357525233</v>
       </c>
       <c r="G7" t="n">
-        <v>60.65175944789</v>
+        <v>88.4808175167356</v>
       </c>
       <c r="H7" t="n">
-        <v>69.1992916666667</v>
+        <v>68.8635</v>
       </c>
       <c r="I7" t="n">
-        <v>421.436718042855</v>
+        <v>22.2991493012617</v>
       </c>
       <c r="J7" t="n">
-        <v>424.255976125793</v>
+        <v>22.5804118145796</v>
       </c>
       <c r="K7" t="n">
-        <v>2.62762796856231</v>
+        <v>1.35373185818986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.897974485355915</v>
+        <v>1.70660519514956</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45618.5153935185</v>
+        <v>45597.4420138889</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>2030.428296</v>
+        <v>709.2594</v>
       </c>
       <c r="E8" t="n">
-        <v>6021.774</v>
+        <v>10979.754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02724196474367</v>
+        <v>0.140018529582514</v>
       </c>
       <c r="G8" t="n">
-        <v>7.90632177280263</v>
+        <v>50.886806313883</v>
       </c>
       <c r="H8" t="n">
-        <v>65.92275</v>
+        <v>69.1992916666667</v>
       </c>
       <c r="I8" t="n">
-        <v>2295.37831639403</v>
+        <v>421.436718042855</v>
       </c>
       <c r="J8" t="n">
-        <v>2445.94945198473</v>
+        <v>424.255976125793</v>
       </c>
       <c r="K8" t="n">
-        <v>3.388447477659</v>
+        <v>2.62762796856231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.42579574241579</v>
+        <v>0.782366260768942</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45266.6111111111</v>
+        <v>45618.5153935185</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>615.23295</v>
+        <v>2030.428296</v>
       </c>
       <c r="E9" t="n">
-        <v>10319.43</v>
+        <v>6021.774</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0742687258801095</v>
+        <v>0.02724196474367</v>
       </c>
       <c r="G9" t="n">
-        <v>26.6560468121497</v>
+        <v>6.05851602244309</v>
       </c>
       <c r="H9" t="n">
-        <v>63.18275</v>
+        <v>65.92275</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98405511927871</v>
+        <v>2295.37831639403</v>
       </c>
       <c r="J9" t="n">
-        <v>3.33938623369513</v>
+        <v>2445.94945198473</v>
       </c>
       <c r="K9" t="n">
-        <v>0.523666652496055</v>
+        <v>3.388447477659</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="n">
+        <v>1.33061070880939</v>
+      </c>
       <c r="B10" s="1" t="n">
-        <v>45639.5510416667</v>
+        <v>45266.6111111111</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>526.36744</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K10" t="e">
-        <v>#NUM!</v>
+        <v>615.23295</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10319.43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0742687258801095</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.4097062585526</v>
+      </c>
+      <c r="H10" t="n">
+        <v>63.18275</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.98405511927871</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.33938623369513</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.523666652496055</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1.94560178814029</v>
+      <c r="A11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45331.4570601852</v>
+        <v>45639.5510416667</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>504.21780864</v>
+        <v>526.36744</v>
       </c>
       <c r="E11" t="n">
-        <v>10290.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.186952867332309</v>
-      </c>
-      <c r="G11" t="n">
-        <v>88.2270560822679</v>
+        <v>1090.647</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H11" t="n">
-        <v>56.771625</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13.1137942790288</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16.5095063088059</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.2177340865537</v>
+        <v>61.35475</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.79439046160364</v>
+        <v>1.87799524404843</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45502.5288194444</v>
+        <v>45331.4570601852</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>2747.582712</v>
+        <v>504.21780864</v>
       </c>
       <c r="E12" t="n">
-        <v>9438.768</v>
+        <v>12721.81</v>
       </c>
       <c r="F12" t="n">
-        <v>0.142858205716412</v>
+        <v>0.186952867332309</v>
       </c>
       <c r="G12" t="n">
-        <v>62.2860028938123</v>
+        <v>75.5083958708422</v>
       </c>
       <c r="H12" t="n">
-        <v>74.1734347826087</v>
+        <v>56.771625</v>
       </c>
       <c r="I12" t="n">
-        <v>39.1066086514066</v>
+        <v>10.1233281358362</v>
       </c>
       <c r="J12" t="n">
-        <v>36.2140897116962</v>
+        <v>12.7446829017268</v>
       </c>
       <c r="K12" t="n">
-        <v>1.55887757311658</v>
+        <v>1.10532903433306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.14757031533802</v>
+        <v>1.71882276127153</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45569.4864583333</v>
+        <v>45502.5288194444</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="n">
+        <v>2747.582712</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9438.768</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.142858205716412</v>
+      </c>
+      <c r="G13" t="n">
+        <v>52.3386795046643</v>
+      </c>
+      <c r="H13" t="n">
+        <v>74.3296666666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39.1908375573378</v>
+      </c>
+      <c r="J13" t="n">
+        <v>36.1951772221721</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.55865070740246</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.09070650353942</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45569.4864583333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="n">
         <v>1103.890144</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>10445.418</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>0.267561157919519</v>
       </c>
-      <c r="G13" t="n">
-        <v>140.465708905252</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G14" t="n">
+        <v>123.227178179364</v>
+      </c>
+      <c r="H14" t="n">
         <v>75.3264583333333</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>3.15911076136802</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>2.87051252902584</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>0.457959446788</v>
       </c>
     </row>
@@ -2300,141 +2605,176 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.37909660638304</v>
+        <v>-0.175260244808302</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45590.4924768519</v>
+        <v>45684.6167824074</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>505.046412</v>
+        <v>450.504288</v>
       </c>
       <c r="E2" t="n">
-        <v>12559.68</v>
+        <v>1244.816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0301448591708373</v>
+        <v>0.106130731104437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00417737432950786</v>
+        <v>0.66794354192741</v>
       </c>
       <c r="H2" t="n">
-        <v>67.9985833333333</v>
+        <v>49.5106666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>204.408460187423</v>
+        <v>247.72983826695</v>
       </c>
       <c r="J2" t="n">
-        <v>210.092563052218</v>
+        <v>358.174369121744</v>
       </c>
       <c r="K2" t="n">
-        <v>2.32241067933337</v>
+        <v>2.55409450460832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.94161785158211</v>
+        <v>-2.32800328872695</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45296.6498842593</v>
+        <v>45590.4924768519</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>637.0341</v>
+        <v>505.046412</v>
       </c>
       <c r="E3" t="n">
-        <v>1245.823</v>
+        <v>12559.68</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0393744230845104</v>
+        <v>0.0301448591708373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0114388442944727</v>
+        <v>0.00469890550310944</v>
       </c>
       <c r="H3" t="n">
-        <v>52.15875</v>
+        <v>67.9985833333333</v>
       </c>
       <c r="I3" t="n">
-        <v>201.152535994288</v>
+        <v>204.408460187423</v>
       </c>
       <c r="J3" t="n">
-        <v>276.378340533053</v>
+        <v>210.092563052218</v>
       </c>
       <c r="K3" t="n">
-        <v>2.44150400485427</v>
+        <v>2.32241067933337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.422218509888519</v>
+        <v>-1.89676502842414</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45502.5104166667</v>
+        <v>45296.6498842593</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>718.57919</v>
+        <v>637.0341</v>
       </c>
       <c r="E4" t="n">
-        <v>20938.13</v>
+        <v>1245.823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0923400884564007</v>
+        <v>0.0393744230845104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.378252223911605</v>
+        <v>0.0126833790439043</v>
       </c>
       <c r="H4" t="n">
-        <v>76.43375</v>
+        <v>52.15875</v>
       </c>
       <c r="I4" t="n">
-        <v>3.53500894211804</v>
+        <v>201.152535994288</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15399152008986</v>
+        <v>276.378340533053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.498860521338119</v>
+        <v>2.44150400485427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.09178193473096</v>
+        <v>-0.401820914597899</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45279.5347222222</v>
+        <v>45502.5104166667</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="n">
+        <v>718.57919</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20938.13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0923400884564007</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.396441476915104</v>
+      </c>
+      <c r="H5" t="n">
+        <v>76.43375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.53500894211804</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.15399152008986</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.498860521338119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.07246895076231</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45279.5347222222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
         <v>811.21125</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>7747.794</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>0.386132065900496</v>
       </c>
-      <c r="G5" t="n">
-        <v>123.53270029118</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G6" t="n">
+        <v>118.159583308924</v>
+      </c>
+      <c r="H6" t="n">
         <v>57.4105416666667</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>0.0936575847248386</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>0.116487862981952</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>-0.933719321973188</v>
       </c>
     </row>
@@ -2489,7 +2829,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.44834574536004</v>
+        <v>1.38306365667294</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.5511574074</v>
@@ -2507,7 +2847,7 @@
         <v>0.242294433819637</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0766795568978</v>
+        <v>24.1581490633855</v>
       </c>
       <c r="H2" t="n">
         <v>57.088375</v>
@@ -2523,142 +2863,167 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.32722727332793</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" s="1" t="n">
-        <v>45590.450462963</v>
+        <v>45684.5515046296</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>441.72498</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2233.951</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.218316630467253</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21.2435588096117</v>
-      </c>
-      <c r="H3" t="n">
-        <v>69.4796956521739</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.63489781718714</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.64644376236186</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.751775006997514</v>
+        <v>395.991756</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.73522198120372</v>
+        <v>1.24814091763682</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45231.5222222222</v>
+        <v>45590.450462963</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>744.31615</v>
+        <v>441.72498</v>
       </c>
       <c r="E4" t="n">
-        <v>4485.295</v>
+        <v>2233.951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13055244711888</v>
+        <v>0.218316630467253</v>
       </c>
       <c r="G4" t="n">
-        <v>5.43528074341473</v>
+        <v>17.7068340734806</v>
       </c>
       <c r="H4" t="n">
-        <v>68.842375</v>
+        <v>69.407</v>
       </c>
       <c r="I4" t="n">
-        <v>3.67752525896693</v>
+        <v>5.62940675835463</v>
       </c>
       <c r="J4" t="n">
-        <v>3.72506216091881</v>
+        <v>5.64789055593064</v>
       </c>
       <c r="K4" t="n">
-        <v>0.571133524310831</v>
+        <v>0.751886272424781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.71996815724048</v>
+        <v>0.58978266162639</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45279.41875</v>
+        <v>45231.5222222222</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>452.6567</v>
+        <v>744.31615</v>
       </c>
       <c r="E5" t="n">
-        <v>9377.646</v>
+        <v>4485.295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.731386801864513</v>
+        <v>0.13055244711888</v>
       </c>
       <c r="G5" t="n">
-        <v>524.768982429259</v>
+        <v>3.88850499911487</v>
       </c>
       <c r="H5" t="n">
-        <v>60.1737083333333</v>
+        <v>68.842375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.586319530217814</v>
+        <v>3.67752525896693</v>
       </c>
       <c r="J5" t="n">
-        <v>0.692968790739059</v>
+        <v>3.72506216091881</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.159286324284329</v>
+        <v>0.571133524310831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.54386883051916</v>
+        <v>2.7971276640854</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45569.4483796296</v>
+        <v>45279.41875</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="n">
+        <v>452.6567</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9377.646</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.731386801864513</v>
+      </c>
+      <c r="G6" t="n">
+        <v>626.798089543104</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60.1737083333333</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.586319530217814</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.692968790739059</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.159286324284329</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.48911725947442</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45569.4483796296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
         <v>373.09719</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>1077.366</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>0.263452518093847</v>
       </c>
-      <c r="G6" t="n">
-        <v>34.9839489437211</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G7" t="n">
+        <v>30.8402052313475</v>
+      </c>
+      <c r="H7" t="n">
         <v>76.0062916666667</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>22.5748045119931</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>20.284117843621</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1.30715612498201</v>
       </c>
     </row>
@@ -2712,7 +3077,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="n">
+        <v>1.13134059951358</v>
+      </c>
       <c r="B2" s="1" t="n">
         <v>45660.5559027778</v>
       </c>
@@ -2722,23 +3089,31 @@
       <c r="D2" t="n">
         <v>335.25396</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
+      <c r="E2" t="n">
+        <v>3393.52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0500958747372041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.531333546744</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50.861625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.9622160341323</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.0761890923796</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.32379208634261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.15243335263438</v>
+        <v>2.27787649291049</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6913194444</v>
@@ -2756,7 +3131,7 @@
         <v>0.304619300450722</v>
       </c>
       <c r="G3" t="n">
-        <v>142.0474208413</v>
+        <v>189.616660208254</v>
       </c>
       <c r="H3" t="n">
         <v>52.2674583333333</v>
@@ -2773,273 +3148,308 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.87062750523785</v>
+        <v>2.0158107754289</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45590.5368055556</v>
+        <v>45684.6496527778</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>385.73862</v>
+        <v>365.76996</v>
       </c>
       <c r="E4" t="n">
-        <v>11406.38</v>
+        <v>3393.52</v>
       </c>
       <c r="F4" t="n">
-        <v>0.189070453385662</v>
+        <v>0.201714359792356</v>
       </c>
       <c r="G4" t="n">
-        <v>74.2382122946598</v>
+        <v>103.707645726516</v>
       </c>
       <c r="H4" t="n">
-        <v>67.770875</v>
+        <v>49.803125</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24948952918913</v>
+        <v>17.1263820836176</v>
       </c>
       <c r="J4" t="n">
-        <v>2.32142883577927</v>
+        <v>24.6242389760602</v>
       </c>
       <c r="K4" t="n">
-        <v>0.365755374755548</v>
+        <v>1.39136281729737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.69403875911316</v>
+        <v>1.97476751056966</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45597.5128472222</v>
+        <v>45590.5368055556</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>366.03866</v>
+        <v>385.73862</v>
       </c>
       <c r="E5" t="n">
-        <v>3957.608</v>
+        <v>11406.38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.140225032268246</v>
+        <v>0.189070453385662</v>
       </c>
       <c r="G5" t="n">
-        <v>49.4354804284234</v>
+        <v>94.3555630543491</v>
       </c>
       <c r="H5" t="n">
-        <v>68.7422083333333</v>
+        <v>67.770875</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98707457535708</v>
+        <v>2.24948952918913</v>
       </c>
       <c r="J5" t="n">
-        <v>6.07573352541785</v>
+        <v>2.32142883577927</v>
       </c>
       <c r="K5" t="n">
-        <v>0.783598717959278</v>
+        <v>0.365755374755548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.33837785071146</v>
+        <v>1.78483006309456</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45618.5591435185</v>
+        <v>45597.5128472222</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>2122.394256</v>
+        <v>366.03866</v>
       </c>
       <c r="E6" t="n">
-        <v>3764.232</v>
+        <v>3957.608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0767954910734997</v>
+        <v>0.140225032268246</v>
       </c>
       <c r="G6" t="n">
-        <v>21.7960527708121</v>
+        <v>60.9298435653969</v>
       </c>
       <c r="H6" t="n">
-        <v>56.827625</v>
+        <v>68.7422083333333</v>
       </c>
       <c r="I6" t="n">
-        <v>324.265975905442</v>
+        <v>5.98707457535708</v>
       </c>
       <c r="J6" t="n">
-        <v>407.818907929547</v>
+        <v>6.07573352541785</v>
       </c>
       <c r="K6" t="n">
-        <v>2.61046735733988</v>
+        <v>0.783598717959278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.45106574211743</v>
+        <v>1.40231259910045</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45266.6384259259</v>
+        <v>45618.5591435185</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>711.255675</v>
+        <v>2122.394256</v>
       </c>
       <c r="E7" t="n">
-        <v>3986.563</v>
+        <v>3764.232</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0929485828202428</v>
+        <v>0.0767954910734997</v>
       </c>
       <c r="G7" t="n">
-        <v>28.2530762862963</v>
+        <v>25.2529779253888</v>
       </c>
       <c r="H7" t="n">
-        <v>57.605125</v>
+        <v>56.827625</v>
       </c>
       <c r="I7" t="n">
-        <v>1.74934976466679</v>
+        <v>324.265975905442</v>
       </c>
       <c r="J7" t="n">
-        <v>2.16774731953429</v>
+        <v>407.818907929547</v>
       </c>
       <c r="K7" t="n">
-        <v>0.336008657881384</v>
+        <v>2.61046735733988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.14396940161106</v>
+        <v>1.52348603915568</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45639.5956018518</v>
+        <v>45266.6384259259</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>335.75364</v>
-      </c>
-      <c r="E8"/>
+        <v>711.255675</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3986.563</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.0552282276592525</v>
+        <v>0.0929485828202428</v>
       </c>
       <c r="G8" t="n">
-        <v>13.9305865099121</v>
+        <v>33.3799774655278</v>
       </c>
       <c r="H8" t="n">
-        <v>51.5931666666667</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
+        <v>57.605125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.74934976466679</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.16774731953429</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.336008657881384</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.06372892354623</v>
+        <v>1.19332484216351</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45331.5136574074</v>
+        <v>45639.5956018518</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>464.2354962</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3784.3</v>
-      </c>
+        <v>335.75364</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.262140092531933</v>
+        <v>0.0552282276592525</v>
       </c>
       <c r="G9" t="n">
-        <v>115.805430012386</v>
+        <v>15.6071944816737</v>
       </c>
       <c r="H9" t="n">
-        <v>55.680375</v>
-      </c>
-      <c r="I9" t="n">
-        <v>134.29547670046</v>
-      </c>
-      <c r="J9" t="n">
-        <v>172.539893863929</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.23688952655034</v>
-      </c>
+        <v>51.5931666666667</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.73291751991694</v>
+        <v>2.18247656019847</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45502.6175925926</v>
+        <v>45331.5136574074</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>703.29945</v>
+        <v>464.2354962</v>
       </c>
       <c r="E10" t="n">
-        <v>5518.321</v>
+        <v>3784.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.149697122890749</v>
+        <v>0.262140092531933</v>
       </c>
       <c r="G10" t="n">
-        <v>54.0651634036788</v>
+        <v>152.221697335934</v>
       </c>
       <c r="H10" t="n">
-        <v>77.6787083333333</v>
+        <v>55.680375</v>
       </c>
       <c r="I10" t="n">
-        <v>18.435644843617</v>
+        <v>134.29547670046</v>
       </c>
       <c r="J10" t="n">
-        <v>16.1197447508915</v>
+        <v>172.539893863929</v>
       </c>
       <c r="K10" t="n">
-        <v>1.20735816066033</v>
+        <v>2.23688952655034</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.88489030406534</v>
+        <v>1.82672653669575</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45569.5574074074</v>
+        <v>45502.6175925926</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="n">
+        <v>703.29945</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5518.321</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.149697122890749</v>
+      </c>
+      <c r="G11" t="n">
+        <v>67.1006205701499</v>
+      </c>
+      <c r="H11" t="n">
+        <v>77.6787083333333</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.435644843617</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.1197447508915</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.20735816066033</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.99011538979048</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45569.5574074074</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="n">
         <v>403.8474</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>8906.689</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>0.193682525546869</v>
       </c>
-      <c r="G11" t="n">
-        <v>76.7167690431876</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>97.7496902311427</v>
+      </c>
+      <c r="H12" t="n">
         <v>76.7826666666667</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>3.52886405062264</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>3.13101582511279</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>0.495685262679768</v>
       </c>
     </row>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">logQ</t>
   </si>
@@ -46,10 +46,13 @@
     <t xml:space="preserve">Temp</t>
   </si>
   <si>
-    <t xml:space="preserve">KCO2_1d</t>
+    <t xml:space="preserve">KCO2_dh</t>
   </si>
   <si>
-    <t xml:space="preserve">k600_1d</t>
+    <t xml:space="preserve">k600_dh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCO2_1d</t>
   </si>
   <si>
     <t xml:space="preserve">log_K600</t>
@@ -453,6 +456,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="e">
@@ -462,7 +468,7 @@
         <v>45442.6111111111</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>749.64344</v>
@@ -479,14 +485,17 @@
       <c r="H2" t="n">
         <v>73.38625</v>
       </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
+      <c r="I2" t="n">
+        <v>-0.00722301206835864</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00677704959333723</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00722301206835864</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.16895933625257</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +506,7 @@
         <v>45590.5591435185</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>380.7333</v>
@@ -514,14 +523,17 @@
       <c r="H3" t="n">
         <v>68.7704583333333</v>
       </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
+      <c r="I3" t="n">
+        <v>-0.0333313008490599</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0338039543046863</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0333313008490599</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.47103249403429</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +544,7 @@
         <v>45639.6267361111</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
         <v>350.53264</v>
@@ -549,25 +561,28 @@
       <c r="H4" t="n">
         <v>56.3528333333333</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#NUM!</v>
+      <c r="I4" t="n">
+        <v>-0.187318140691708</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.237662875388165</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.187318140691708</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.624038652824875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.499025265749003</v>
+        <v>0.499025265741148</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45331.5462962963</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>841.7328192</v>
@@ -579,19 +594,22 @@
         <v>0.0534585500989185</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15518817595706</v>
+        <v>3.1551881759</v>
       </c>
       <c r="H5" t="n">
         <v>58.7118333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>2442.33913134876</v>
+        <v>5.44016286715653</v>
       </c>
       <c r="J5" t="n">
-        <v>2965.2972577307</v>
+        <v>6.60502050044093</v>
       </c>
       <c r="K5" t="n">
-        <v>3.47206823595364</v>
+        <v>5.44016286715653</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.819874169901274</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +620,7 @@
         <v>45569.5924768519</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>410.829216</v>
@@ -619,25 +637,28 @@
       <c r="H6" t="n">
         <v>75.485125</v>
       </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#NUM!</v>
+      <c r="I6" t="n">
+        <v>-0.0273600587330568</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0247946706179097</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0273600587330568</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.6056416566721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.129645221247688</v>
+        <v>0.129645221267409</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45231.64375</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>861.608416666667</v>
@@ -649,30 +670,33 @@
         <v>0.0367414206545583</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34786135364712</v>
+        <v>1.34786135370833</v>
       </c>
       <c r="H7" t="n">
         <v>68.2418333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>15.2165979978598</v>
+        <v>-0.0232949761654448</v>
       </c>
       <c r="J7" t="n">
-        <v>15.5766160020993</v>
+        <v>0.023846125037819</v>
       </c>
       <c r="K7" t="n">
-        <v>1.19247311371887</v>
+        <v>0.0232949761654448</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1.62258218314034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.30080534455042</v>
+        <v>2.30080534454963</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45279.6388888889</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>682.46505</v>
@@ -684,19 +708,22 @@
         <v>0.335585069806503</v>
       </c>
       <c r="G8" t="n">
-        <v>199.896571092031</v>
+        <v>199.896571091667</v>
       </c>
       <c r="H8" t="n">
         <v>58.1367916666667</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42642112532325</v>
+        <v>-0.0339279459467323</v>
       </c>
       <c r="J8" t="n">
-        <v>2.97765244901289</v>
+        <v>0.0416356543733956</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473874005610801</v>
+        <v>0.0339279459467323</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.38053460529363</v>
       </c>
     </row>
   </sheetData>
@@ -747,16 +774,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.4881172315497</v>
+        <v>1.48811723155117</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.4760416667</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
         <v>638.458466666667</v>
@@ -768,30 +798,33 @@
         <v>0.215852248068133</v>
       </c>
       <c r="G2" t="n">
-        <v>30.7692727491814</v>
+        <v>30.7692727492857</v>
       </c>
       <c r="H2" t="n">
         <v>53.7677083333333</v>
       </c>
       <c r="I2" t="n">
-        <v>5.22892126526682</v>
+        <v>-0.0470281004199628</v>
       </c>
       <c r="J2" t="n">
-        <v>6.9677990541449</v>
+        <v>0.0626672954135077</v>
       </c>
       <c r="K2" t="n">
-        <v>0.843095617468262</v>
+        <v>0.0470281004199628</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.20295904811693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.97546997200686</v>
+        <v>1.97546997200062</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.4790509259</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>351.12894</v>
@@ -803,30 +836,33 @@
         <v>0.297576481764534</v>
       </c>
       <c r="G3" t="n">
-        <v>94.5083045240855</v>
+        <v>94.5083045227273</v>
       </c>
       <c r="H3" t="n">
         <v>51.2003333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>29.9809396779035</v>
+        <v>-0.371734272889384</v>
       </c>
       <c r="J3" t="n">
-        <v>41.9548094541104</v>
+        <v>0.520198524602315</v>
       </c>
       <c r="K3" t="n">
-        <v>1.62278175299922</v>
+        <v>0.371734272889384</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.283830883893283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.6248134307019</v>
+        <v>1.62481343070708</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45484.5087962963</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>792.3951</v>
@@ -838,30 +874,33 @@
         <v>0.236097905442564</v>
       </c>
       <c r="G4" t="n">
-        <v>42.1515385023547</v>
+        <v>42.1515385028571</v>
       </c>
       <c r="H4" t="n">
         <v>76.44125</v>
       </c>
       <c r="I4" t="n">
-        <v>37.9449411668583</v>
+        <v>-0.373280047151523</v>
       </c>
       <c r="J4" t="n">
-        <v>33.8550834326527</v>
+        <v>0.333046428626357</v>
       </c>
       <c r="K4" t="n">
-        <v>1.52962388841246</v>
+        <v>0.373280047151523</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.477495219074176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.06577306541398</v>
+        <v>1.06577306544163</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45590.4100694444</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>546.66366</v>
@@ -873,30 +912,33 @@
         <v>0.163249695310579</v>
       </c>
       <c r="G5" t="n">
-        <v>11.6351789032592</v>
+        <v>11.635178904</v>
       </c>
       <c r="H5" t="n">
         <v>69.3495</v>
       </c>
       <c r="I5" t="n">
-        <v>133.147923773774</v>
+        <v>0.905681582804368</v>
       </c>
       <c r="J5" t="n">
-        <v>133.708572612851</v>
+        <v>0.909495155810849</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12615925258064</v>
+        <v>0.905681582804368</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.0411996097508221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3246951004139</v>
+        <v>0.32469510041924</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45639.4833333333</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
         <v>660.91974</v>
@@ -908,30 +950,33 @@
         <v>0.100274044883754</v>
       </c>
       <c r="G6" t="n">
-        <v>2.11200577028172</v>
+        <v>2.11200577030769</v>
       </c>
       <c r="H6" t="n">
         <v>55.5208333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>81.783855367662</v>
+        <v>-0.341699915995974</v>
       </c>
       <c r="J6" t="n">
-        <v>105.395844870759</v>
+        <v>0.440352819963818</v>
       </c>
       <c r="K6" t="n">
-        <v>2.02282348957414</v>
+        <v>0.341699915995974</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.356199218144873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.84742212067015</v>
+        <v>2.84742212066537</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45279.4587962963</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>743.7952</v>
@@ -943,30 +988,33 @@
         <v>0.528260069853473</v>
       </c>
       <c r="G7" t="n">
-        <v>703.756016428581</v>
+        <v>703.756016420833</v>
       </c>
       <c r="H7" t="n">
         <v>57.950125</v>
       </c>
       <c r="I7" t="n">
-        <v>24.5945005502199</v>
+        <v>-0.541345524111269</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2831430737235</v>
+        <v>0.666557303146162</v>
       </c>
       <c r="K7" t="n">
-        <v>1.48120094839522</v>
+        <v>0.541345524111269</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.176162508860153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.04776300348103</v>
+        <v>2.04776300345066</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45502.4672453704</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
         <v>801.7695</v>
@@ -978,30 +1026,33 @@
         <v>0.312017862477283</v>
       </c>
       <c r="G8" t="n">
-        <v>111.625393657806</v>
+        <v>111.62539365</v>
       </c>
       <c r="H8" t="n">
         <v>76.3831666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>106.921669755234</v>
+        <v>1.39006128539709</v>
       </c>
       <c r="J8" t="n">
-        <v>95.4812610289166</v>
+        <v>1.24132745720325</v>
       </c>
       <c r="K8" t="n">
-        <v>1.97991814613576</v>
+        <v>1.39006128539709</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.093886361754324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.71108095362448</v>
+        <v>1.71108095362215</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45569.4208333333</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
         <v>693.87467</v>
@@ -1013,19 +1064,22 @@
         <v>0.249963155450786</v>
       </c>
       <c r="G9" t="n">
-        <v>51.4139479591211</v>
+        <v>51.4139479588462</v>
       </c>
       <c r="H9" t="n">
         <v>76.3036666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>262.116599005408</v>
+        <v>-2.72997884097584</v>
       </c>
       <c r="J9" t="n">
-        <v>234.414519987693</v>
+        <v>2.44145804581688</v>
       </c>
       <c r="K9" t="n">
-        <v>2.36998450903218</v>
+        <v>2.72997884097584</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.387649265737992</v>
       </c>
     </row>
   </sheetData>
@@ -1076,16 +1130,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.5793165496351</v>
+        <v>1.5793165496371</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.6100694444</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>456.123866666667</v>
@@ -1097,30 +1154,33 @@
         <v>0.412753905123254</v>
       </c>
       <c r="G2" t="n">
-        <v>37.9591561800967</v>
+        <v>37.9591561802707</v>
       </c>
       <c r="H2" t="n">
         <v>54.8325956006768</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0708810643150279</v>
+        <v>-0.00121901817063835</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0925662232043585</v>
+        <v>0.00159196125458791</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.03354745556387</v>
+        <v>0.00121901817063835</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.7980675063995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.87100816824727</v>
+        <v>1.87100816824501</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.528587963</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>329.190888</v>
@@ -1132,30 +1192,33 @@
         <v>0.514586113304458</v>
       </c>
       <c r="G3" t="n">
-        <v>74.3033112794777</v>
+        <v>74.3033112790909</v>
       </c>
       <c r="H3" t="n">
         <v>51.4724285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>0.686889621673731</v>
+        <v>-0.0147276608619273</v>
       </c>
       <c r="J3" t="n">
-        <v>0.956243105494021</v>
+        <v>0.0205028926262647</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0194316830871586</v>
+        <v>0.0147276608619273</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.68818486270022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.37477885123213</v>
+        <v>1.37477885121376</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.4736111111</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>411.06708</v>
@@ -1167,30 +1230,33 @@
         <v>0.353585946262801</v>
       </c>
       <c r="G4" t="n">
-        <v>23.7016647670735</v>
+        <v>23.7016647660714</v>
       </c>
       <c r="H4" t="n">
         <v>68.4775833333333</v>
       </c>
       <c r="I4" t="n">
-        <v>2.09988598413225</v>
+        <v>-0.0309370905309748</v>
       </c>
       <c r="J4" t="n">
-        <v>2.14024553622096</v>
+        <v>0.0315316976316427</v>
       </c>
       <c r="K4" t="n">
-        <v>0.330463599942121</v>
+        <v>0.0309370905309748</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.50125264668922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.25618350175535</v>
+        <v>1.25618350175115</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45231.5059027778</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>714.0472</v>
@@ -1202,19 +1268,22 @@
         <v>0.323240054140384</v>
       </c>
       <c r="G5" t="n">
-        <v>18.037797280416</v>
+        <v>18.0377972802419</v>
       </c>
       <c r="H5" t="n">
         <v>67.2085132275132</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0727481208053596</v>
+        <v>-0.000979796104488986</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0758058207694044</v>
+        <v>0.00102097823373577</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.12029744567433</v>
+        <v>0.000979796104488986</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.9909835165509</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1294,7 @@
         <v>45639.5269675926</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>365.8083</v>
@@ -1242,25 +1311,28 @@
       <c r="H6" t="n">
         <v>54.87</v>
       </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#NUM!</v>
+      <c r="I6" t="n">
+        <v>-0.116594826346693</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.152109837643059</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.116594826346693</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.817842697216342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.56499734138787</v>
+        <v>2.56499734139219</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45279.4587962963</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>743.7952</v>
@@ -1272,30 +1344,33 @@
         <v>0.868715799079058</v>
       </c>
       <c r="G7" t="n">
-        <v>367.280052120008</v>
+        <v>367.280052123662</v>
       </c>
       <c r="H7" t="n">
         <v>58.6289981220657</v>
       </c>
       <c r="I7" t="n">
-        <v>4.54457774345002</v>
+        <v>-0.16449777024492</v>
       </c>
       <c r="J7" t="n">
-        <v>5.52688689568124</v>
+        <v>0.200053915250054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.742480577105002</v>
+        <v>0.16449777024492</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.698852944635622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.48789393781438</v>
+        <v>1.48789393782397</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45569.462962963</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>395.82372</v>
@@ -1307,19 +1382,22 @@
         <v>0.385103328321135</v>
       </c>
       <c r="G8" t="n">
-        <v>30.7534567069137</v>
+        <v>30.7534567075926</v>
       </c>
       <c r="H8" t="n">
         <v>75.4362222222222</v>
       </c>
       <c r="I8" t="n">
-        <v>14.7748394060531</v>
+        <v>-0.23707665961172</v>
       </c>
       <c r="J8" t="n">
-        <v>13.4013452642964</v>
+        <v>0.215037611052551</v>
       </c>
       <c r="K8" t="n">
-        <v>1.12714839624061</v>
+        <v>0.23707665961172</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.667485573367981</v>
       </c>
     </row>
   </sheetData>
@@ -1370,16 +1448,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.468650986440939</v>
+        <v>0.468650986424036</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45660.4115740741</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>552.81112</v>
@@ -1391,30 +1472,33 @@
         <v>0.00525665233148642</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9420563487145</v>
+        <v>2.9420563486</v>
       </c>
       <c r="H2" t="n">
         <v>58.6762916666667</v>
       </c>
       <c r="I2" t="n">
-        <v>3161.70241227499</v>
+        <v>-0.692498764872981</v>
       </c>
       <c r="J2" t="n">
-        <v>3841.25482029939</v>
+        <v>0.841339212790009</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5844731182506</v>
+        <v>0.692498764872981</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.0750288691951065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.05743043314321</v>
+        <v>2.05743043317364</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.409837963</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>560.080524</v>
@@ -1426,19 +1510,22 @@
         <v>0.161457401795922</v>
       </c>
       <c r="G3" t="n">
-        <v>114.13804595354</v>
+        <v>114.138045961538</v>
       </c>
       <c r="H3" t="n">
         <v>53.0998181818182</v>
       </c>
       <c r="I3" t="n">
-        <v>24.1248106339086</v>
+        <v>-0.16229705182373</v>
       </c>
       <c r="J3" t="n">
-        <v>32.5584369350977</v>
+        <v>0.21903335975322</v>
       </c>
       <c r="K3" t="n">
-        <v>1.51266354711531</v>
+        <v>0.16229705182373</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.65948973514438</v>
       </c>
     </row>
     <row r="4">
@@ -1449,7 +1536,7 @@
         <v>45442.334837963</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>892.5125</v>
@@ -1466,25 +1553,28 @@
       <c r="H4" t="n">
         <v>72.257625</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#NUM!</v>
+      <c r="I4" t="n">
+        <v>-0.0323566680786453</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0309288241918769</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0323566680786453</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.50963659007396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.2728374417132</v>
+        <v>2.27283744171538</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45484.4175925926</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>2034.862788</v>
@@ -1496,30 +1586,33 @@
         <v>0.25670942796431</v>
       </c>
       <c r="G5" t="n">
-        <v>187.429282091365</v>
+        <v>187.429282092308</v>
       </c>
       <c r="H5" t="n">
         <v>76.5790416666667</v>
       </c>
       <c r="I5" t="n">
-        <v>5.23630994528206</v>
+        <v>-0.0560087554457162</v>
       </c>
       <c r="J5" t="n">
-        <v>4.66096747896893</v>
+        <v>0.0498547623035987</v>
       </c>
       <c r="K5" t="n">
-        <v>0.668476072734428</v>
+        <v>0.0560087554457162</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.30229335002258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.11979583477163</v>
+        <v>0.00826695036340704</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45590.3521990741</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>551.097192</v>
@@ -1531,19 +1624,22 @@
         <v>0.00145530175357868</v>
       </c>
       <c r="G6" t="n">
-        <v>0.758934272109195</v>
+        <v>1.019217684125</v>
       </c>
       <c r="H6" t="n">
         <v>69.5068333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>338.844350300782</v>
+        <v>-0.0205466990492898</v>
       </c>
       <c r="J6" t="n">
-        <v>339.329787940342</v>
+        <v>0.0205761348096275</v>
       </c>
       <c r="K6" t="n">
-        <v>2.53062198569958</v>
+        <v>0.0205466990492898</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.68663620335902</v>
       </c>
     </row>
     <row r="7">
@@ -1554,7 +1650,7 @@
         <v>45597.3579861111</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>628.45452</v>
@@ -1571,25 +1667,28 @@
       <c r="H7" t="n">
         <v>69.6570416666667</v>
       </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K7" t="e">
-        <v>#NUM!</v>
+      <c r="I7" t="n">
+        <v>1.64331633910974</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.64162808869427</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.64331633910974</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.215274774389667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.21153465609192</v>
+        <v>2.21153465604911</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45296.4006944444</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>426.60745</v>
@@ -1601,19 +1700,22 @@
         <v>0.225012367816944</v>
       </c>
       <c r="G8" t="n">
-        <v>162.755118676755</v>
+        <v>162.755118660714</v>
       </c>
       <c r="H8" t="n">
         <v>54.8710416666667</v>
       </c>
       <c r="I8" t="n">
-        <v>4.60331475600706</v>
+        <v>-0.0431584480439927</v>
       </c>
       <c r="J8" t="n">
-        <v>6.00549340048817</v>
+        <v>0.056304595414703</v>
       </c>
       <c r="K8" t="n">
-        <v>0.778548694054773</v>
+        <v>0.0431584480439927</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.24945615786977</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1726,7 @@
         <v>45618.3987268519</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>3118.512384</v>
@@ -1641,25 +1743,28 @@
       <c r="H9" t="n">
         <v>62.832875</v>
       </c>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#NUM!</v>
+      <c r="I9" t="n">
+        <v>0.563667320801013</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.634680597323982</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.563667320801013</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.197444778200821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.99360035723806</v>
+        <v>1.99360035726142</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>45266.452662037</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
         <v>409.7124</v>
@@ -1671,19 +1776,22 @@
         <v>0.140716626048637</v>
       </c>
       <c r="G10" t="n">
-        <v>98.5372317396999</v>
+        <v>98.537231745</v>
       </c>
       <c r="H10" t="n">
         <v>62.9686666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75876431979859</v>
+        <v>-0.0337647452204721</v>
       </c>
       <c r="J10" t="n">
-        <v>6.46958238000064</v>
+        <v>0.0379324085190583</v>
       </c>
       <c r="K10" t="n">
-        <v>0.81087624729699</v>
+        <v>0.0337647452204721</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.42098958088467</v>
       </c>
     </row>
     <row r="11">
@@ -1694,7 +1802,7 @@
         <v>45635.3928240741</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>2329.16652</v>
@@ -1711,25 +1819,28 @@
       <c r="H11" t="n">
         <v>56.8723333333333</v>
       </c>
-      <c r="I11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#NUM!</v>
+      <c r="I11" t="n">
+        <v>2.152726136449</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.70467538288039</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.152726136449</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.432115148228664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.73623324833003</v>
+        <v>2.73623324833723</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>45279.4179398148</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
         <v>444.28</v>
@@ -1741,30 +1852,33 @@
         <v>0.69658739105357</v>
       </c>
       <c r="G12" t="n">
-        <v>544.795169674302</v>
+        <v>544.795169683333</v>
       </c>
       <c r="H12" t="n">
         <v>59.3927083333333</v>
       </c>
       <c r="I12" t="n">
-        <v>1.92361508691423</v>
+        <v>-0.0558319172827028</v>
       </c>
       <c r="J12" t="n">
-        <v>2.30614023018154</v>
+        <v>0.0669345085977433</v>
       </c>
       <c r="K12" t="n">
-        <v>0.362885712040372</v>
+        <v>0.0558319172827028</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.17434992065355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.49799189071829</v>
+        <v>2.49799189070893</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>45502.4107638889</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>1722.98714</v>
@@ -1776,30 +1890,33 @@
         <v>0.416947772916525</v>
       </c>
       <c r="G13" t="n">
-        <v>314.768953891403</v>
+        <v>314.768953884615</v>
       </c>
       <c r="H13" t="n">
         <v>76.3617916666667</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51139246729725</v>
+        <v>-0.0262571551350999</v>
       </c>
       <c r="J13" t="n">
-        <v>1.35007271120727</v>
+        <v>0.023454575425552</v>
       </c>
       <c r="K13" t="n">
-        <v>0.130357159032578</v>
+        <v>0.0262571551350999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.62977242423926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.6697577409753</v>
+        <v>1.66975774097199</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>45569.3364583333</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>520.154188</v>
@@ -1811,19 +1928,22 @@
         <v>0.0700180580780742</v>
       </c>
       <c r="G14" t="n">
-        <v>46.747430108433</v>
+        <v>46.7474301080769</v>
       </c>
       <c r="H14" t="n">
         <v>75.6006666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9735868782611</v>
+        <v>-0.00575778002767546</v>
       </c>
       <c r="J14" t="n">
-        <v>1.78537435630409</v>
+        <v>0.00520868522378351</v>
       </c>
       <c r="K14" t="n">
-        <v>0.251729292622446</v>
+        <v>0.00575778002767546</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-2.28327188747123</v>
       </c>
     </row>
   </sheetData>
@@ -1874,16 +1994,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.15052348266254</v>
+        <v>1.15052348266631</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.4349537037</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>618.29095</v>
@@ -1895,30 +2018,33 @@
         <v>0.425990517738611</v>
       </c>
       <c r="G2" t="n">
-        <v>14.1424119219607</v>
+        <v>14.1424119220833</v>
       </c>
       <c r="H2" t="n">
         <v>55.2622916666667</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2851116692374</v>
+        <v>-0.0228102243887654</v>
       </c>
       <c r="J2" t="n">
-        <v>1.66460884481262</v>
+        <v>0.0295461493180833</v>
       </c>
       <c r="K2" t="n">
-        <v>0.221312197904229</v>
+        <v>0.0228102243887654</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.52949911169909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.1415133928052</v>
+        <v>1.14151339272529</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.4493055556</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>438.31809</v>
@@ -1930,30 +2056,33 @@
         <v>0.423142070899526</v>
       </c>
       <c r="G3" t="n">
-        <v>13.8520290225487</v>
+        <v>13.85202902</v>
       </c>
       <c r="H3" t="n">
         <v>52.7025454545455</v>
       </c>
       <c r="I3" t="n">
-        <v>11.1455271474515</v>
+        <v>-0.196505893268312</v>
       </c>
       <c r="J3" t="n">
-        <v>15.1561061813325</v>
+        <v>0.26721608984759</v>
       </c>
       <c r="K3" t="n">
-        <v>1.18058763921349</v>
+        <v>0.196505893268312</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.573137395292139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.888330297949479</v>
+        <v>0.888330297947025</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.3826388889</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>921.7171</v>
@@ -1965,30 +2094,33 @@
         <v>0.350465352119515</v>
       </c>
       <c r="G4" t="n">
-        <v>7.73268462442831</v>
+        <v>7.73268462438462</v>
       </c>
       <c r="H4" t="n">
         <v>68.2630833333333</v>
       </c>
       <c r="I4" t="n">
-        <v>42.888077344184</v>
+        <v>-0.626282713673269</v>
       </c>
       <c r="J4" t="n">
-        <v>43.8755145968776</v>
+        <v>0.640701986359151</v>
       </c>
       <c r="K4" t="n">
-        <v>1.64222222315533</v>
+        <v>0.626282713673269</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.193343929569118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.937225889387457</v>
+        <v>0.937225889386442</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45231.4138888889</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>434.69795</v>
@@ -2000,30 +2132,33 @@
         <v>0.36326953896332</v>
       </c>
       <c r="G5" t="n">
-        <v>8.65417931160357</v>
+        <v>8.65417931158333</v>
       </c>
       <c r="H5" t="n">
         <v>67.2998333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.80706235080412</v>
+        <v>-0.0122158820038028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.839668088680685</v>
+        <v>0.0127094099773852</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0758923517245445</v>
+        <v>0.0122158820038028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.89587461069805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02138493772845</v>
+        <v>1.02138493779272</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45569.4001157407</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>555.11052</v>
@@ -2035,19 +2170,22 @@
         <v>0.386909393539067</v>
       </c>
       <c r="G6" t="n">
-        <v>10.5047310494453</v>
+        <v>10.504731051</v>
       </c>
       <c r="H6" t="n">
         <v>75.3191666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>7.83767603189423</v>
+        <v>-0.126352936677328</v>
       </c>
       <c r="J6" t="n">
-        <v>7.12167092180563</v>
+        <v>0.114810057389193</v>
       </c>
       <c r="K6" t="n">
-        <v>0.85258190192096</v>
+        <v>0.126352936677328</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.940020065968447</v>
       </c>
     </row>
   </sheetData>
@@ -2098,6 +2236,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="e">
@@ -2107,7 +2248,7 @@
         <v>45660.5268518519</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>350.63274</v>
@@ -2124,25 +2265,28 @@
       <c r="H2" t="n">
         <v>60.6108333333333</v>
       </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
+      <c r="I2" t="n">
+        <v>-0.0457362341132933</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0536290117969964</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0457362341132933</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.2706002055554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.13331324235291</v>
+        <v>2.13331324234938</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6502314815</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>612.310275</v>
@@ -2154,30 +2298,33 @@
         <v>0.287726779544469</v>
       </c>
       <c r="G3" t="n">
-        <v>135.929350688605</v>
+        <v>135.9293506875</v>
       </c>
       <c r="H3" t="n">
         <v>57.3474166666667</v>
       </c>
       <c r="I3" t="n">
-        <v>2.29763769799997</v>
+        <v>-0.0275454956418957</v>
       </c>
       <c r="J3" t="n">
-        <v>2.86156511357376</v>
+        <v>0.0343062047743908</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456603632524347</v>
+        <v>0.0275454956418957</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.46462732440105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0235293889573</v>
+        <v>2.02352938896741</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45684.5840277778</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
         <v>345.56298</v>
@@ -2189,19 +2336,22 @@
         <v>0.239089827931722</v>
       </c>
       <c r="G4" t="n">
-        <v>105.567293879362</v>
+        <v>105.567293881818</v>
       </c>
       <c r="H4" t="n">
         <v>52.6218666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4288656991903</v>
+        <v>-0.0142344689232062</v>
       </c>
       <c r="J4" t="n">
-        <v>1.94570380717799</v>
+        <v>0.0193832495193451</v>
       </c>
       <c r="K4" t="n">
-        <v>0.289076728687383</v>
+        <v>0.0142344689232062</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.71257341355879</v>
       </c>
     </row>
     <row r="5">
@@ -2212,7 +2362,7 @@
         <v>45442.5159722222</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>664.4421</v>
@@ -2229,25 +2379,28 @@
       <c r="H5" t="n">
         <v>69.957</v>
       </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
+      <c r="I5" t="n">
+        <v>-0.0120268373437539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0119519645480923</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0120268373437539</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.92256070373071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.998833642320927</v>
+        <v>-0.566360259554675</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45484.5509259259</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
         <v>20118.9135</v>
@@ -2259,30 +2412,33 @@
         <v>0.0013654681854821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.100268924736074</v>
+        <v>0.271418684</v>
       </c>
       <c r="H6" t="n">
         <v>73.537</v>
       </c>
       <c r="I6" t="n">
-        <v>32458.750221616</v>
+        <v>1.84672461533862</v>
       </c>
       <c r="J6" t="n">
-        <v>30372.9383772734</v>
+        <v>1.72805337724063</v>
       </c>
       <c r="K6" t="n">
-        <v>4.48248680901756</v>
+        <v>1.84672461533862</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.237557153121486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.9468491266343</v>
+        <v>1.94684912663333</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45590.5094907407</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>509.79309</v>
@@ -2294,30 +2450,33 @@
         <v>0.210021357525233</v>
       </c>
       <c r="G7" t="n">
-        <v>88.4808175167356</v>
+        <v>88.4808175165385</v>
       </c>
       <c r="H7" t="n">
         <v>68.8635</v>
       </c>
       <c r="I7" t="n">
-        <v>22.2991493012617</v>
+        <v>-0.195137400329535</v>
       </c>
       <c r="J7" t="n">
-        <v>22.5804118145796</v>
+        <v>0.1975986976157</v>
       </c>
       <c r="K7" t="n">
-        <v>1.35373185818986</v>
+        <v>0.195137400329535</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.704215922198688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.70660519514956</v>
+        <v>1.70660519515198</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45597.4420138889</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>709.2594</v>
@@ -2329,30 +2488,33 @@
         <v>0.140018529582514</v>
       </c>
       <c r="G8" t="n">
-        <v>50.886806313883</v>
+        <v>50.8868063141667</v>
       </c>
       <c r="H8" t="n">
         <v>69.1992916666667</v>
       </c>
       <c r="I8" t="n">
-        <v>421.436718042855</v>
+        <v>-2.45870623218505</v>
       </c>
       <c r="J8" t="n">
-        <v>424.255976125793</v>
+        <v>2.47515408098865</v>
       </c>
       <c r="K8" t="n">
-        <v>2.62762796856231</v>
+        <v>2.45870623218505</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.393602239407076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.782366260768942</v>
+        <v>0.782366260755101</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45618.5153935185</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>2030.428296</v>
@@ -2364,30 +2526,33 @@
         <v>0.02724196474367</v>
       </c>
       <c r="G9" t="n">
-        <v>6.05851602244309</v>
+        <v>6.05851602225</v>
       </c>
       <c r="H9" t="n">
         <v>65.92275</v>
       </c>
       <c r="I9" t="n">
-        <v>2295.37831639403</v>
+        <v>-2.60544229869128</v>
       </c>
       <c r="J9" t="n">
-        <v>2445.94945198473</v>
+        <v>2.77635286399028</v>
       </c>
       <c r="K9" t="n">
-        <v>3.388447477659</v>
+        <v>2.60544229869128</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.443474662483422</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.33061070880939</v>
+        <v>1.33061070879974</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>45266.6111111111</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>615.23295</v>
@@ -2399,19 +2564,22 @@
         <v>0.0742687258801095</v>
       </c>
       <c r="G10" t="n">
-        <v>21.4097062585526</v>
+        <v>21.4097062580769</v>
       </c>
       <c r="H10" t="n">
         <v>63.18275</v>
       </c>
       <c r="I10" t="n">
-        <v>2.98405511927871</v>
+        <v>-0.00923424881936867</v>
       </c>
       <c r="J10" t="n">
-        <v>3.33938623369513</v>
+        <v>0.0103338316999215</v>
       </c>
       <c r="K10" t="n">
-        <v>0.523666652496055</v>
+        <v>0.00923424881936867</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.98573861579119</v>
       </c>
     </row>
     <row r="11">
@@ -2422,7 +2590,7 @@
         <v>45639.5510416667</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
         <v>526.36744</v>
@@ -2439,25 +2607,28 @@
       <c r="H11" t="n">
         <v>61.35475</v>
       </c>
-      <c r="I11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#NUM!</v>
+      <c r="I11" t="n">
+        <v>0.502258717663777</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.580860274637568</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.502258717663777</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.235928324153202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.87799524404843</v>
+        <v>1.87799524404137</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>45331.4570601852</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>504.21780864</v>
@@ -2469,30 +2640,33 @@
         <v>0.186952867332309</v>
       </c>
       <c r="G12" t="n">
-        <v>75.5083958708422</v>
+        <v>75.5083958696154</v>
       </c>
       <c r="H12" t="n">
         <v>56.771625</v>
       </c>
       <c r="I12" t="n">
-        <v>10.1233281358362</v>
+        <v>-0.0788577175808508</v>
       </c>
       <c r="J12" t="n">
-        <v>12.7446829017268</v>
+        <v>0.099277292154953</v>
       </c>
       <c r="K12" t="n">
-        <v>1.10532903433306</v>
+        <v>0.0788577175808508</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.0031500769787</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.71882276127153</v>
+        <v>1.71882276127598</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>45502.5288194444</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
         <v>2747.582712</v>
@@ -2504,30 +2678,33 @@
         <v>0.142858205716412</v>
       </c>
       <c r="G13" t="n">
-        <v>52.3386795046643</v>
+        <v>52.3386795052</v>
       </c>
       <c r="H13" t="n">
         <v>74.3296666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>39.1908375573378</v>
+        <v>-0.23328053058186</v>
       </c>
       <c r="J13" t="n">
-        <v>36.1951772221721</v>
+        <v>0.215449086397794</v>
       </c>
       <c r="K13" t="n">
-        <v>1.55865070740246</v>
+        <v>0.23328053058186</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.666655343178018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.09070650353942</v>
+        <v>2.09070650351727</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>45569.4864583333</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>1103.890144</v>
@@ -2539,19 +2716,22 @@
         <v>0.267561157919519</v>
       </c>
       <c r="G14" t="n">
-        <v>123.227178179364</v>
+        <v>123.227178173077</v>
       </c>
       <c r="H14" t="n">
         <v>75.3264583333333</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15911076136802</v>
+        <v>-0.0352189722211518</v>
       </c>
       <c r="J14" t="n">
-        <v>2.87051252902584</v>
+        <v>0.0320015690036934</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457959446788</v>
+        <v>0.0352189722211518</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1.49482872815067</v>
       </c>
     </row>
   </sheetData>
@@ -2602,16 +2782,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.175260244808302</v>
+        <v>-0.175260244879322</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45684.6167824074</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>450.504288</v>
@@ -2623,30 +2806,33 @@
         <v>0.106130731104437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66794354192741</v>
+        <v>0.667943541818182</v>
       </c>
       <c r="H2" t="n">
         <v>49.5106666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>247.72983826695</v>
+        <v>-1.09548953548564</v>
       </c>
       <c r="J2" t="n">
-        <v>358.174369121744</v>
+        <v>1.58388781907339</v>
       </c>
       <c r="K2" t="n">
-        <v>2.55409450460832</v>
+        <v>1.09548953548564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.199724418867947</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>-2.32800328872695</v>
+      <c r="A3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45590.4924768519</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>505.046412</v>
@@ -2657,31 +2843,34 @@
       <c r="F3" t="n">
         <v>0.0301448591708373</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.00469890550310944</v>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
         <v>67.9985833333333</v>
       </c>
       <c r="I3" t="n">
-        <v>204.408460187423</v>
+        <v>-0.256744343569899</v>
       </c>
       <c r="J3" t="n">
-        <v>210.092563052218</v>
+        <v>0.263883780252057</v>
       </c>
       <c r="K3" t="n">
-        <v>2.32241067933337</v>
+        <v>0.256744343569899</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.578587303086169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.89676502842414</v>
+        <v>-1.9033044465218</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45296.6498842593</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>637.0341</v>
@@ -2690,33 +2879,36 @@
         <v>1245.823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0393744230845104</v>
+        <v>0.0392683187491522</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0126833790439043</v>
+        <v>0.0124938288823529</v>
       </c>
       <c r="H4" t="n">
-        <v>52.15875</v>
+        <v>51.9500869565217</v>
       </c>
       <c r="I4" t="n">
-        <v>201.152535994288</v>
+        <v>-0.328975995391074</v>
       </c>
       <c r="J4" t="n">
-        <v>276.378340533053</v>
+        <v>0.453880991435802</v>
       </c>
       <c r="K4" t="n">
-        <v>2.44150400485427</v>
+        <v>0.328975995391074</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.343058005156257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.401820914597899</v>
+        <v>-0.401820914631298</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45502.5104166667</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
         <v>718.57919</v>
@@ -2728,30 +2920,33 @@
         <v>0.0923400884564007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.396441476915104</v>
+        <v>0.396441476884615</v>
       </c>
       <c r="H5" t="n">
         <v>76.43375</v>
       </c>
       <c r="I5" t="n">
-        <v>3.53500894211804</v>
+        <v>-0.0136009599337228</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15399152008986</v>
+        <v>0.0121349939981598</v>
       </c>
       <c r="K5" t="n">
-        <v>0.498860521338119</v>
+        <v>0.0136009599337228</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.91596043412947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.07246895076231</v>
+        <v>2.07246895077545</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45279.5347222222</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>811.21125</v>
@@ -2763,19 +2958,22 @@
         <v>0.386132065900496</v>
       </c>
       <c r="G6" t="n">
-        <v>118.159583308924</v>
+        <v>118.1595833125</v>
       </c>
       <c r="H6" t="n">
         <v>57.4105416666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0936575847248386</v>
+        <v>-0.00150684152821053</v>
       </c>
       <c r="J6" t="n">
-        <v>0.116487862981952</v>
+        <v>0.00187415413273145</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.933719321973188</v>
+        <v>0.00150684152821053</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2.72719469506932</v>
       </c>
     </row>
   </sheetData>
@@ -2826,16 +3024,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.38306365667294</v>
+        <v>1.38306365666048</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.5511574074</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>669.2205</v>
@@ -2847,19 +3048,22 @@
         <v>0.242294433819637</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1581490633855</v>
+        <v>24.1581490626923</v>
       </c>
       <c r="H2" t="n">
         <v>57.088375</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75024483467205</v>
+        <v>-0.0176697742192753</v>
       </c>
       <c r="J2" t="n">
-        <v>2.19012083047377</v>
+        <v>0.0221105869423432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.340468075826607</v>
+        <v>0.0176697742192753</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.65539972859101</v>
       </c>
     </row>
     <row r="3">
@@ -2868,7 +3072,7 @@
         <v>45684.5515046296</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>395.991756</v>
@@ -2886,16 +3090,19 @@
       <c r="K3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="L3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.24814091763682</v>
+        <v>1.24814091763677</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.450462963</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>441.72498</v>
@@ -2907,30 +3114,33 @@
         <v>0.218316630467253</v>
       </c>
       <c r="G4" t="n">
-        <v>17.7068340734806</v>
+        <v>17.7068340734783</v>
       </c>
       <c r="H4" t="n">
         <v>69.407</v>
       </c>
       <c r="I4" t="n">
-        <v>5.62940675835463</v>
+        <v>-0.0512080464588985</v>
       </c>
       <c r="J4" t="n">
-        <v>5.64789055593064</v>
+        <v>0.0513761848091082</v>
       </c>
       <c r="K4" t="n">
-        <v>0.751886272424781</v>
+        <v>0.0512080464588985</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.28923814954167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.58978266162639</v>
+        <v>0.589782661626447</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45231.5222222222</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>744.31615</v>
@@ -2942,30 +3152,33 @@
         <v>0.13055244711888</v>
       </c>
       <c r="G5" t="n">
-        <v>3.88850499911487</v>
+        <v>3.88850499911538</v>
       </c>
       <c r="H5" t="n">
         <v>68.842375</v>
       </c>
       <c r="I5" t="n">
-        <v>3.67752525896693</v>
+        <v>-0.0200045800791511</v>
       </c>
       <c r="J5" t="n">
-        <v>3.72506216091881</v>
+        <v>0.0202631658657456</v>
       </c>
       <c r="K5" t="n">
-        <v>0.571133524310831</v>
+        <v>0.0200045800791511</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.693292700604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.7971276640854</v>
+        <v>2.79712766409306</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45279.41875</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
         <v>452.6567</v>
@@ -2977,30 +3190,33 @@
         <v>0.731386801864513</v>
       </c>
       <c r="G6" t="n">
-        <v>626.798089543104</v>
+        <v>626.798089554167</v>
       </c>
       <c r="H6" t="n">
         <v>60.1737083333333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.586319530217814</v>
+        <v>-0.0178677652531963</v>
       </c>
       <c r="J6" t="n">
-        <v>0.692968790739059</v>
+        <v>0.0211178428187733</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.159286324284329</v>
+        <v>0.0178677652531963</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.6753504469219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.48911725947442</v>
+        <v>1.48911725947711</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45569.4483796296</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>373.09719</v>
@@ -3012,19 +3228,22 @@
         <v>0.263452518093847</v>
       </c>
       <c r="G7" t="n">
-        <v>30.8402052313475</v>
+        <v>30.8402052315385</v>
       </c>
       <c r="H7" t="n">
         <v>76.0062916666667</v>
       </c>
       <c r="I7" t="n">
-        <v>22.5748045119931</v>
+        <v>-0.247807878923372</v>
       </c>
       <c r="J7" t="n">
-        <v>20.284117843621</v>
+        <v>0.222662580133929</v>
       </c>
       <c r="K7" t="n">
-        <v>1.30715612498201</v>
+        <v>0.247807878923372</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.652352762790092</v>
       </c>
     </row>
   </sheetData>
@@ -3075,16 +3294,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.13134059951358</v>
+        <v>1.13134059950346</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45660.5559027778</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>335.25396</v>
@@ -3096,30 +3318,33 @@
         <v>0.0500958747372041</v>
       </c>
       <c r="G2" t="n">
-        <v>13.531333546744</v>
+        <v>13.5313335464286</v>
       </c>
       <c r="H2" t="n">
         <v>50.861625</v>
       </c>
       <c r="I2" t="n">
-        <v>14.9622160341323</v>
+        <v>-0.0312310541765366</v>
       </c>
       <c r="J2" t="n">
-        <v>21.0761890923796</v>
+        <v>0.0439929220295616</v>
       </c>
       <c r="K2" t="n">
-        <v>1.32379208634261</v>
+        <v>0.0312310541765366</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.35661719103134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.27787649291049</v>
+        <v>2.27787649290113</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6913194444</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>680.577033333333</v>
@@ -3131,30 +3356,33 @@
         <v>0.304619300450722</v>
       </c>
       <c r="G3" t="n">
-        <v>189.616660208254</v>
+        <v>189.616660204167</v>
       </c>
       <c r="H3" t="n">
         <v>52.2674583333333</v>
       </c>
       <c r="I3" t="n">
-        <v>3.24239418088936</v>
+        <v>-0.0411539936320003</v>
       </c>
       <c r="J3" t="n">
-        <v>4.44575197355207</v>
+        <v>0.0564275773400354</v>
       </c>
       <c r="K3" t="n">
-        <v>0.647945229950382</v>
+        <v>0.0411539936320003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.24850859531635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0158107754289</v>
+        <v>2.0158107753978</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45684.6496527778</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>365.76996</v>
@@ -3166,30 +3394,33 @@
         <v>0.201714359792356</v>
       </c>
       <c r="G4" t="n">
-        <v>103.707645726516</v>
+        <v>103.707645719091</v>
       </c>
       <c r="H4" t="n">
         <v>49.803125</v>
       </c>
       <c r="I4" t="n">
-        <v>17.1263820836176</v>
+        <v>-0.143943216564841</v>
       </c>
       <c r="J4" t="n">
-        <v>24.6242389760602</v>
+        <v>0.206960941684582</v>
       </c>
       <c r="K4" t="n">
-        <v>1.39136281729737</v>
+        <v>0.143943216564841</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.68411160822132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.97476751056966</v>
+        <v>1.97476751057974</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45590.5368055556</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>385.73862</v>
@@ -3201,30 +3432,33 @@
         <v>0.189070453385662</v>
       </c>
       <c r="G5" t="n">
-        <v>94.3555630543491</v>
+        <v>94.3555630565385</v>
       </c>
       <c r="H5" t="n">
         <v>67.770875</v>
       </c>
       <c r="I5" t="n">
-        <v>2.24948952918913</v>
+        <v>-0.0177213335487537</v>
       </c>
       <c r="J5" t="n">
-        <v>2.32142883577927</v>
+        <v>0.018288066770139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.365755374755548</v>
+        <v>0.0177213335487537</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.73783220132707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.78483006309456</v>
+        <v>1.78483006308283</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45597.5128472222</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>366.03866</v>
@@ -3236,30 +3470,33 @@
         <v>0.140225032268246</v>
       </c>
       <c r="G6" t="n">
-        <v>60.9298435653969</v>
+        <v>60.92984356375</v>
       </c>
       <c r="H6" t="n">
         <v>68.7422083333333</v>
       </c>
       <c r="I6" t="n">
-        <v>5.98707457535708</v>
+        <v>-0.0349807385634102</v>
       </c>
       <c r="J6" t="n">
-        <v>6.07573352541785</v>
+        <v>0.0354987470689577</v>
       </c>
       <c r="K6" t="n">
-        <v>0.783598717959278</v>
+        <v>0.0349807385634102</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.44978697513196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.40231259910045</v>
+        <v>1.40231259910038</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45618.5591435185</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>2122.394256</v>
@@ -3271,30 +3508,33 @@
         <v>0.0767954910734997</v>
       </c>
       <c r="G7" t="n">
-        <v>25.2529779253888</v>
+        <v>25.2529779253846</v>
       </c>
       <c r="H7" t="n">
         <v>56.827625</v>
       </c>
       <c r="I7" t="n">
-        <v>324.265975905442</v>
+        <v>-1.03759020242025</v>
       </c>
       <c r="J7" t="n">
-        <v>407.818907929547</v>
+        <v>1.30494388764616</v>
       </c>
       <c r="K7" t="n">
-        <v>2.61046735733988</v>
+        <v>1.03759020242025</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.115591837490723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.52348603915568</v>
+        <v>1.52348603914882</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45266.6384259259</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>711.255675</v>
@@ -3306,30 +3546,33 @@
         <v>0.0929485828202428</v>
       </c>
       <c r="G8" t="n">
-        <v>33.3799774655278</v>
+        <v>33.379977465</v>
       </c>
       <c r="H8" t="n">
         <v>57.605125</v>
       </c>
       <c r="I8" t="n">
-        <v>1.74934976466679</v>
+        <v>-0.0067749825617793</v>
       </c>
       <c r="J8" t="n">
-        <v>2.16774731953429</v>
+        <v>0.00839537671929553</v>
       </c>
       <c r="K8" t="n">
-        <v>0.336008657881384</v>
+        <v>0.0067749825617793</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.07595981132575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.19332484216351</v>
+        <v>1.19332484214905</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45639.5956018518</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>335.75364</v>
@@ -3339,7 +3582,7 @@
         <v>0.0552282276592525</v>
       </c>
       <c r="G9" t="n">
-        <v>15.6071944816737</v>
+        <v>15.6071944811538</v>
       </c>
       <c r="H9" t="n">
         <v>51.5931666666667</v>
@@ -3347,16 +3590,17 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.18247656019847</v>
+        <v>2.18247656018373</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>45331.5136574074</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
         <v>464.2354962</v>
@@ -3368,30 +3612,33 @@
         <v>0.262140092531933</v>
       </c>
       <c r="G10" t="n">
-        <v>152.221697335934</v>
+        <v>152.221697330769</v>
       </c>
       <c r="H10" t="n">
         <v>55.680375</v>
       </c>
       <c r="I10" t="n">
-        <v>134.29547670046</v>
+        <v>-1.46684286203661</v>
       </c>
       <c r="J10" t="n">
-        <v>172.539893863929</v>
+        <v>1.88456765595585</v>
       </c>
       <c r="K10" t="n">
-        <v>2.23688952655034</v>
+        <v>1.46684286203661</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.275211733232091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.82672653669575</v>
+        <v>1.82672653669478</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>45502.6175925926</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>703.29945</v>
@@ -3403,30 +3650,33 @@
         <v>0.149697122890749</v>
       </c>
       <c r="G11" t="n">
-        <v>67.1006205701499</v>
+        <v>67.10062057</v>
       </c>
       <c r="H11" t="n">
         <v>77.6787083333333</v>
       </c>
       <c r="I11" t="n">
-        <v>18.435644843617</v>
+        <v>-0.114990124655214</v>
       </c>
       <c r="J11" t="n">
-        <v>16.1197447508915</v>
+        <v>0.100544975455905</v>
       </c>
       <c r="K11" t="n">
-        <v>1.20735816066033</v>
+        <v>0.114990124655214</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.99763962756647</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.99011538979048</v>
+        <v>1.99011538980078</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>45569.5574074074</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>403.8474</v>
@@ -3438,19 +3688,22 @@
         <v>0.193682525546869</v>
       </c>
       <c r="G12" t="n">
-        <v>97.7496902311427</v>
+        <v>97.7496902334615</v>
       </c>
       <c r="H12" t="n">
         <v>76.7826666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>3.52886405062264</v>
+        <v>-0.0284783042348395</v>
       </c>
       <c r="J12" t="n">
-        <v>3.13101582511279</v>
+        <v>0.0252676271889608</v>
       </c>
       <c r="K12" t="n">
-        <v>0.495685262679768</v>
+        <v>0.0284783042348395</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.59743553952547</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -461,8 +461,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>-0.0946022879688591</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45442.6111111111</v>
@@ -476,11 +476,11 @@
       <c r="E2" t="n">
         <v>4081.731</v>
       </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
+      <c r="F2" t="n">
+        <v>0.0218030763334254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.804262300955288</v>
       </c>
       <c r="H2" t="n">
         <v>73.38625</v>
@@ -499,8 +499,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>0.944122555422881</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45590.5591435185</v>
@@ -514,11 +514,11 @@
       <c r="E3" t="n">
         <v>4180.398</v>
       </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
+      <c r="F3" t="n">
+        <v>0.092027430068846</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.79270606968896</v>
       </c>
       <c r="H3" t="n">
         <v>68.7704583333333</v>
@@ -537,8 +537,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>0.592199900944416</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45639.6267361111</v>
@@ -552,11 +552,11 @@
       <c r="E4" t="n">
         <v>1004.816</v>
       </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+      <c r="F4" t="n">
+        <v>0.0568190554562926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.91020836941241</v>
       </c>
       <c r="H4" t="n">
         <v>56.3528333333333</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.499025265741148</v>
+        <v>1.40702802223683</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45331.5462962963</v>
@@ -591,10 +591,10 @@
         <v>2525.272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0534585500989185</v>
+        <v>0.173458550098919</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1551881759</v>
+        <v>25.5286601741417</v>
       </c>
       <c r="H5" t="n">
         <v>58.7118333333333</v>
@@ -613,8 +613,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>0.772729239251968</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45569.5924768519</v>
@@ -628,11 +628,11 @@
       <c r="E6" t="n">
         <v>4180.398</v>
       </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
+      <c r="F6" t="n">
+        <v>0.0728298829324932</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.92555780694664</v>
       </c>
       <c r="H6" t="n">
         <v>75.485125</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.129645221267409</v>
+        <v>1.066161297288</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45231.64375</v>
@@ -667,10 +667,10 @@
         <v>4695.205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0367414206545583</v>
+        <v>0.0967414206545583</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34786135370833</v>
+        <v>11.6455846696751</v>
       </c>
       <c r="H7" t="n">
         <v>68.2418333333333</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.30080534454963</v>
+        <v>2.2314090687619</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45279.6388888889</v>
@@ -705,10 +705,10 @@
         <v>4360.498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.335585069806503</v>
+        <v>0.535585069806503</v>
       </c>
       <c r="G8" t="n">
-        <v>199.896571091667</v>
+        <v>170.376255342309</v>
       </c>
       <c r="H8" t="n">
         <v>58.1367916666667</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.48811723155117</v>
+        <v>1.38566869103697</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.4760416667</v>
@@ -795,10 +795,10 @@
         <v>3992.646</v>
       </c>
       <c r="F2" t="n">
-        <v>0.215852248068133</v>
+        <v>0.195852248068133</v>
       </c>
       <c r="G2" t="n">
-        <v>30.7692727492857</v>
+        <v>24.3034926825508</v>
       </c>
       <c r="H2" t="n">
         <v>53.7677083333333</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.97546997200062</v>
+        <v>1.91855663221169</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.4790509259</v>
@@ -833,10 +833,10 @@
         <v>1052.144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.297576481764534</v>
+        <v>0.277576481764534</v>
       </c>
       <c r="G3" t="n">
-        <v>94.5083045227273</v>
+        <v>82.9004011751482</v>
       </c>
       <c r="H3" t="n">
         <v>51.2003333333333</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.62481343070708</v>
+        <v>1.5367296105642</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45484.5087962963</v>
@@ -871,10 +871,10 @@
         <v>8306.523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.236097905442564</v>
+        <v>0.216097905442564</v>
       </c>
       <c r="G4" t="n">
-        <v>42.1515385028571</v>
+        <v>34.4135607052271</v>
       </c>
       <c r="H4" t="n">
         <v>76.44125</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.06577306544163</v>
+        <v>0.909888362079922</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45590.4100694444</v>
@@ -909,10 +909,10 @@
         <v>1413.367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.163249695310579</v>
+        <v>0.143249695310579</v>
       </c>
       <c r="G5" t="n">
-        <v>11.635178904</v>
+        <v>8.12621600209579</v>
       </c>
       <c r="H5" t="n">
         <v>69.3495</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.32469510041924</v>
+        <v>0.0234067105702277</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45639.4833333333</v>
@@ -947,10 +947,10 @@
         <v>4022.262</v>
       </c>
       <c r="F6" t="n">
-        <v>0.100274044883754</v>
+        <v>0.0802740448837539</v>
       </c>
       <c r="G6" t="n">
-        <v>2.11200577030769</v>
+        <v>1.05537477713385</v>
       </c>
       <c r="H6" t="n">
         <v>55.5208333333333</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.84742212066537</v>
+        <v>2.84380240435832</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45279.4587962963</v>
@@ -985,10 +985,10 @@
         <v>3992.646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.528260069853473</v>
+        <v>0.508260069853473</v>
       </c>
       <c r="G7" t="n">
-        <v>703.756016420833</v>
+        <v>697.91479401277</v>
       </c>
       <c r="H7" t="n">
         <v>57.950125</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.04776300345066</v>
+        <v>1.99647912105049</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45502.4672453704</v>
@@ -1023,10 +1023,10 @@
         <v>4010.916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.312017862477283</v>
+        <v>0.292017862477283</v>
       </c>
       <c r="G8" t="n">
-        <v>111.62539365</v>
+        <v>99.1925650713711</v>
       </c>
       <c r="H8" t="n">
         <v>76.3831666666667</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.71108095362215</v>
+        <v>1.63132441362412</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45569.4208333333</v>
@@ -1061,10 +1061,10 @@
         <v>6443.836</v>
       </c>
       <c r="F9" t="n">
-        <v>0.249963155450786</v>
+        <v>0.229963155450786</v>
       </c>
       <c r="G9" t="n">
-        <v>51.4139479588462</v>
+        <v>42.7882390659637</v>
       </c>
       <c r="H9" t="n">
         <v>76.3036666666667</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.5793165496371</v>
+        <v>1.8103990009162</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.6100694444</v>
@@ -1151,10 +1151,10 @@
         <v>6443.836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.412753905123254</v>
+        <v>0.422753905123254</v>
       </c>
       <c r="G2" t="n">
-        <v>37.9591561802707</v>
+        <v>64.6247685816727</v>
       </c>
       <c r="H2" t="n">
         <v>54.8325956006768</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.87100816824501</v>
+        <v>2.09321981296863</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.528587963</v>
@@ -1189,10 +1189,10 @@
         <v>5860.433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.514586113304458</v>
+        <v>0.524586113304458</v>
       </c>
       <c r="G3" t="n">
-        <v>74.3033112790909</v>
+        <v>123.942374733896</v>
       </c>
       <c r="H3" t="n">
         <v>51.4724285714286</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.37477885121376</v>
+        <v>1.6129383420109</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.4736111111</v>
@@ -1227,10 +1227,10 @@
         <v>5182.004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.353585946262801</v>
+        <v>0.363585946262801</v>
       </c>
       <c r="G4" t="n">
-        <v>23.7016647660714</v>
+        <v>41.0145869309145</v>
       </c>
       <c r="H4" t="n">
         <v>68.4775833333333</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.25618350175115</v>
+        <v>1.4589110779254</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45231.5059027778</v>
@@ -1268,7 +1268,7 @@
         <v>0.323240054140384</v>
       </c>
       <c r="G5" t="n">
-        <v>18.0377972802419</v>
+        <v>28.7680932586914</v>
       </c>
       <c r="H5" t="n">
         <v>67.2085132275132</v>
@@ -1287,8 +1287,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>0.133308724828252</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45639.5269675926</v>
@@ -1302,11 +1302,11 @@
       <c r="E6" t="n">
         <v>3344.355</v>
       </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
+      <c r="F6" t="n">
+        <v>0.116689691980783</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.35927936760901</v>
       </c>
       <c r="H6" t="n">
         <v>54.87</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.56499734139219</v>
+        <v>2.77046345934894</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45279.4587962963</v>
@@ -1341,10 +1341,10 @@
         <v>8053.117</v>
       </c>
       <c r="F7" t="n">
-        <v>0.868715799079058</v>
+        <v>0.878715799079059</v>
       </c>
       <c r="G7" t="n">
-        <v>367.280052123662</v>
+        <v>589.472377976509</v>
       </c>
       <c r="H7" t="n">
         <v>58.6289981220657</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.48789393782397</v>
+        <v>1.72203464420075</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45569.462962963</v>
@@ -1379,10 +1379,10 @@
         <v>3225.154</v>
       </c>
       <c r="F8" t="n">
-        <v>0.385103328321135</v>
+        <v>0.395103328321135</v>
       </c>
       <c r="G8" t="n">
-        <v>30.7534567075926</v>
+        <v>52.7271920869743</v>
       </c>
       <c r="H8" t="n">
         <v>75.4362222222222</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.468650986424036</v>
+        <v>1.56444632243131</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45660.4115740741</v>
@@ -1469,10 +1469,10 @@
         <v>3976.076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00525665233148642</v>
+        <v>0.0592490354211477</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9420563486</v>
+        <v>36.6814354423516</v>
       </c>
       <c r="H2" t="n">
         <v>58.6762916666667</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.05743043317364</v>
+        <v>2.14556553890752</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.409837963</v>
@@ -1507,10 +1507,10 @@
         <v>3223.928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161457401795922</v>
+        <v>0.221457401795922</v>
       </c>
       <c r="G3" t="n">
-        <v>114.138045961538</v>
+        <v>139.818789841654</v>
       </c>
       <c r="H3" t="n">
         <v>53.0998181818182</v>
@@ -1529,8 +1529,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>1.37630742191287</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45442.334837963</v>
@@ -1544,11 +1544,11 @@
       <c r="E4" t="n">
         <v>2142.973</v>
       </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+      <c r="F4" t="n">
+        <v>0.038657298433478</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.7852336457072</v>
       </c>
       <c r="H4" t="n">
         <v>72.257625</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.27283744171538</v>
+        <v>2.3032668856264</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45484.4175925926</v>
@@ -1583,10 +1583,10 @@
         <v>6961.397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.25670942796431</v>
+        <v>0.31670942796431</v>
       </c>
       <c r="G5" t="n">
-        <v>187.429282092308</v>
+        <v>201.032783355401</v>
       </c>
       <c r="H5" t="n">
         <v>76.5790416666667</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00826695036340704</v>
+        <v>1.54719167918105</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45590.3521990741</v>
@@ -1621,10 +1621,10 @@
         <v>8635.243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00145530175357868</v>
+        <v>0.0569755168880967</v>
       </c>
       <c r="G6" t="n">
-        <v>1.019217684125</v>
+        <v>35.2526426938584</v>
       </c>
       <c r="H6" t="n">
         <v>69.5068333333333</v>
@@ -1643,8 +1643,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>1.41463921516754</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45597.3579861111</v>
@@ -1658,11 +1658,11 @@
       <c r="E7" t="n">
         <v>4564.343</v>
       </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
+      <c r="F7" t="n">
+        <v>0.0421768713234395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.9800040935939</v>
       </c>
       <c r="H7" t="n">
         <v>69.6570416666667</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.21153465604911</v>
+        <v>2.25677183450206</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45296.4006944444</v>
@@ -1697,10 +1697,10 @@
         <v>3375.242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.225012367816944</v>
+        <v>0.285012367816944</v>
       </c>
       <c r="G8" t="n">
-        <v>162.755118660714</v>
+        <v>180.622493944234</v>
       </c>
       <c r="H8" t="n">
         <v>54.8710416666667</v>
@@ -1719,8 +1719,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>1.32621116564357</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45618.3987268519</v>
@@ -1734,11 +1734,11 @@
       <c r="E9" t="n">
         <v>2542.524</v>
       </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
+      <c r="F9" t="n">
+        <v>0.0345113111205244</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.1939138978648</v>
       </c>
       <c r="H9" t="n">
         <v>62.832875</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.99360035726142</v>
+        <v>2.10222291801333</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>45266.452662037</v>
@@ -1773,10 +1773,10 @@
         <v>4325.972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.140716626048637</v>
+        <v>0.200716626048637</v>
       </c>
       <c r="G10" t="n">
-        <v>98.537231745</v>
+        <v>126.538568770996</v>
       </c>
       <c r="H10" t="n">
         <v>62.9686666666667</v>
@@ -1795,8 +1795,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="e">
-        <v>#NUM!</v>
+      <c r="A11" t="n">
+        <v>1.38133395799417</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>45635.3928240741</v>
@@ -1810,11 +1810,11 @@
       <c r="E11" t="n">
         <v>2353.895</v>
       </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#NUM!</v>
+      <c r="F11" t="n">
+        <v>0.0391091568546774</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.0621238597645</v>
       </c>
       <c r="H11" t="n">
         <v>56.8723333333333</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.73623324833723</v>
+        <v>2.68709028138924</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>45279.4179398148</v>
@@ -1849,10 +1849,10 @@
         <v>3363.2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.69658739105357</v>
+        <v>0.75658739105357</v>
       </c>
       <c r="G12" t="n">
-        <v>544.795169683333</v>
+        <v>486.508330814612</v>
       </c>
       <c r="H12" t="n">
         <v>59.3927083333333</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.49799189070893</v>
+        <v>2.48372328425539</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>45502.4107638889</v>
@@ -1887,10 +1887,10 @@
         <v>6713.144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.416947772916525</v>
+        <v>0.476947772916525</v>
       </c>
       <c r="G13" t="n">
-        <v>314.768953884615</v>
+        <v>304.595360668954</v>
       </c>
       <c r="H13" t="n">
         <v>76.3617916666667</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.66975774097199</v>
+        <v>1.91084579718173</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>45569.3364583333</v>
@@ -1925,10 +1925,10 @@
         <v>8379.938</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0700180580780742</v>
+        <v>0.130018058078074</v>
       </c>
       <c r="G14" t="n">
-        <v>46.7474301080769</v>
+        <v>81.4415062303396</v>
       </c>
       <c r="H14" t="n">
         <v>75.6006666666667</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.15052348266631</v>
+        <v>1.37081859789968</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.4349537037</v>
@@ -2015,10 +2015,10 @@
         <v>5480.453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.425990517738611</v>
+        <v>0.525990517738611</v>
       </c>
       <c r="G2" t="n">
-        <v>14.1424119220833</v>
+        <v>23.4865159879193</v>
       </c>
       <c r="H2" t="n">
         <v>55.2622916666667</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.14151339272529</v>
+        <v>1.36282116233381</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45684.4493055556</v>
@@ -2053,10 +2053,10 @@
         <v>4929.498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.423142070899526</v>
+        <v>0.523142070899526</v>
       </c>
       <c r="G3" t="n">
-        <v>13.85202902</v>
+        <v>23.057974912815</v>
       </c>
       <c r="H3" t="n">
         <v>52.7025454545455</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.888330297947025</v>
+        <v>1.14244247106486</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.3826388889</v>
@@ -2091,10 +2091,10 @@
         <v>4210.08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.350465352119515</v>
+        <v>0.450465352119515</v>
       </c>
       <c r="G4" t="n">
-        <v>7.73268462438462</v>
+        <v>13.8816941351534</v>
       </c>
       <c r="H4" t="n">
         <v>68.2630833333333</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.937225889386442</v>
+        <v>1.15213394828502</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45231.4138888889</v>
@@ -2129,10 +2129,10 @@
         <v>17383.67</v>
       </c>
       <c r="F5" t="n">
-        <v>0.36326953896332</v>
+        <v>0.45326953896332</v>
       </c>
       <c r="G5" t="n">
-        <v>8.65417931158333</v>
+        <v>14.1949526530613</v>
       </c>
       <c r="H5" t="n">
         <v>67.2998333333333</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02138493779272</v>
+        <v>1.25718073142374</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45569.4001157407</v>
@@ -2167,10 +2167,10 @@
         <v>14306.2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.386909393539067</v>
+        <v>0.486909393539067</v>
       </c>
       <c r="G6" t="n">
-        <v>10.504731051</v>
+        <v>18.0792633709287</v>
       </c>
       <c r="H6" t="n">
         <v>75.3191666666667</v>
@@ -2241,8 +2241,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>0.700193972934336</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45660.5268518519</v>
@@ -2256,11 +2256,11 @@
       <c r="E2" t="n">
         <v>7013.68</v>
       </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
+      <c r="F2" t="n">
+        <v>0.128743864480736</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.0141113348336</v>
       </c>
       <c r="H2" t="n">
         <v>60.6108333333333</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.13331324234938</v>
+        <v>2.27400576586187</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6502314815</v>
@@ -2295,10 +2295,10 @@
         <v>7115.516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.287726779544469</v>
+        <v>0.447726779544469</v>
       </c>
       <c r="G3" t="n">
-        <v>135.9293506875</v>
+        <v>187.934176750737</v>
       </c>
       <c r="H3" t="n">
         <v>57.3474166666667</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.02352938896741</v>
+        <v>2.12859643160534</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45684.5840277778</v>
@@ -2333,10 +2333,10 @@
         <v>7013.68</v>
       </c>
       <c r="F4" t="n">
-        <v>0.239089827931722</v>
+        <v>0.399089827931722</v>
       </c>
       <c r="G4" t="n">
-        <v>105.567293881818</v>
+        <v>134.461029345514</v>
       </c>
       <c r="H4" t="n">
         <v>52.6218666666667</v>
@@ -2355,8 +2355,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>-0.267984159791466</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45442.5159722222</v>
@@ -2370,11 +2370,11 @@
       <c r="E5" t="n">
         <v>13636.37</v>
       </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
+      <c r="F5" t="n">
+        <v>0.0591385364588914</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.539530300675858</v>
       </c>
       <c r="H5" t="n">
         <v>69.957</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.566360259554675</v>
+        <v>0.874024914887398</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45484.5509259259</v>
@@ -2409,10 +2409,10 @@
         <v>9438.768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0013654681854821</v>
+        <v>0.146682711547242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.271418684</v>
+        <v>7.48212423215308</v>
       </c>
       <c r="H6" t="n">
         <v>73.537</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.94684912663333</v>
+        <v>2.03360126753667</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45590.5094907407</v>
@@ -2447,10 +2447,10 @@
         <v>11548.536</v>
       </c>
       <c r="F7" t="n">
-        <v>0.210021357525233</v>
+        <v>0.370021357525233</v>
       </c>
       <c r="G7" t="n">
-        <v>88.4808175165385</v>
+        <v>108.044152575519</v>
       </c>
       <c r="H7" t="n">
         <v>68.8635</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.70660519515198</v>
+        <v>1.76858300033389</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45597.4420138889</v>
@@ -2485,10 +2485,10 @@
         <v>10979.754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.140018529582514</v>
+        <v>0.300018529582514</v>
       </c>
       <c r="G8" t="n">
-        <v>50.8868063141667</v>
+        <v>58.6925529367839</v>
       </c>
       <c r="H8" t="n">
         <v>69.1992916666667</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.782366260755101</v>
+        <v>1.18188350694267</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45618.5153935185</v>
@@ -2523,10 +2523,10 @@
         <v>6021.774</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02724196474367</v>
+        <v>0.18724196474367</v>
       </c>
       <c r="G9" t="n">
-        <v>6.05851602225</v>
+        <v>15.2013972009324</v>
       </c>
       <c r="H9" t="n">
         <v>65.92275</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.33061070879974</v>
+        <v>1.45544825395334</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>45266.6111111111</v>
@@ -2561,10 +2561,10 @@
         <v>10319.43</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0742687258801095</v>
+        <v>0.234268725880109</v>
       </c>
       <c r="G10" t="n">
-        <v>21.4097062580769</v>
+        <v>28.539624448278</v>
       </c>
       <c r="H10" t="n">
         <v>63.18275</v>
@@ -2583,8 +2583,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="e">
-        <v>#NUM!</v>
+      <c r="A11" t="n">
+        <v>0.879592552559975</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>45639.5510416667</v>
@@ -2598,11 +2598,11 @@
       <c r="E11" t="n">
         <v>1090.647</v>
       </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#NUM!</v>
+      <c r="F11" t="n">
+        <v>0.148406141567528</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.57866224638443</v>
       </c>
       <c r="H11" t="n">
         <v>61.35475</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.87799524404137</v>
+        <v>1.95257332203598</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>45331.4570601852</v>
@@ -2637,10 +2637,10 @@
         <v>12721.81</v>
       </c>
       <c r="F12" t="n">
-        <v>0.186952867332309</v>
+        <v>0.346952867332309</v>
       </c>
       <c r="G12" t="n">
-        <v>75.5083958696154</v>
+        <v>89.654753749753</v>
       </c>
       <c r="H12" t="n">
         <v>56.771625</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.71882276127598</v>
+        <v>1.78124699332156</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>45502.5288194444</v>
@@ -2675,10 +2675,10 @@
         <v>9438.768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.142858205716412</v>
+        <v>0.302858205716412</v>
       </c>
       <c r="G13" t="n">
-        <v>52.3386795052</v>
+        <v>60.4292206628365</v>
       </c>
       <c r="H13" t="n">
         <v>74.3296666666667</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.09070650351727</v>
+        <v>2.21777164349112</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>45569.4864583333</v>
@@ -2713,10 +2713,10 @@
         <v>10445.418</v>
       </c>
       <c r="F14" t="n">
-        <v>0.267561157919519</v>
+        <v>0.427561157919519</v>
       </c>
       <c r="G14" t="n">
-        <v>123.227178173077</v>
+        <v>165.109340803574</v>
       </c>
       <c r="H14" t="n">
         <v>75.3264583333333</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.175260244879322</v>
+        <v>1.5745170474306</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45684.6167824074</v>
@@ -2803,10 +2803,10 @@
         <v>1244.816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106130731104437</v>
+        <v>0.306130731104437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667943541818182</v>
+        <v>37.5419690591882</v>
       </c>
       <c r="H2" t="n">
         <v>49.5106666666667</v>
@@ -2825,8 +2825,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>1.14348697820814</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45590.4924768519</v>
@@ -2841,10 +2841,10 @@
         <v>12559.68</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0301448591708373</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
+        <v>0.230144859170837</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.9151207142201</v>
       </c>
       <c r="H3" t="n">
         <v>67.9985833333333</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.9033044465218</v>
+        <v>1.20217527191572</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45296.6498842593</v>
@@ -2879,30 +2879,30 @@
         <v>1245.823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0392683187491522</v>
+        <v>0.239311089488986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0124938288823529</v>
+        <v>15.9285143794493</v>
       </c>
       <c r="H4" t="n">
-        <v>51.9500869565217</v>
+        <v>52.0356923076923</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.328975995391074</v>
+        <v>-0.329406983852389</v>
       </c>
       <c r="J4" t="n">
-        <v>0.453880991435802</v>
+        <v>0.453691558065658</v>
       </c>
       <c r="K4" t="n">
-        <v>0.328975995391074</v>
+        <v>0.329406983852389</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.343058005156257</v>
+        <v>-0.343239301667664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.401820914631298</v>
+        <v>1.50592712199711</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45502.5104166667</v>
@@ -2917,10 +2917,10 @@
         <v>20938.13</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0923400884564007</v>
+        <v>0.292340088456401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.396441476884615</v>
+        <v>32.0573133263499</v>
       </c>
       <c r="H5" t="n">
         <v>76.43375</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.07246895077545</v>
+        <v>2.55672201752755</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45279.5347222222</v>
@@ -2955,10 +2955,10 @@
         <v>7747.794</v>
       </c>
       <c r="F6" t="n">
-        <v>0.386132065900496</v>
+        <v>0.586132065900496</v>
       </c>
       <c r="G6" t="n">
-        <v>118.1595833125</v>
+        <v>360.347918306638</v>
       </c>
       <c r="H6" t="n">
         <v>57.4105416666667</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.38306365666048</v>
+        <v>1.45642883673255</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45296.5511574074</v>
@@ -3045,10 +3045,10 @@
         <v>8812.951</v>
       </c>
       <c r="F2" t="n">
-        <v>0.242294433819637</v>
+        <v>0.232294433819637</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1581490626923</v>
+        <v>28.6041361633983</v>
       </c>
       <c r="H2" t="n">
         <v>57.088375</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.24814091763677</v>
+        <v>1.31349058741088</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45590.450462963</v>
@@ -3111,10 +3111,10 @@
         <v>2233.951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.218316630467253</v>
+        <v>0.208316630467253</v>
       </c>
       <c r="G4" t="n">
-        <v>17.7068340734783</v>
+        <v>20.5821428178899</v>
       </c>
       <c r="H4" t="n">
         <v>69.407</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.589782661626447</v>
+        <v>0.707585238222963</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45231.5222222222</v>
@@ -3152,7 +3152,7 @@
         <v>0.13055244711888</v>
       </c>
       <c r="G5" t="n">
-        <v>3.88850499911538</v>
+        <v>5.10017688037249</v>
       </c>
       <c r="H5" t="n">
         <v>68.842375</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.79712766409306</v>
+        <v>2.92509806832612</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45279.41875</v>
@@ -3187,10 +3187,10 @@
         <v>9377.646</v>
       </c>
       <c r="F6" t="n">
-        <v>0.731386801864513</v>
+        <v>0.721386801864513</v>
       </c>
       <c r="G6" t="n">
-        <v>626.798089554167</v>
+        <v>841.585159095514</v>
       </c>
       <c r="H6" t="n">
         <v>60.1737083333333</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.48911725947711</v>
+        <v>1.56817007440905</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45569.4483796296</v>
@@ -3225,10 +3225,10 @@
         <v>1077.366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.263452518093847</v>
+        <v>0.253452518093848</v>
       </c>
       <c r="G7" t="n">
-        <v>30.8402052315385</v>
+        <v>36.9973036851178</v>
       </c>
       <c r="H7" t="n">
         <v>76.0062916666667</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.13134059950346</v>
+        <v>0.842792732170534</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45660.5559027778</v>
@@ -3318,7 +3318,7 @@
         <v>0.0500958747372041</v>
       </c>
       <c r="G2" t="n">
-        <v>13.5313335464286</v>
+        <v>6.96294127165405</v>
       </c>
       <c r="H2" t="n">
         <v>50.861625</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.27787649290113</v>
+        <v>2.25216050196985</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45296.6913194444</v>
@@ -3356,7 +3356,7 @@
         <v>0.304619300450722</v>
       </c>
       <c r="G3" t="n">
-        <v>189.616660204167</v>
+        <v>178.714792808598</v>
       </c>
       <c r="H3" t="n">
         <v>52.2674583333333</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0158107753978</v>
+        <v>1.92980040398721</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45684.6496527778</v>
@@ -3394,7 +3394,7 @@
         <v>0.201714359792356</v>
       </c>
       <c r="G4" t="n">
-        <v>103.707645719091</v>
+        <v>85.0746956266847</v>
       </c>
       <c r="H4" t="n">
         <v>49.803125</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.97476751057974</v>
+        <v>1.87941370477432</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45590.5368055556</v>
@@ -3432,7 +3432,7 @@
         <v>0.189070453385662</v>
       </c>
       <c r="G5" t="n">
-        <v>94.3555630565385</v>
+        <v>75.7554190301133</v>
       </c>
       <c r="H5" t="n">
         <v>67.770875</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.78483006308283</v>
+        <v>1.64584113116905</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>45597.5128472222</v>
@@ -3470,7 +3470,7 @@
         <v>0.140225032268246</v>
       </c>
       <c r="G6" t="n">
-        <v>60.92984356375</v>
+        <v>44.2426499161025</v>
       </c>
       <c r="H6" t="n">
         <v>68.7422083333333</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.40231259910038</v>
+        <v>1.17556155335257</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>45618.5591435185</v>
@@ -3508,7 +3508,7 @@
         <v>0.0767954910734997</v>
       </c>
       <c r="G7" t="n">
-        <v>25.2529779253846</v>
+        <v>14.9817157660029</v>
       </c>
       <c r="H7" t="n">
         <v>56.827625</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.52348603914882</v>
+        <v>1.32444028946651</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>45266.6384259259</v>
@@ -3546,7 +3546,7 @@
         <v>0.0929485828202428</v>
       </c>
       <c r="G8" t="n">
-        <v>33.379977465</v>
+        <v>21.1076696949517</v>
       </c>
       <c r="H8" t="n">
         <v>57.605125</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.19332484214905</v>
+        <v>0.919030670395144</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45639.5956018518</v>
@@ -3582,7 +3582,7 @@
         <v>0.0552282276592525</v>
       </c>
       <c r="G9" t="n">
-        <v>15.6071944811538</v>
+        <v>8.29909374636437</v>
       </c>
       <c r="H9" t="n">
         <v>51.5931666666667</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.18247656018373</v>
+        <v>2.13488362839468</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>45331.5136574074</v>
@@ -3612,7 +3612,7 @@
         <v>0.262140092531933</v>
       </c>
       <c r="G10" t="n">
-        <v>152.221697330769</v>
+        <v>136.421753798426</v>
       </c>
       <c r="H10" t="n">
         <v>55.680375</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.82672653669478</v>
+        <v>1.69767864163046</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>45502.6175925926</v>
@@ -3650,7 +3650,7 @@
         <v>0.149697122890749</v>
       </c>
       <c r="G11" t="n">
-        <v>67.10062057</v>
+        <v>49.8515471937749</v>
       </c>
       <c r="H11" t="n">
         <v>77.6787083333333</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.99011538980078</v>
+        <v>1.89831499783625</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>45569.5574074074</v>
@@ -3688,7 +3688,7 @@
         <v>0.193682525546869</v>
       </c>
       <c r="G12" t="n">
-        <v>97.7496902334615</v>
+        <v>79.125232260735</v>
       </c>
       <c r="H12" t="n">
         <v>76.7826666666667</v>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -792,7 +792,7 @@
         <v>638.458466666667</v>
       </c>
       <c r="E2" t="n">
-        <v>3992.646</v>
+        <v>8509.227</v>
       </c>
       <c r="F2" t="n">
         <v>0.195852248068133</v>
@@ -804,16 +804,16 @@
         <v>53.7677083333333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0470281004199628</v>
+        <v>-0.0191543497943117</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0626672954135077</v>
+        <v>0.0255241288994157</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0470281004199628</v>
+        <v>0.0191543497943117</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.20295904811693</v>
+        <v>-1.59304907081334</v>
       </c>
     </row>
     <row r="3">
@@ -833,25 +833,25 @@
         <v>1052.144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.277576481764534</v>
+        <v>0.274027142180158</v>
       </c>
       <c r="G3" t="n">
         <v>82.9004011751482</v>
       </c>
       <c r="H3" t="n">
-        <v>51.2003333333333</v>
+        <v>52.302625</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.371734272889384</v>
+        <v>-0.377725427512456</v>
       </c>
       <c r="J3" t="n">
-        <v>0.520198524602315</v>
+        <v>0.517554434954518</v>
       </c>
       <c r="K3" t="n">
-        <v>0.371734272889384</v>
+        <v>0.377725427512456</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.283830883893283</v>
+        <v>-0.286043965567491</v>
       </c>
     </row>
     <row r="4">
@@ -982,7 +982,7 @@
         <v>743.7952</v>
       </c>
       <c r="E7" t="n">
-        <v>3992.646</v>
+        <v>8757.557</v>
       </c>
       <c r="F7" t="n">
         <v>0.508260069853473</v>
@@ -994,16 +994,16 @@
         <v>57.950125</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.541345524111269</v>
+        <v>-0.141260996271992</v>
       </c>
       <c r="J7" t="n">
-        <v>0.666557303146162</v>
+        <v>0.173934288769413</v>
       </c>
       <c r="K7" t="n">
-        <v>0.541345524111269</v>
+        <v>0.141260996271992</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.176162508860153</v>
+        <v>-0.759614794331786</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>801.7695</v>
       </c>
       <c r="E8" t="n">
-        <v>4010.916</v>
+        <v>4026.08</v>
       </c>
       <c r="F8" t="n">
         <v>0.292017862477283</v>
@@ -1032,16 +1032,16 @@
         <v>76.3831666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39006128539709</v>
+        <v>1.40185787623314</v>
       </c>
       <c r="J8" t="n">
-        <v>1.24132745720325</v>
+        <v>1.2518618359821</v>
       </c>
       <c r="K8" t="n">
-        <v>1.39006128539709</v>
+        <v>1.40185787623314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.093886361754324</v>
+        <v>0.0975563998155705</v>
       </c>
     </row>
     <row r="9">
@@ -1189,25 +1189,25 @@
         <v>5860.433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.524586113304458</v>
+        <v>0.514403686709471</v>
       </c>
       <c r="G3" t="n">
         <v>123.942374733896</v>
       </c>
       <c r="H3" t="n">
-        <v>51.4724285714286</v>
+        <v>52.1867083333333</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0147276608619273</v>
+        <v>-0.0148789334135516</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0205028926262647</v>
+        <v>0.0204362129975192</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0147276608619273</v>
+        <v>0.0148789334135516</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.68818486270022</v>
+        <v>-1.6895995795088</v>
       </c>
     </row>
     <row r="4">
@@ -1504,28 +1504,28 @@
         <v>560.080524</v>
       </c>
       <c r="E3" t="n">
-        <v>3223.928</v>
+        <v>3799.521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.221457401795922</v>
+        <v>0.216853459021603</v>
       </c>
       <c r="G3" t="n">
         <v>139.818789841654</v>
       </c>
       <c r="H3" t="n">
-        <v>53.0998181818182</v>
+        <v>53.521625</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.16229705182373</v>
+        <v>-0.1288164418135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.21903335975322</v>
+        <v>0.17242135645319</v>
       </c>
       <c r="K3" t="n">
-        <v>0.16229705182373</v>
+        <v>0.1288164418135</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.65948973514438</v>
+        <v>-0.76340894259866</v>
       </c>
     </row>
     <row r="4">
@@ -2053,25 +2053,25 @@
         <v>4929.498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.523142070899526</v>
+        <v>0.519697920654582</v>
       </c>
       <c r="G3" t="n">
         <v>23.057974912815</v>
       </c>
       <c r="H3" t="n">
-        <v>52.7025454545455</v>
+        <v>53.17225</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.196505893268312</v>
+        <v>-0.197842978098901</v>
       </c>
       <c r="J3" t="n">
-        <v>0.26721608984759</v>
+        <v>0.266638686605334</v>
       </c>
       <c r="K3" t="n">
-        <v>0.196505893268312</v>
+        <v>0.197842978098901</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.573137395292139</v>
+        <v>-0.574076838566927</v>
       </c>
     </row>
     <row r="4">
@@ -2254,7 +2254,7 @@
         <v>350.63274</v>
       </c>
       <c r="E2" t="n">
-        <v>7013.68</v>
+        <v>12349.884</v>
       </c>
       <c r="F2" t="n">
         <v>0.128743864480736</v>
@@ -2266,16 +2266,16 @@
         <v>60.6108333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0457362341132933</v>
+        <v>-0.0248130778879441</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0536290117969964</v>
+        <v>0.0290951118423101</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0457362341132933</v>
+        <v>0.0248130778879441</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.2706002055554</v>
+        <v>-1.53617996902892</v>
       </c>
     </row>
     <row r="3">
@@ -2333,25 +2333,25 @@
         <v>7013.68</v>
       </c>
       <c r="F4" t="n">
-        <v>0.399089827931722</v>
+        <v>0.391295963011507</v>
       </c>
       <c r="G4" t="n">
         <v>134.461029345514</v>
       </c>
       <c r="H4" t="n">
-        <v>52.6218666666667</v>
+        <v>53.2519166666667</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0142344689232062</v>
+        <v>-0.0143649998659057</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0193832495193451</v>
+        <v>0.0193268918419151</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0142344689232062</v>
+        <v>0.0143649998659057</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.71257341355879</v>
+        <v>-1.71383798375942</v>
       </c>
     </row>
     <row r="5">
@@ -2803,7 +2803,7 @@
         <v>1244.816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.306130731104437</v>
+        <v>0.303866762065075</v>
       </c>
       <c r="G2" t="n">
         <v>37.5419690591882</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.20217527191572</v>
+        <v>1.2025711866528</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45296.6498842593</v>
@@ -2879,25 +2879,25 @@
         <v>1245.823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.239311089488986</v>
+        <v>0.23937442308451</v>
       </c>
       <c r="G4" t="n">
-        <v>15.9285143794493</v>
+        <v>15.943041869971</v>
       </c>
       <c r="H4" t="n">
-        <v>52.0356923076923</v>
+        <v>52.15875</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.329406983852389</v>
+        <v>-0.330011044031721</v>
       </c>
       <c r="J4" t="n">
-        <v>0.453691558065658</v>
+        <v>0.453426571314305</v>
       </c>
       <c r="K4" t="n">
-        <v>0.329406983852389</v>
+        <v>0.330011044031721</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.343239301667664</v>
+        <v>-0.343493033311727</v>
       </c>
     </row>
     <row r="5">
@@ -2914,7 +2914,7 @@
         <v>718.57919</v>
       </c>
       <c r="E5" t="n">
-        <v>20938.13</v>
+        <v>1573.128</v>
       </c>
       <c r="F5" t="n">
         <v>0.292340088456401</v>
@@ -2926,16 +2926,16 @@
         <v>76.43375</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0136009599337228</v>
+        <v>-0.493194293879235</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0121349939981598</v>
+        <v>0.440035837567019</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0136009599337228</v>
+        <v>0.493194293879235</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.91596043412947</v>
+        <v>-0.356511952096092</v>
       </c>
     </row>
     <row r="6">
@@ -3067,7 +3067,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="n">
+        <v>1.92653479913752</v>
+      </c>
       <c r="B3" s="1" t="n">
         <v>45684.5515046296</v>
       </c>
@@ -3077,21 +3079,29 @@
       <c r="D3" t="n">
         <v>395.991756</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L3" t="e">
-        <v>#NUM!</v>
+      <c r="E3" t="n">
+        <v>7475.905</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.327860796281033</v>
+      </c>
+      <c r="G3" t="n">
+        <v>84.4373897169224</v>
+      </c>
+      <c r="H3" t="n">
+        <v>52.7094583333333</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.552638322840444</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.751239608585646</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.552638322840444</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.124221522263913</v>
       </c>
     </row>
     <row r="4">
@@ -3312,7 +3322,7 @@
         <v>335.25396</v>
       </c>
       <c r="E2" t="n">
-        <v>3393.52</v>
+        <v>3903.276</v>
       </c>
       <c r="F2" t="n">
         <v>0.0500958747372041</v>
@@ -3324,16 +3334,16 @@
         <v>50.861625</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0312310541765366</v>
+        <v>-0.0265712094335327</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0439929220295616</v>
+        <v>0.037428936539669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0312310541765366</v>
+        <v>0.0265712094335327</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.35661719103134</v>
+        <v>-1.42679251222607</v>
       </c>
     </row>
     <row r="3">
@@ -3391,25 +3401,25 @@
         <v>3393.52</v>
       </c>
       <c r="F4" t="n">
-        <v>0.201714359792356</v>
+        <v>0.196666010534818</v>
       </c>
       <c r="G4" t="n">
         <v>85.0746956266847</v>
       </c>
       <c r="H4" t="n">
-        <v>49.803125</v>
+        <v>50.6177916666667</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.143943216564841</v>
+        <v>-0.145662173571032</v>
       </c>
       <c r="J4" t="n">
-        <v>0.206960941684582</v>
+        <v>0.206182707231445</v>
       </c>
       <c r="K4" t="n">
-        <v>0.143943216564841</v>
+        <v>0.145662173571032</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.68411160822132</v>
+        <v>-0.685747762277013</v>
       </c>
     </row>
     <row r="5">

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99AF68-8821-4DA9-B52E-7BDF8C471A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7E0D8-E83F-4C06-BD7B-EB544A9C0737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4185" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="21">
   <si>
     <t>logQ</t>
   </si>
@@ -300,7 +300,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A3CD-42E8-B7CE-F67DB0069D48}"/>
+              <c16:uniqueId val="{00000000-3854-48B2-B797-36EB32A6A982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -312,11 +312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="756352607"/>
-        <c:axId val="756353087"/>
+        <c:axId val="733407392"/>
+        <c:axId val="901452448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="756352607"/>
+        <c:axId val="733407392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,12 +373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="756353087"/>
+        <c:crossAx val="901452448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="756353087"/>
+        <c:axId val="901452448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="756352607"/>
+        <c:crossAx val="733407392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -579,10 +579,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$F$2:$F$9</c:f>
+              <c:f>'15'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.19585224806813301</c:v>
                 </c:pt>
@@ -590,18 +590,24 @@
                   <c:v>0.274027142180158</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.212860009356382</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.21609790544256399</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.14324969531057899</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.0274044883753906E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.50826006985347305</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.29201786247728301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.22996315545078599</c:v>
                 </c:pt>
               </c:numCache>
@@ -609,10 +615,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$J$2:$J$9</c:f>
+              <c:f>'15'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5524128899415702E-2</c:v>
                 </c:pt>
@@ -620,21 +626,21 @@
                   <c:v>0.51755443495451803</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.4262595976377201E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.33304642862635703</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.90949515581084905</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.44035281996381798</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.173934288769413</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.2518618359821001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.44145804581688</c:v>
                 </c:pt>
               </c:numCache>
@@ -643,7 +649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3CC-47B5-904E-0EE212EACCFE}"/>
+              <c16:uniqueId val="{00000000-273F-4FCE-AB27-73646ABB836A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -655,11 +661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="592303599"/>
-        <c:axId val="765601967"/>
+        <c:axId val="901463488"/>
+        <c:axId val="901449088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="592303599"/>
+        <c:axId val="901463488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,12 +722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765601967"/>
+        <c:crossAx val="901449088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765601967"/>
+        <c:axId val="901449088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592303599"/>
+        <c:crossAx val="901463488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -935,8 +941,14 @@
                 <c:pt idx="2">
                   <c:v>0.363585946262801</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32324005414038398</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.11668969198078299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87871579907905895</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.39510332832113498</c:v>
@@ -977,7 +989,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C28B-475A-8CE0-982B03E949FC}"/>
+              <c16:uniqueId val="{00000000-CEFE-41F0-B92C-E49084EEE226}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -989,11 +1001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="592405583"/>
-        <c:axId val="592404623"/>
+        <c:axId val="901448128"/>
+        <c:axId val="901465888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="592405583"/>
+        <c:axId val="901448128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,12 +1062,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592404623"/>
+        <c:crossAx val="901465888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="592404623"/>
+        <c:axId val="901465888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592405583"/>
+        <c:crossAx val="901448128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1256,10 +1268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$F$2:$F$12</c:f>
+              <c:f>'5'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5.9249035421147699E-2</c:v>
                 </c:pt>
@@ -1267,30 +1279,39 @@
                   <c:v>0.216853459021603</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.11608970854305301</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.8657298433478003E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.31670942796431001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.6975516888096697E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.2176871323439502E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.285012367816944</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.4511311120524399E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.20071662604863699</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3.9109156854677397E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.75658739105356998</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.47694777291652501</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.13001805807807401</c:v>
                 </c:pt>
               </c:numCache>
@@ -1298,35 +1319,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$J$2:$J$12</c:f>
+              <c:f>'5'!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.84133921279000901</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
                   <c:v>0.17242135645319001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.09288241918769E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.9854762303598699E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.05761348096275E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.6304595414703E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63468059732398197</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>3.7932408519058297E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6934508597743303E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2.3454575425552002E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>5.2086852237835102E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1335,7 +1356,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA7B-444D-95CA-94C6B6F27407}"/>
+              <c16:uniqueId val="{00000000-BD04-411E-BB08-5AFDA4CB2377}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1347,11 +1368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="766506159"/>
-        <c:axId val="766503759"/>
+        <c:axId val="901467328"/>
+        <c:axId val="901466848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="766506159"/>
+        <c:axId val="901467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,12 +1429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766503759"/>
+        <c:crossAx val="901466848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="766503759"/>
+        <c:axId val="901466848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766506159"/>
+        <c:crossAx val="901467328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1642,14 +1663,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.95461493180833E-2</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.26663868660533402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.64070198635915099</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.27094099773852E-2</c:v>
@@ -1663,7 +1678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BB2-4B87-801C-2B9F9B8B5770}"/>
+              <c16:uniqueId val="{00000000-3408-4D29-A561-2E30F6C30F37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1675,11 +1690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="765198207"/>
-        <c:axId val="765199167"/>
+        <c:axId val="901483168"/>
+        <c:axId val="901475488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765198207"/>
+        <c:axId val="901483168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,12 +1751,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765199167"/>
+        <c:crossAx val="901475488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765199167"/>
+        <c:axId val="901475488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765198207"/>
+        <c:crossAx val="901483168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1942,58 +1957,58 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$G$2:$G$14</c:f>
+              <c:f>'6'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0141113348335997</c:v>
+                  <c:v>0.12874386448073599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.93417675073701</c:v>
+                  <c:v>0.44772677954446899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.46102934551399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53953030067585805</c:v>
+                  <c:v>0.39129596301150699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4821242321530796</c:v>
+                  <c:v>5.9138536458891403E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.04415257551901</c:v>
+                  <c:v>0.146682711547242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.692552936783898</c:v>
+                  <c:v>0.37002135752523302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.2013972009324</c:v>
+                  <c:v>0.30001852958251402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.539624448278001</c:v>
+                  <c:v>0.18724196474367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5786622463844298</c:v>
+                  <c:v>0.234268725880109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.654753749752999</c:v>
+                  <c:v>0.14840614156752799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.429220662836499</c:v>
+                  <c:v>0.34695286733230901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165.10934080357401</c:v>
+                  <c:v>0.30285820571641198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42756115791951899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$J$2:$J$14</c:f>
+              <c:f>'6'!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2.90951118423101E-2</c:v>
                 </c:pt>
@@ -2003,25 +2018,34 @@
                 <c:pt idx="2">
                   <c:v>1.9326891841915099E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.19519645480923E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.7280533772406299</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.19759869761570001</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4751540809886499</c:v>
+                </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.7763528639902799</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.0333831699921499E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.58086027463756795</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>9.9277292154952998E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.215449086397794</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>3.20015690036934E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2030,7 +2054,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6916-443A-903C-A4F255C3F9A3}"/>
+              <c16:uniqueId val="{00000000-B241-4D77-A3E0-0C8DDEA56C1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2042,11 +2066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1033145167"/>
-        <c:axId val="1033145647"/>
+        <c:axId val="901490368"/>
+        <c:axId val="901481248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1033145167"/>
+        <c:axId val="901490368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,12 +2127,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033145647"/>
+        <c:crossAx val="901481248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1033145647"/>
+        <c:axId val="901481248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033145167"/>
+        <c:crossAx val="901490368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2358,7 +2382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8AAA-4D77-98A2-DEA8542C1FF4}"/>
+              <c16:uniqueId val="{00000000-CEC4-496A-8576-7DE00B5B8307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2370,11 +2394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1034574111"/>
-        <c:axId val="1034574591"/>
+        <c:axId val="901492288"/>
+        <c:axId val="901479328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1034574111"/>
+        <c:axId val="901492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,12 +2455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034574591"/>
+        <c:crossAx val="901479328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1034574591"/>
+        <c:axId val="901479328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034574111"/>
+        <c:crossAx val="901492288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,10 +2661,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$F$2:$F$7</c:f>
+              <c:f>'7'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.23229443381963699</c:v>
                 </c:pt>
@@ -2648,15 +2672,18 @@
                   <c:v>0.32786079628103298</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.201730648915843</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.20831663046725299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.13055244711888001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.72138680186451298</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.253452518093848</c:v>
                 </c:pt>
               </c:numCache>
@@ -2664,10 +2691,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$J$2:$J$7</c:f>
+              <c:f>'7'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.2110586942343202E-2</c:v>
                 </c:pt>
@@ -2675,15 +2702,15 @@
                   <c:v>0.75123960858564598</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.0275221237242905E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.1376184809108202E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.02631658657456E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.11178428187733E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22266258013392901</c:v>
                 </c:pt>
               </c:numCache>
@@ -2692,7 +2719,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8725-44E1-871F-73252B9C5523}"/>
+              <c16:uniqueId val="{00000000-80AE-4BE7-BC7C-DE3428F69D90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2704,11 +2731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="766465071"/>
-        <c:axId val="766463631"/>
+        <c:axId val="901487488"/>
+        <c:axId val="901487968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="766465071"/>
+        <c:axId val="901487488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,12 +2792,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766463631"/>
+        <c:crossAx val="901487968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="766463631"/>
+        <c:axId val="901487968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766465071"/>
+        <c:crossAx val="901487488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2971,10 +2998,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$F$2:$F$12</c:f>
+              <c:f>'9'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.0095874737204102E-2</c:v>
                 </c:pt>
@@ -2984,28 +3011,28 @@
                 <c:pt idx="2">
                   <c:v>0.196666010534818</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.189070453385662</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.14022503226824601</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.67954910734997E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9.2948582820242806E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.5228227659252498E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.26214009253193299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.14969712289074899</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.19368252554686899</c:v>
                 </c:pt>
               </c:numCache>
@@ -3013,10 +3040,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$J$2:$J$12</c:f>
+              <c:f>'9'!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.7428936539669E-2</c:v>
                 </c:pt>
@@ -3027,18 +3054,21 @@
                   <c:v>0.20618270723144499</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.8288066770139E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.5498747068957698E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8.3953767192955307E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.100544975455905</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.5267627188960799E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3047,7 +3077,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5A6-4DEB-9A36-27BD8D6C3EF0}"/>
+              <c16:uniqueId val="{00000000-DBF4-49AC-A928-81B7B2021DD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3059,11 +3089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1034579391"/>
-        <c:axId val="1034572191"/>
+        <c:axId val="901491328"/>
+        <c:axId val="901478368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1034579391"/>
+        <c:axId val="901491328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3120,12 +3150,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034572191"/>
+        <c:crossAx val="901478368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1034572191"/>
+        <c:axId val="901478368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,7 +3212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034579391"/>
+        <c:crossAx val="901491328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8246,23 +8276,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EA94A9-DB78-EE6E-78D3-3C4D0F2A85FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91915E63-EF8F-FF77-EADC-F85FA17A9BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8300,10 +8330,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8762853A-4E6D-7839-3D2B-9F19300AF07B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35FCD86-B4BE-D2A8-C832-344D1ACA502F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8329,13 +8359,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
@@ -8344,7 +8374,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF92887-C71F-059A-C3BF-F48AF8BDCAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB49100-A701-C02E-AB54-A85EA19E085B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8370,22 +8400,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1EB367-DBCB-950A-A439-28ABFBA1C844}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1C1A9A-EEF5-BB4D-A5B0-6B9A6F38DFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8411,13 +8441,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
@@ -8426,7 +8456,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1C2B3C-6BBA-2BC4-E0A6-D71FE67DB986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DB8110-059B-0A2B-66C4-F73691F64F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,22 +8482,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD32CAE7-3429-C215-8A8F-0AC7D75EB4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1598824C-9F52-9004-5E3B-AC4023D9F35A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8508,7 +8538,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7684E4-0115-06BB-47D9-BA8638D6E606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB96D6D7-1495-C3A6-2B8F-ABFF9384E288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8534,13 +8564,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
@@ -8549,7 +8579,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D140D1-B5C5-841D-0509-7E1D9D6C61C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6587260-72E9-E6B7-4154-211E64D65ED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8575,22 +8605,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7833D833-C110-213C-B1BB-81C01DD7D4F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B326C9F3-8A1F-E9F0-A7BF-15CE11699493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8893,15 +8923,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +8969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>-9.4602287968859097E-2</v>
       </c>
@@ -8977,7 +9007,7 @@
         <v>-2.1689593362525699</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>0.94412255542288104</v>
       </c>
@@ -9015,7 +9045,7 @@
         <v>-1.47103249403429</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>0.59219990094441599</v>
       </c>
@@ -9053,7 +9083,7 @@
         <v>-0.62403865282487503</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.4070280222368301</v>
       </c>
@@ -9088,7 +9118,7 @@
         <v>0.81987416990127404</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.77272923925196801</v>
       </c>
@@ -9126,7 +9156,7 @@
         <v>-1.6056416566720999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>1.0661612972879999</v>
       </c>
@@ -9164,7 +9194,7 @@
         <v>-1.62258218314034</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2.2314090687618999</v>
       </c>
@@ -9211,18 +9241,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9260,7 +9290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.38566869103697</v>
       </c>
@@ -9298,7 +9328,7 @@
         <v>-1.59304907081334</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.91855663221169</v>
       </c>
@@ -9336,228 +9366,266 @@
         <v>-0.28604396556749101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.5367296105642001</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B4" s="1">
-        <v>45484.508796296301</v>
+        <v>45742.4440972222</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>792.39509999999996</v>
+        <v>395.79908</v>
       </c>
       <c r="E4">
-        <v>8306.5229999999992</v>
+        <v>3992.6460000000002</v>
       </c>
       <c r="F4">
-        <v>0.21609790544256399</v>
-      </c>
-      <c r="G4">
-        <v>34.413560705227098</v>
+        <v>0.212860009356382</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H4">
-        <v>76.441249999999997</v>
+        <v>63.360818181818203</v>
       </c>
       <c r="I4">
-        <v>-0.37328004715152302</v>
+        <v>-1.2786232952872E-2</v>
       </c>
       <c r="J4">
-        <v>0.33304642862635703</v>
+        <v>1.4262595976377201E-2</v>
       </c>
       <c r="K4">
-        <v>0.37328004715152302</v>
+        <v>1.2786232952872E-2</v>
       </c>
       <c r="L4">
-        <v>-0.47749521907417602</v>
+        <v>-1.84580142009374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
-        <v>0.90988836207992196</v>
+        <v>1.5367296105642001</v>
       </c>
       <c r="B5" s="1">
-        <v>45590.410069444399</v>
+        <v>45484.508796296301</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>546.66366000000005</v>
+        <v>792.39509999999996</v>
       </c>
       <c r="E5">
-        <v>1413.367</v>
+        <v>8306.5229999999992</v>
       </c>
       <c r="F5">
-        <v>0.14324969531057899</v>
+        <v>0.21609790544256399</v>
       </c>
       <c r="G5">
-        <v>8.1262160020957896</v>
+        <v>34.413560705227098</v>
       </c>
       <c r="H5">
-        <v>69.349500000000006</v>
+        <v>76.441249999999997</v>
       </c>
       <c r="I5">
-        <v>0.90568158280436795</v>
+        <v>-0.37328004715152302</v>
       </c>
       <c r="J5">
-        <v>0.90949515581084905</v>
+        <v>0.33304642862635703</v>
       </c>
       <c r="K5">
-        <v>0.90568158280436795</v>
+        <v>0.37328004715152302</v>
       </c>
       <c r="L5">
-        <v>-4.1199609750822097E-2</v>
+        <v>-0.47749521907417602</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
-        <v>2.3406710570227699E-2</v>
+        <v>0.90988836207992196</v>
       </c>
       <c r="B6" s="1">
-        <v>45639.483333333301</v>
+        <v>45590.410069444399</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>660.91974000000005</v>
+        <v>546.66366000000005</v>
       </c>
       <c r="E6">
-        <v>4022.2620000000002</v>
+        <v>1413.367</v>
       </c>
       <c r="F6">
-        <v>8.0274044883753906E-2</v>
+        <v>0.14324969531057899</v>
       </c>
       <c r="G6">
-        <v>1.05537477713385</v>
+        <v>8.1262160020957896</v>
       </c>
       <c r="H6">
-        <v>55.5208333333333</v>
+        <v>69.349500000000006</v>
       </c>
       <c r="I6">
-        <v>-0.34169991599597399</v>
+        <v>0.90568158280436795</v>
       </c>
       <c r="J6">
-        <v>0.44035281996381798</v>
+        <v>0.90949515581084905</v>
       </c>
       <c r="K6">
-        <v>0.34169991599597399</v>
+        <v>0.90568158280436795</v>
       </c>
       <c r="L6">
-        <v>-0.35619921814487299</v>
+        <v>-4.1199609750822097E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
-        <v>2.8438024043583199</v>
+        <v>2.3406710570227699E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>45279.458796296298</v>
+        <v>45639.483333333301</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>743.79520000000002</v>
+        <v>660.91974000000005</v>
       </c>
       <c r="E7">
-        <v>8757.5570000000007</v>
+        <v>4022.2620000000002</v>
+      </c>
+      <c r="F7">
+        <v>8.0274044883753906E-2</v>
       </c>
       <c r="G7">
-        <v>697.91479401277002</v>
+        <v>1.05537477713385</v>
       </c>
       <c r="H7">
-        <v>57.950125</v>
+        <v>55.5208333333333</v>
       </c>
       <c r="I7">
-        <v>-0.14126099627199201</v>
+        <v>-0.34169991599597399</v>
       </c>
       <c r="J7">
-        <v>0.173934288769413</v>
+        <v>0.44035281996381798</v>
       </c>
       <c r="K7">
-        <v>0.14126099627199201</v>
+        <v>0.34169991599597399</v>
       </c>
       <c r="L7">
-        <v>-0.75961479433178603</v>
+        <v>-0.35619921814487299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
-        <v>1.99647912105049</v>
+        <v>2.8438024043583199</v>
       </c>
       <c r="B8" s="1">
-        <v>45502.467245370397</v>
+        <v>45279.458796296298</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8">
-        <v>801.76949999999999</v>
+        <v>743.79520000000002</v>
       </c>
       <c r="E8">
-        <v>4026.08</v>
+        <v>8757.5570000000007</v>
       </c>
       <c r="F8">
-        <v>0.29201786247728301</v>
+        <v>0.50826006985347305</v>
       </c>
       <c r="G8">
-        <v>99.192565071371106</v>
+        <v>697.91479401277002</v>
       </c>
       <c r="H8">
-        <v>76.383166666666696</v>
+        <v>57.950125</v>
       </c>
       <c r="I8">
-        <v>1.40185787623314</v>
-      </c>
-      <c r="J8">
-        <v>1.2518618359821001</v>
+        <v>-0.14126099627199201</v>
       </c>
       <c r="K8">
-        <v>1.40185787623314</v>
+        <v>0.14126099627199201</v>
       </c>
       <c r="L8">
-        <v>9.7556399815570502E-2</v>
+        <v>-0.75961479433178603</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
-        <v>1.6313244136241201</v>
+        <v>1.99647912105049</v>
       </c>
       <c r="B9" s="1">
-        <v>45569.420833333301</v>
+        <v>45502.467245370397</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9">
+        <v>801.76949999999999</v>
+      </c>
+      <c r="E9">
+        <v>4026.08</v>
+      </c>
+      <c r="F9">
+        <v>0.29201786247728301</v>
+      </c>
+      <c r="G9">
+        <v>99.192565071371106</v>
+      </c>
+      <c r="H9">
+        <v>76.383166666666696</v>
+      </c>
+      <c r="I9">
+        <v>1.40185787623314</v>
+      </c>
+      <c r="J9">
+        <v>1.2518618359821001</v>
+      </c>
+      <c r="K9">
+        <v>1.40185787623314</v>
+      </c>
+      <c r="L9">
+        <v>9.7556399815570502E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>1.6313244136241201</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45569.420833333301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
         <v>693.87467000000004</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>6443.8360000000002</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.22996315545078599</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>42.788239065963701</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>76.3036666666667</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-2.7299788409758401</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>2.44145804581688</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>2.7299788409758401</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.38764926573799202</v>
       </c>
     </row>
@@ -9573,15 +9641,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9619,7 +9687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.8103990009162001</v>
       </c>
@@ -9657,7 +9725,7 @@
         <v>-2.7980675063995002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.0932198129686301</v>
       </c>
@@ -9695,7 +9763,7 @@
         <v>-1.6895995795087999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.6129383420109</v>
       </c>
@@ -9733,7 +9801,7 @@
         <v>-1.50125264668922</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.4589110779254</v>
       </c>
@@ -9749,6 +9817,9 @@
       <c r="E5">
         <v>6744.4539999999997</v>
       </c>
+      <c r="F5">
+        <v>0.32324005414038398</v>
+      </c>
       <c r="G5">
         <v>28.768093258691401</v>
       </c>
@@ -9768,7 +9839,7 @@
         <v>-2.9909835165508998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.13330872482825201</v>
       </c>
@@ -9806,7 +9877,7 @@
         <v>-0.81784269721634195</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2.7704634593489401</v>
       </c>
@@ -9822,6 +9893,9 @@
       <c r="E7">
         <v>8053.1170000000002</v>
       </c>
+      <c r="F7">
+        <v>0.87871579907905895</v>
+      </c>
       <c r="G7">
         <v>589.47237797650905</v>
       </c>
@@ -9841,7 +9915,7 @@
         <v>-0.69885294463562198</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1.7220346442007499</v>
       </c>
@@ -9888,18 +9962,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9937,7 +10011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.5644463224313101</v>
       </c>
@@ -9965,9 +10039,6 @@
       <c r="I2">
         <v>-0.69249876487298101</v>
       </c>
-      <c r="J2">
-        <v>0.84133921279000901</v>
-      </c>
       <c r="K2">
         <v>0.69249876487298101</v>
       </c>
@@ -9975,7 +10046,7 @@
         <v>-7.5028869195106498E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.1455655389075199</v>
       </c>
@@ -10013,339 +10084,447 @@
         <v>-0.76340894259865999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.3763074219128699</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B4" s="1">
-        <v>45442.334837962997</v>
+        <v>45742.371412036999</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>892.51250000000005</v>
+        <v>335.30592000000001</v>
       </c>
       <c r="E4">
-        <v>2142.973</v>
+        <v>2805.3159999999998</v>
       </c>
       <c r="F4">
-        <v>3.8657298433478003E-2</v>
-      </c>
-      <c r="G4">
-        <v>23.785233645707201</v>
+        <v>0.11608970854305301</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H4">
-        <v>72.257625000000004</v>
+        <v>63.179400000000001</v>
       </c>
       <c r="I4">
-        <v>-3.2356668078645297E-2</v>
-      </c>
-      <c r="J4">
-        <v>3.09288241918769E-2</v>
+        <v>-0.53480672124956896</v>
       </c>
       <c r="K4">
-        <v>3.2356668078645297E-2</v>
+        <v>0.53480672124956896</v>
       </c>
       <c r="L4">
-        <v>-1.5096365900739599</v>
+        <v>-0.222943331674155</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
-        <v>2.3032668856264</v>
+        <v>1.3763074219128699</v>
       </c>
       <c r="B5" s="1">
-        <v>45484.417592592603</v>
+        <v>45442.334837962997</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2034.8627879999999</v>
+        <v>892.51250000000005</v>
       </c>
       <c r="E5">
-        <v>6961.3969999999999</v>
+        <v>2142.973</v>
       </c>
       <c r="F5">
-        <v>0.31670942796431001</v>
+        <v>3.8657298433478003E-2</v>
       </c>
       <c r="G5">
-        <v>201.03278335540099</v>
+        <v>23.785233645707201</v>
       </c>
       <c r="H5">
-        <v>76.579041666666697</v>
+        <v>72.257625000000004</v>
       </c>
       <c r="I5">
-        <v>-5.60087554457162E-2</v>
+        <v>-3.2356668078645297E-2</v>
       </c>
       <c r="J5">
-        <v>4.9854762303598699E-2</v>
+        <v>3.09288241918769E-2</v>
       </c>
       <c r="K5">
-        <v>5.60087554457162E-2</v>
+        <v>3.2356668078645297E-2</v>
       </c>
       <c r="L5">
-        <v>-1.30229335002258</v>
+        <v>-1.5096365900739599</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
-        <v>1.5471916791810501</v>
+        <v>2.3032668856264</v>
       </c>
       <c r="B6" s="1">
-        <v>45590.352199074099</v>
+        <v>45484.417592592603</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>551.09719199999995</v>
+        <v>2034.8627879999999</v>
       </c>
       <c r="E6">
-        <v>8635.2430000000004</v>
+        <v>6961.3969999999999</v>
       </c>
       <c r="F6">
-        <v>5.6975516888096697E-2</v>
+        <v>0.31670942796431001</v>
       </c>
       <c r="G6">
-        <v>35.252642693858398</v>
+        <v>201.03278335540099</v>
       </c>
       <c r="H6">
-        <v>69.506833333333304</v>
+        <v>76.579041666666697</v>
       </c>
       <c r="I6">
-        <v>-2.05466990492898E-2</v>
+        <v>-5.60087554457162E-2</v>
       </c>
       <c r="J6">
-        <v>2.05761348096275E-2</v>
+        <v>4.9854762303598699E-2</v>
       </c>
       <c r="K6">
-        <v>2.05466990492898E-2</v>
+        <v>5.60087554457162E-2</v>
       </c>
       <c r="L6">
-        <v>-1.6866362033590201</v>
+        <v>-1.30229335002258</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
-        <v>1.41463921516754</v>
+        <v>1.5471916791810501</v>
       </c>
       <c r="B7" s="1">
-        <v>45597.357986111099</v>
+        <v>45590.352199074099</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>628.45452</v>
+        <v>551.09719199999995</v>
       </c>
       <c r="E7">
-        <v>4564.3429999999998</v>
+        <v>8635.2430000000004</v>
       </c>
       <c r="F7">
-        <v>4.2176871323439502E-2</v>
+        <v>5.6975516888096697E-2</v>
       </c>
       <c r="G7">
-        <v>25.980004093593902</v>
+        <v>35.252642693858398</v>
       </c>
       <c r="H7">
-        <v>69.6570416666667</v>
+        <v>69.506833333333304</v>
       </c>
       <c r="I7">
-        <v>1.6433163391097401</v>
+        <v>-2.05466990492898E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.05761348096275E-2</v>
       </c>
       <c r="K7">
-        <v>1.6433163391097401</v>
+        <v>2.05466990492898E-2</v>
       </c>
       <c r="L7">
-        <v>0.215274774389667</v>
+        <v>-1.6866362033590201</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
-        <v>2.25677183450206</v>
+        <v>1.41463921516754</v>
       </c>
       <c r="B8" s="1">
-        <v>45296.400694444397</v>
+        <v>45597.357986111099</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>426.60744999999997</v>
+        <v>628.45452</v>
       </c>
       <c r="E8">
-        <v>3375.2420000000002</v>
+        <v>4564.3429999999998</v>
       </c>
       <c r="F8">
-        <v>0.285012367816944</v>
+        <v>4.2176871323439502E-2</v>
       </c>
       <c r="G8">
-        <v>180.62249394423401</v>
+        <v>25.980004093593902</v>
       </c>
       <c r="H8">
-        <v>54.871041666666699</v>
+        <v>69.6570416666667</v>
       </c>
       <c r="I8">
-        <v>-4.31584480439927E-2</v>
-      </c>
-      <c r="J8">
-        <v>5.6304595414703E-2</v>
+        <v>1.6433163391097401</v>
       </c>
       <c r="K8">
-        <v>4.31584480439927E-2</v>
+        <v>1.6433163391097401</v>
       </c>
       <c r="L8">
-        <v>-1.24945615786977</v>
+        <v>0.215274774389667</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
-        <v>1.32621116564357</v>
+        <v>2.25677183450206</v>
       </c>
       <c r="B9" s="1">
-        <v>45618.398726851898</v>
+        <v>45296.400694444397</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>3118.5123840000001</v>
+        <v>426.60744999999997</v>
       </c>
       <c r="E9">
-        <v>2542.5239999999999</v>
+        <v>3375.2420000000002</v>
       </c>
       <c r="F9">
-        <v>3.4511311120524399E-2</v>
+        <v>0.285012367816944</v>
       </c>
       <c r="G9">
-        <v>21.1939138978648</v>
+        <v>180.62249394423401</v>
       </c>
       <c r="H9">
-        <v>62.832875000000001</v>
+        <v>54.871041666666699</v>
       </c>
       <c r="I9">
-        <v>0.56366732080101301</v>
+        <v>-4.31584480439927E-2</v>
       </c>
       <c r="J9">
-        <v>0.63468059732398197</v>
+        <v>5.6304595414703E-2</v>
       </c>
       <c r="K9">
-        <v>0.56366732080101301</v>
+        <v>4.31584480439927E-2</v>
       </c>
       <c r="L9">
-        <v>-0.19744477820082099</v>
+        <v>-1.24945615786977</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
-        <v>1.3813339579941699</v>
+        <v>1.32621116564357</v>
       </c>
       <c r="B10" s="1">
-        <v>45635.392824074101</v>
+        <v>45618.398726851898</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>2329.1665200000002</v>
+        <v>3118.5123840000001</v>
       </c>
       <c r="E10">
-        <v>2353.895</v>
+        <v>2542.5239999999999</v>
       </c>
       <c r="F10">
-        <v>3.9109156854677397E-2</v>
+        <v>3.4511311120524399E-2</v>
       </c>
       <c r="G10">
-        <v>24.062123859764501</v>
+        <v>21.1939138978648</v>
       </c>
       <c r="H10">
-        <v>56.872333333333302</v>
+        <v>62.832875000000001</v>
       </c>
       <c r="I10">
-        <v>2.152726136449</v>
+        <v>0.56366732080101301</v>
       </c>
       <c r="K10">
-        <v>2.152726136449</v>
+        <v>0.56366732080101301</v>
       </c>
       <c r="L10">
-        <v>0.43211514822866398</v>
+        <v>-0.19744477820082099</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
-        <v>2.4837232842553898</v>
+        <v>2.1022229180133301</v>
       </c>
       <c r="B11" s="1">
-        <v>45502.410763888904</v>
+        <v>45266.452662037002</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>1722.98714</v>
+        <v>409.7124</v>
       </c>
       <c r="E11">
-        <v>6713.1440000000002</v>
+        <v>4325.9719999999998</v>
       </c>
       <c r="F11">
-        <v>0.47694777291652501</v>
+        <v>0.20071662604863699</v>
       </c>
       <c r="G11">
-        <v>304.59536066895402</v>
+        <v>126.53856877099599</v>
       </c>
       <c r="H11">
-        <v>76.361791666666704</v>
+        <v>62.968666666666699</v>
       </c>
       <c r="I11">
-        <v>-2.6257155135099901E-2</v>
+        <v>-3.3764745220472098E-2</v>
       </c>
       <c r="J11">
-        <v>2.3454575425552002E-2</v>
+        <v>3.7932408519058297E-2</v>
       </c>
       <c r="K11">
-        <v>2.6257155135099901E-2</v>
+        <v>3.3764745220472098E-2</v>
       </c>
       <c r="L11">
-        <v>-1.6297724242392599</v>
+        <v>-1.42098958088467</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
-        <v>1.9108457971817301</v>
+        <v>1.3813339579941699</v>
       </c>
       <c r="B12" s="1">
-        <v>45569.336458333302</v>
+        <v>45635.392824074101</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
+        <v>2329.1665200000002</v>
+      </c>
+      <c r="E12">
+        <v>2353.895</v>
+      </c>
+      <c r="F12">
+        <v>3.9109156854677397E-2</v>
+      </c>
+      <c r="G12">
+        <v>24.062123859764501</v>
+      </c>
+      <c r="H12">
+        <v>56.872333333333302</v>
+      </c>
+      <c r="I12">
+        <v>2.152726136449</v>
+      </c>
+      <c r="K12">
+        <v>2.152726136449</v>
+      </c>
+      <c r="L12">
+        <v>0.43211514822866398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>2.6870902813892399</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45279.417939814797</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>444.28</v>
+      </c>
+      <c r="E13">
+        <v>3363.2</v>
+      </c>
+      <c r="F13">
+        <v>0.75658739105356998</v>
+      </c>
+      <c r="G13">
+        <v>486.50833081461201</v>
+      </c>
+      <c r="H13">
+        <v>59.392708333333303</v>
+      </c>
+      <c r="I13">
+        <v>-5.58319172827028E-2</v>
+      </c>
+      <c r="J13">
+        <v>6.6934508597743303E-2</v>
+      </c>
+      <c r="K13">
+        <v>5.58319172827028E-2</v>
+      </c>
+      <c r="L13">
+        <v>-1.1743499206535499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>2.4837232842553898</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45502.410763888904</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>1722.98714</v>
+      </c>
+      <c r="E14">
+        <v>6713.1440000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.47694777291652501</v>
+      </c>
+      <c r="G14">
+        <v>304.59536066895402</v>
+      </c>
+      <c r="H14">
+        <v>76.361791666666704</v>
+      </c>
+      <c r="I14">
+        <v>-2.6257155135099901E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.3454575425552002E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.6257155135099901E-2</v>
+      </c>
+      <c r="L14">
+        <v>-1.6297724242392599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>1.9108457971817301</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45569.336458333302</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
         <v>520.15418799999998</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>8379.9380000000001</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>0.13001805807807401</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>81.441506230339598</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <v>75.600666666666697</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>-5.7577800276754597E-3</v>
       </c>
-      <c r="J12">
+      <c r="J15">
         <v>5.2086852237835102E-3</v>
       </c>
-      <c r="K12">
+      <c r="K15">
         <v>5.7577800276754597E-3</v>
       </c>
-      <c r="L12">
+      <c r="L15">
         <v>-2.2832718874712299</v>
       </c>
     </row>
@@ -10360,16 +10539,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10407,7 +10586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.3708185978996801</v>
       </c>
@@ -10435,9 +10614,6 @@
       <c r="I2">
         <v>-2.2810224388765399E-2</v>
       </c>
-      <c r="J2">
-        <v>2.95461493180833E-2</v>
-      </c>
       <c r="K2">
         <v>2.2810224388765399E-2</v>
       </c>
@@ -10445,7 +10621,7 @@
         <v>-1.5294991116990899</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.36282116233381</v>
       </c>
@@ -10483,7 +10659,7 @@
         <v>-0.57407683856692704</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.14244247106486</v>
       </c>
@@ -10511,9 +10687,6 @@
       <c r="I4">
         <v>-0.62628271367326904</v>
       </c>
-      <c r="J4">
-        <v>0.64070198635915099</v>
-      </c>
       <c r="K4">
         <v>0.62628271367326904</v>
       </c>
@@ -10521,7 +10694,7 @@
         <v>-0.193343929569118</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.1521339482850199</v>
       </c>
@@ -10559,7 +10732,7 @@
         <v>-1.89587461069805</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>1.25718073142374</v>
       </c>
@@ -10606,18 +10779,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10655,7 +10828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.70019397293433605</v>
       </c>
@@ -10693,7 +10866,7 @@
         <v>-1.53617996902892</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.2740057658618702</v>
       </c>
@@ -10731,7 +10904,7 @@
         <v>-1.4646273244010499</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>2.1285964316053398</v>
       </c>
@@ -10769,374 +10942,403 @@
         <v>-1.71383798375942</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-0.267984159791466</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B5" s="1">
-        <v>45442.515972222202</v>
+        <v>45742.522453703699</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>664.44209999999998</v>
-      </c>
-      <c r="E5">
-        <v>13636.37</v>
-      </c>
-      <c r="F5">
-        <v>5.9138536458891403E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.53953030067585805</v>
-      </c>
-      <c r="H5">
-        <v>69.956999999999994</v>
-      </c>
-      <c r="I5">
-        <v>-1.2026837343753901E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.19519645480923E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.2026837343753901E-2</v>
-      </c>
-      <c r="L5">
-        <v>-1.92256070373071</v>
+        <v>342.608475</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
-        <v>0.87402491488739797</v>
+        <v>-0.267984159791466</v>
       </c>
       <c r="B6" s="1">
-        <v>45484.550925925898</v>
+        <v>45442.515972222202</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6">
-        <v>20118.913499999999</v>
+        <v>664.44209999999998</v>
       </c>
       <c r="E6">
-        <v>9438.768</v>
+        <v>13636.37</v>
       </c>
       <c r="F6">
-        <v>0.146682711547242</v>
+        <v>5.9138536458891403E-2</v>
       </c>
       <c r="G6">
-        <v>7.4821242321530796</v>
+        <v>0.53953030067585805</v>
       </c>
       <c r="H6">
-        <v>73.537000000000006</v>
+        <v>69.956999999999994</v>
       </c>
       <c r="I6">
-        <v>1.8467246153386201</v>
+        <v>-1.2026837343753901E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.19519645480923E-2</v>
       </c>
       <c r="K6">
-        <v>1.8467246153386201</v>
+        <v>1.2026837343753901E-2</v>
       </c>
       <c r="L6">
-        <v>0.23755715312148601</v>
+        <v>-1.92256070373071</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
-        <v>2.0336012675366701</v>
+        <v>0.87402491488739797</v>
       </c>
       <c r="B7" s="1">
-        <v>45590.509490740696</v>
+        <v>45484.550925925898</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>509.79309000000001</v>
+        <v>20118.913499999999</v>
       </c>
       <c r="E7">
-        <v>11548.536</v>
+        <v>9438.768</v>
       </c>
       <c r="F7">
-        <v>0.37002135752523302</v>
+        <v>0.146682711547242</v>
       </c>
       <c r="G7">
-        <v>108.04415257551901</v>
+        <v>7.4821242321530796</v>
       </c>
       <c r="H7">
-        <v>68.863500000000002</v>
+        <v>73.537000000000006</v>
       </c>
       <c r="I7">
-        <v>-0.195137400329535</v>
+        <v>1.8467246153386201</v>
       </c>
       <c r="J7">
-        <v>0.19759869761570001</v>
+        <v>1.7280533772406299</v>
       </c>
       <c r="K7">
-        <v>0.195137400329535</v>
+        <v>1.8467246153386201</v>
       </c>
       <c r="L7">
-        <v>-0.704215922198688</v>
+        <v>0.23755715312148601</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
-        <v>1.76858300033389</v>
+        <v>2.0336012675366701</v>
       </c>
       <c r="B8" s="1">
-        <v>45597.442013888904</v>
+        <v>45590.509490740696</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>709.25940000000003</v>
+        <v>509.79309000000001</v>
       </c>
       <c r="E8">
-        <v>10979.754000000001</v>
+        <v>11548.536</v>
       </c>
       <c r="F8">
-        <v>0.30001852958251402</v>
+        <v>0.37002135752523302</v>
       </c>
       <c r="G8">
-        <v>58.692552936783898</v>
+        <v>108.04415257551901</v>
       </c>
       <c r="H8">
-        <v>69.199291666666696</v>
+        <v>68.863500000000002</v>
       </c>
       <c r="I8">
-        <v>-2.4587062321850501</v>
+        <v>-0.195137400329535</v>
+      </c>
+      <c r="J8">
+        <v>0.19759869761570001</v>
       </c>
       <c r="K8">
-        <v>2.4587062321850501</v>
+        <v>0.195137400329535</v>
       </c>
       <c r="L8">
-        <v>0.393602239407076</v>
+        <v>-0.704215922198688</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
-        <v>1.1818835069426701</v>
+        <v>1.76858300033389</v>
       </c>
       <c r="B9" s="1">
-        <v>45618.515393518501</v>
+        <v>45597.442013888904</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
-        <v>2030.428296</v>
+        <v>709.25940000000003</v>
       </c>
       <c r="E9">
-        <v>6021.7740000000003</v>
+        <v>10979.754000000001</v>
       </c>
       <c r="F9">
-        <v>0.18724196474367</v>
+        <v>0.30001852958251402</v>
       </c>
       <c r="G9">
-        <v>15.2013972009324</v>
+        <v>58.692552936783898</v>
       </c>
       <c r="H9">
-        <v>65.922749999999994</v>
+        <v>69.199291666666696</v>
       </c>
       <c r="I9">
-        <v>-2.6054422986912802</v>
+        <v>-2.4587062321850501</v>
+      </c>
+      <c r="J9">
+        <v>2.4751540809886499</v>
       </c>
       <c r="K9">
-        <v>2.6054422986912802</v>
+        <v>2.4587062321850501</v>
       </c>
       <c r="L9">
-        <v>0.44347466248342199</v>
+        <v>0.393602239407076</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
-        <v>1.45544825395334</v>
+        <v>1.1818835069426701</v>
       </c>
       <c r="B10" s="1">
-        <v>45266.611111111102</v>
+        <v>45618.515393518501</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10">
-        <v>615.23294999999996</v>
+        <v>2030.428296</v>
       </c>
       <c r="E10">
-        <v>10319.43</v>
+        <v>6021.7740000000003</v>
       </c>
       <c r="F10">
-        <v>0.234268725880109</v>
+        <v>0.18724196474367</v>
       </c>
       <c r="G10">
-        <v>28.539624448278001</v>
+        <v>15.2013972009324</v>
       </c>
       <c r="H10">
-        <v>63.182749999999999</v>
+        <v>65.922749999999994</v>
       </c>
       <c r="I10">
-        <v>-9.2342488193686706E-3</v>
+        <v>-2.6054422986912802</v>
       </c>
       <c r="J10">
-        <v>1.0333831699921499E-2</v>
+        <v>2.7763528639902799</v>
       </c>
       <c r="K10">
-        <v>9.2342488193686706E-3</v>
+        <v>2.6054422986912802</v>
       </c>
       <c r="L10">
-        <v>-1.98573861579119</v>
+        <v>0.44347466248342199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
-        <v>0.87959255255997504</v>
+        <v>1.45544825395334</v>
       </c>
       <c r="B11" s="1">
-        <v>45639.551041666702</v>
+        <v>45266.611111111102</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>526.36743999999999</v>
+        <v>615.23294999999996</v>
       </c>
       <c r="E11">
-        <v>1090.6469999999999</v>
+        <v>10319.43</v>
       </c>
       <c r="F11">
-        <v>0.14840614156752799</v>
+        <v>0.234268725880109</v>
       </c>
       <c r="G11">
-        <v>7.5786622463844298</v>
+        <v>28.539624448278001</v>
       </c>
       <c r="H11">
-        <v>61.354750000000003</v>
+        <v>63.182749999999999</v>
       </c>
       <c r="I11">
-        <v>0.50225871766377705</v>
+        <v>-9.2342488193686706E-3</v>
       </c>
       <c r="J11">
-        <v>0.58086027463756795</v>
+        <v>1.0333831699921499E-2</v>
       </c>
       <c r="K11">
-        <v>0.50225871766377705</v>
+        <v>9.2342488193686706E-3</v>
       </c>
       <c r="L11">
-        <v>-0.235928324153202</v>
+        <v>-1.98573861579119</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
-        <v>1.95257332203598</v>
+        <v>0.87959255255997504</v>
       </c>
       <c r="B12" s="1">
-        <v>45331.457060185203</v>
+        <v>45639.551041666702</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>504.21780863999999</v>
+        <v>526.36743999999999</v>
       </c>
       <c r="E12">
-        <v>12721.81</v>
+        <v>1090.6469999999999</v>
       </c>
       <c r="F12">
-        <v>0.34695286733230901</v>
+        <v>0.14840614156752799</v>
       </c>
       <c r="G12">
-        <v>89.654753749752999</v>
+        <v>7.5786622463844298</v>
       </c>
       <c r="H12">
-        <v>56.771625</v>
+        <v>61.354750000000003</v>
       </c>
       <c r="I12">
-        <v>-7.8857717580850806E-2</v>
+        <v>0.50225871766377705</v>
       </c>
       <c r="J12">
-        <v>9.9277292154952998E-2</v>
+        <v>0.58086027463756795</v>
       </c>
       <c r="K12">
-        <v>7.8857717580850806E-2</v>
+        <v>0.50225871766377705</v>
       </c>
       <c r="L12">
-        <v>-1.0031500769787001</v>
+        <v>-0.235928324153202</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
-        <v>1.78124699332156</v>
+        <v>1.95257332203598</v>
       </c>
       <c r="B13" s="1">
-        <v>45502.5288194444</v>
+        <v>45331.457060185203</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
-        <v>2747.5827119999999</v>
+        <v>504.21780863999999</v>
       </c>
       <c r="E13">
-        <v>9438.768</v>
+        <v>12721.81</v>
       </c>
       <c r="F13">
-        <v>0.30285820571641198</v>
+        <v>0.34695286733230901</v>
       </c>
       <c r="G13">
-        <v>60.429220662836499</v>
+        <v>89.654753749752999</v>
       </c>
       <c r="H13">
-        <v>74.329666666666697</v>
+        <v>56.771625</v>
       </c>
       <c r="I13">
-        <v>-0.23328053058185999</v>
+        <v>-7.8857717580850806E-2</v>
       </c>
       <c r="J13">
-        <v>0.215449086397794</v>
+        <v>9.9277292154952998E-2</v>
       </c>
       <c r="K13">
-        <v>0.23328053058185999</v>
+        <v>7.8857717580850806E-2</v>
       </c>
       <c r="L13">
-        <v>-0.666655343178018</v>
+        <v>-1.0031500769787001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14">
-        <v>2.2177716434911199</v>
+        <v>1.78124699332156</v>
       </c>
       <c r="B14" s="1">
-        <v>45569.486458333296</v>
+        <v>45502.5288194444</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
+        <v>2747.5827119999999</v>
+      </c>
+      <c r="E14">
+        <v>9438.768</v>
+      </c>
+      <c r="F14">
+        <v>0.30285820571641198</v>
+      </c>
+      <c r="G14">
+        <v>60.429220662836499</v>
+      </c>
+      <c r="H14">
+        <v>74.329666666666697</v>
+      </c>
+      <c r="I14">
+        <v>-0.23328053058185999</v>
+      </c>
+      <c r="J14">
+        <v>0.215449086397794</v>
+      </c>
+      <c r="K14">
+        <v>0.23328053058185999</v>
+      </c>
+      <c r="L14">
+        <v>-0.666655343178018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>2.2177716434911199</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45569.486458333296</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
         <v>1103.890144</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>10445.418</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.42756115791951899</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>165.10934080357401</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>75.326458333333306</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>-3.5218972221151799E-2</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>3.20015690036934E-2</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>3.5218972221151799E-2</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-1.49482872815067</v>
       </c>
     </row>
@@ -11155,12 +11357,12 @@
       <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11198,7 +11400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.5745170474306001</v>
       </c>
@@ -11236,7 +11438,7 @@
         <v>0.19972441886794701</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.14348697820814</v>
       </c>
@@ -11274,7 +11476,7 @@
         <v>-0.57858730308616901</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.2025711866527999</v>
       </c>
@@ -11312,7 +11514,7 @@
         <v>-0.34349303331172698</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.50592712199711</v>
       </c>
@@ -11350,7 +11552,7 @@
         <v>-0.35651195209609199</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2.5567220175275498</v>
       </c>
@@ -11397,15 +11599,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11443,7 +11649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.45642883673255</v>
       </c>
@@ -11481,7 +11687,7 @@
         <v>-1.65539972859101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.9265347991375199</v>
       </c>
@@ -11519,155 +11725,190 @@
         <v>-0.124221522263913</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.31349058741088</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B4" s="1">
-        <v>45590.450462963003</v>
+        <v>45742.479282407403</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>441.72498000000002</v>
+        <v>362.407284</v>
       </c>
       <c r="E4">
-        <v>2233.951</v>
+        <v>11964.4</v>
       </c>
       <c r="F4">
-        <v>0.20831663046725299</v>
-      </c>
-      <c r="G4">
-        <v>20.582142817889899</v>
+        <v>0.201730648915843</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H4">
-        <v>69.406999999999996</v>
+        <v>62.968499999999999</v>
       </c>
       <c r="I4">
-        <v>-5.1208046458898503E-2</v>
+        <v>-6.2554027888728506E-2</v>
       </c>
       <c r="J4">
-        <v>5.1376184809108202E-2</v>
+        <v>7.0275221237242905E-2</v>
       </c>
       <c r="K4">
-        <v>5.1208046458898503E-2</v>
+        <v>6.2554027888728506E-2</v>
       </c>
       <c r="L4">
-        <v>-1.28923814954167</v>
+        <v>-1.15319777849231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
-        <v>0.70758523822296304</v>
+        <v>1.31349058741088</v>
       </c>
       <c r="B5" s="1">
-        <v>45231.5222222222</v>
+        <v>45590.450462963003</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5">
-        <v>744.31614999999999</v>
+        <v>441.72498000000002</v>
       </c>
       <c r="E5">
-        <v>4485.2950000000001</v>
+        <v>2233.951</v>
       </c>
       <c r="F5">
-        <v>0.13055244711888001</v>
+        <v>0.20831663046725299</v>
       </c>
       <c r="G5">
-        <v>5.1001768803724898</v>
+        <v>20.582142817889899</v>
       </c>
       <c r="H5">
-        <v>68.842375000000004</v>
+        <v>69.406999999999996</v>
       </c>
       <c r="I5">
-        <v>-2.00045800791511E-2</v>
+        <v>-5.1208046458898503E-2</v>
       </c>
       <c r="J5">
-        <v>2.02631658657456E-2</v>
+        <v>5.1376184809108202E-2</v>
       </c>
       <c r="K5">
-        <v>2.00045800791511E-2</v>
+        <v>5.1208046458898503E-2</v>
       </c>
       <c r="L5">
-        <v>-1.6932927006039999</v>
+        <v>-1.28923814954167</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
-        <v>2.9250980683261201</v>
+        <v>0.70758523822296304</v>
       </c>
       <c r="B6" s="1">
-        <v>45279.418749999997</v>
+        <v>45231.5222222222</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
-        <v>452.6567</v>
+        <v>744.31614999999999</v>
       </c>
       <c r="E6">
-        <v>9377.6460000000006</v>
+        <v>4485.2950000000001</v>
       </c>
       <c r="F6">
-        <v>0.72138680186451298</v>
+        <v>0.13055244711888001</v>
       </c>
       <c r="G6">
-        <v>841.58515909551397</v>
+        <v>5.1001768803724898</v>
       </c>
       <c r="H6">
-        <v>60.173708333333302</v>
+        <v>68.842375000000004</v>
       </c>
       <c r="I6">
-        <v>-1.7867765253196301E-2</v>
+        <v>-2.00045800791511E-2</v>
       </c>
       <c r="J6">
-        <v>2.11178428187733E-2</v>
+        <v>2.02631658657456E-2</v>
       </c>
       <c r="K6">
-        <v>1.7867765253196301E-2</v>
+        <v>2.00045800791511E-2</v>
       </c>
       <c r="L6">
-        <v>-1.6753504469219</v>
+        <v>-1.6932927006039999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
-        <v>1.5681700744090501</v>
+        <v>2.9250980683261201</v>
       </c>
       <c r="B7" s="1">
-        <v>45569.448379629597</v>
+        <v>45279.418749999997</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7">
+        <v>452.6567</v>
+      </c>
+      <c r="E7">
+        <v>9377.6460000000006</v>
+      </c>
+      <c r="F7">
+        <v>0.72138680186451298</v>
+      </c>
+      <c r="G7">
+        <v>841.58515909551397</v>
+      </c>
+      <c r="H7">
+        <v>60.173708333333302</v>
+      </c>
+      <c r="I7">
+        <v>-1.7867765253196301E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.7867765253196301E-2</v>
+      </c>
+      <c r="L7">
+        <v>-1.6753504469219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>1.5681700744090501</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45569.448379629597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
         <v>373.09719000000001</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1077.366</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.253452518093848</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>36.997303685117799</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>76.006291666666698</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-0.247807878923372</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>0.22266258013392901</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.247807878923372</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-0.65235276279009202</v>
       </c>
     </row>
@@ -11680,15 +11921,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11726,7 +11970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.84279273217053396</v>
       </c>
@@ -11764,7 +12008,7 @@
         <v>-1.4267925122260701</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.2521605019698501</v>
       </c>
@@ -11802,7 +12046,7 @@
         <v>-1.2485085953163499</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.9298004039872101</v>
       </c>
@@ -11840,286 +12084,309 @@
         <v>-0.68574776227701295</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.87941370477432</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B5" s="1">
-        <v>45590.536805555603</v>
+        <v>45742.576273148203</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>385.73862000000003</v>
-      </c>
-      <c r="E5">
-        <v>11406.38</v>
-      </c>
-      <c r="F5">
-        <v>0.189070453385662</v>
-      </c>
-      <c r="G5">
-        <v>75.755419030113302</v>
-      </c>
-      <c r="H5">
-        <v>67.770875000000004</v>
-      </c>
-      <c r="I5">
-        <v>-1.7721333548753701E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.8288066770139E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.7721333548753701E-2</v>
-      </c>
-      <c r="L5">
-        <v>-1.7378322013270699</v>
+        <v>350.31240000000003</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
-        <v>1.64584113116905</v>
+        <v>1.87941370477432</v>
       </c>
       <c r="B6" s="1">
-        <v>45597.512847222199</v>
+        <v>45590.536805555603</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6">
-        <v>366.03865999999999</v>
+        <v>385.73862000000003</v>
       </c>
       <c r="E6">
-        <v>3957.6080000000002</v>
+        <v>11406.38</v>
       </c>
       <c r="F6">
-        <v>0.14022503226824601</v>
+        <v>0.189070453385662</v>
       </c>
       <c r="G6">
-        <v>44.242649916102501</v>
+        <v>75.755419030113302</v>
       </c>
       <c r="H6">
-        <v>68.742208333333295</v>
+        <v>67.770875000000004</v>
       </c>
       <c r="I6">
-        <v>-3.4980738563410198E-2</v>
+        <v>-1.7721333548753701E-2</v>
       </c>
       <c r="J6">
-        <v>3.5498747068957698E-2</v>
+        <v>1.8288066770139E-2</v>
       </c>
       <c r="K6">
-        <v>3.4980738563410198E-2</v>
+        <v>1.7721333548753701E-2</v>
       </c>
       <c r="L6">
-        <v>-1.4497869751319601</v>
+        <v>-1.7378322013270699</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
-        <v>1.1755615533525701</v>
+        <v>1.64584113116905</v>
       </c>
       <c r="B7" s="1">
-        <v>45618.559143518498</v>
+        <v>45597.512847222199</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7">
-        <v>2122.394256</v>
+        <v>366.03865999999999</v>
       </c>
       <c r="E7">
-        <v>3764.232</v>
+        <v>3957.6080000000002</v>
       </c>
       <c r="F7">
-        <v>7.67954910734997E-2</v>
+        <v>0.14022503226824601</v>
       </c>
       <c r="G7">
-        <v>14.9817157660029</v>
+        <v>44.242649916102501</v>
       </c>
       <c r="H7">
-        <v>56.827624999999998</v>
+        <v>68.742208333333295</v>
       </c>
       <c r="I7">
-        <v>-1.0375902024202499</v>
+        <v>-3.4980738563410198E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.5498747068957698E-2</v>
       </c>
       <c r="K7">
-        <v>1.0375902024202499</v>
+        <v>3.4980738563410198E-2</v>
       </c>
       <c r="L7">
-        <v>0.11559183749072301</v>
+        <v>-1.4497869751319601</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
-        <v>1.3244402894665099</v>
+        <v>1.1755615533525701</v>
       </c>
       <c r="B8" s="1">
-        <v>45266.638425925899</v>
+        <v>45618.559143518498</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>711.255675</v>
+        <v>2122.394256</v>
       </c>
       <c r="E8">
-        <v>3986.5630000000001</v>
+        <v>3764.232</v>
       </c>
       <c r="F8">
-        <v>9.2948582820242806E-2</v>
+        <v>7.67954910734997E-2</v>
       </c>
       <c r="G8">
-        <v>21.107669694951699</v>
+        <v>14.9817157660029</v>
       </c>
       <c r="H8">
-        <v>57.605125000000001</v>
+        <v>56.827624999999998</v>
       </c>
       <c r="I8">
-        <v>-6.7749825617792999E-3</v>
-      </c>
-      <c r="J8">
-        <v>8.3953767192955307E-3</v>
+        <v>-1.0375902024202499</v>
       </c>
       <c r="K8">
-        <v>6.7749825617792999E-3</v>
+        <v>1.0375902024202499</v>
       </c>
       <c r="L8">
-        <v>-2.0759598113257498</v>
+        <v>0.11559183749072301</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
-        <v>0.91903067039514397</v>
+        <v>1.3244402894665099</v>
       </c>
       <c r="B9" s="1">
-        <v>45639.595601851797</v>
+        <v>45266.638425925899</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9">
-        <v>335.75364000000002</v>
+        <v>711.255675</v>
+      </c>
+      <c r="E9">
+        <v>3986.5630000000001</v>
       </c>
       <c r="F9">
-        <v>5.5228227659252498E-2</v>
+        <v>9.2948582820242806E-2</v>
       </c>
       <c r="G9">
-        <v>8.2990937463643704</v>
+        <v>21.107669694951699</v>
       </c>
       <c r="H9">
-        <v>51.593166666666697</v>
+        <v>57.605125000000001</v>
+      </c>
+      <c r="I9">
+        <v>-6.7749825617792999E-3</v>
+      </c>
+      <c r="J9">
+        <v>8.3953767192955307E-3</v>
+      </c>
+      <c r="K9">
+        <v>6.7749825617792999E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.0759598113257498</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
-        <v>2.1348836283946802</v>
+        <v>0.91903067039514397</v>
       </c>
       <c r="B10" s="1">
-        <v>45331.513657407399</v>
+        <v>45639.595601851797</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>464.2354962</v>
-      </c>
-      <c r="E10">
-        <v>3784.3</v>
+        <v>335.75364000000002</v>
       </c>
       <c r="F10">
-        <v>0.26214009253193299</v>
+        <v>5.5228227659252498E-2</v>
       </c>
       <c r="G10">
-        <v>136.42175379842601</v>
+        <v>8.2990937463643704</v>
       </c>
       <c r="H10">
-        <v>55.680374999999998</v>
-      </c>
-      <c r="I10">
-        <v>-1.4668428620366101</v>
-      </c>
-      <c r="K10">
-        <v>1.4668428620366101</v>
-      </c>
-      <c r="L10">
-        <v>0.27521173323209103</v>
+        <v>51.593166666666697</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
-        <v>1.6976786416304599</v>
+        <v>2.1348836283946802</v>
       </c>
       <c r="B11" s="1">
-        <v>45502.6175925926</v>
+        <v>45331.513657407399</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>703.29944999999998</v>
+        <v>464.2354962</v>
       </c>
       <c r="E11">
-        <v>5518.3209999999999</v>
+        <v>3784.3</v>
       </c>
       <c r="F11">
-        <v>0.14969712289074899</v>
+        <v>0.26214009253193299</v>
       </c>
       <c r="G11">
-        <v>49.851547193774898</v>
+        <v>136.42175379842601</v>
       </c>
       <c r="H11">
-        <v>77.678708333333304</v>
+        <v>55.680374999999998</v>
       </c>
       <c r="I11">
-        <v>-0.11499012465521399</v>
-      </c>
-      <c r="J11">
-        <v>0.100544975455905</v>
+        <v>-1.4668428620366101</v>
       </c>
       <c r="K11">
-        <v>0.11499012465521399</v>
+        <v>1.4668428620366101</v>
       </c>
       <c r="L11">
-        <v>-0.99763962756646996</v>
+        <v>0.27521173323209103</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
-        <v>1.8983149978362499</v>
+        <v>1.6976786416304599</v>
       </c>
       <c r="B12" s="1">
-        <v>45569.557407407403</v>
+        <v>45502.6175925926</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
+        <v>703.29944999999998</v>
+      </c>
+      <c r="E12">
+        <v>5518.3209999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.14969712289074899</v>
+      </c>
+      <c r="G12">
+        <v>49.851547193774898</v>
+      </c>
+      <c r="H12">
+        <v>77.678708333333304</v>
+      </c>
+      <c r="I12">
+        <v>-0.11499012465521399</v>
+      </c>
+      <c r="J12">
+        <v>0.100544975455905</v>
+      </c>
+      <c r="K12">
+        <v>0.11499012465521399</v>
+      </c>
+      <c r="L12">
+        <v>-0.99763962756646996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>1.8983149978362499</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45569.557407407403</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>403.84739999999999</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>8906.6890000000003</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.19368252554686899</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>79.125232260735004</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>76.782666666666699</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>-2.8478304234839501E-2</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>2.5267627188960799E-2</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>2.8478304234839501E-2</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-1.59743553952547</v>
       </c>
     </row>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7E0D8-E83F-4C06-BD7B-EB544A9C0737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340F330-F1A5-4FC0-930D-8481AC2917B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4185" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30585" windowHeight="14370" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -285,14 +285,14 @@
                 <c:pt idx="2">
                   <c:v>0.237662875388165</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6050205004409301</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>2.47946706179097E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.3846125037819001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.16356543733956E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,7 +300,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3854-48B2-B797-36EB32A6A982}"/>
+              <c16:uniqueId val="{00000000-C947-4880-A1A7-4DE8B529E8C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -312,11 +312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="733407392"/>
-        <c:axId val="901452448"/>
+        <c:axId val="1324666336"/>
+        <c:axId val="1324666816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="733407392"/>
+        <c:axId val="1324666336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,12 +373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901452448"/>
+        <c:crossAx val="1324666816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901452448"/>
+        <c:axId val="1324666816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +435,1758 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="733407392"/>
+        <c:crossAx val="1324666336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.0141113348335997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.93417675073701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.14743063651601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53953030067585805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4821242321530796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.04415257551901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.692552936783898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.2013972009324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.539624448278001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5786622463844298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.654753749752999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.429220662836499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165.10934080357401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>-1.4646273244010499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.71383798375942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23755715312148601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.704215922198688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.393602239407076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44347466248342199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.235928324153202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0031500769787001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.666655343178018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.49482872815067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54B8-4E49-BE3C-DCE546B8095F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381102848"/>
+        <c:axId val="1381086528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381102848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381086528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381086528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381102848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.15981658525691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6792522246747701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92681498499496695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99275275900728999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28665282711034601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8711515815179101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.28965733618624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.65539972859101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.124221522263913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.15319777849231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.28923814954167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6932927006039999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.65235276279009202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8DB-4C52-A9C5-B02477B16509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381088448"/>
+        <c:axId val="1381105248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381088448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381105248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381105248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381088448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_dh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23229443381963699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32786079628103298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19939243401214099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20831663046725299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13055244711888001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72138680186451298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.253452518093848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2110586942343202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75123960858564598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0275221237242905E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1376184809108202E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.02631658657456E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22266258013392901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5D9-4566-9FE7-ACBFFBB5DDCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381120608"/>
+        <c:axId val="1381127328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381120608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381127328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381127328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381120608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.52875994714951202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8072708752009401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2393381121064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.18858542995784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80091193253836901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.10447931568736E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26735758572693402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.40198248879310999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6128546432438899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88878557577406003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.22011061857209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9'!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>-0.68574776227701295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7378322013270699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4497869751319601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0759598113257498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27521173323209103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.99763962756646996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.59743553952547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C71-4797-A063-CFFB5E12A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381111968"/>
+        <c:axId val="1381122048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381111968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381122048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381122048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381111968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_dh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0095874737204102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.304619300450722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.196666010534818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.189070453385662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14022503226824601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.67954910734997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2948582820242806E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5228227659252498E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26214009253193299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14969712289074899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19368252554686899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9'!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>0.20618270723144499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8288066770139E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5498747068957698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3953767192955307E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.88456765595585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.100544975455905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5267627188960799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FB8-4AD2-B7DD-6BF5952170D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381099968"/>
+        <c:axId val="1381104288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381099968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381104288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381104288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381099968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -546,11 +2297,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15'!$J$1</c:f>
+              <c:f>'13'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_dh</c:v>
+                  <c:v>log_K600</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -577,71 +2328,73 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$F$2:$F$10</c:f>
+              <c:f>'13'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.19585224806813301</c:v>
+                  <c:v>-9.4602287968859097E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.274027142180158</c:v>
+                  <c:v>0.94412255542288104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.212860009356382</c:v>
+                  <c:v>0.59219990094441599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21609790544256399</c:v>
+                  <c:v>1.4070280222368301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14324969531057899</c:v>
+                  <c:v>0.77272923925196801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0274044883753906E-2</c:v>
+                  <c:v>1.0661612972879999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50826006985347305</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29201786247728301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22996315545078599</c:v>
+                  <c:v>2.2314090687618999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$J$2:$J$10</c:f>
+              <c:f>'13'!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5524128899415702E-2</c:v>
+                  <c:v>-2.1689593362525699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51755443495451803</c:v>
+                  <c:v>-1.47103249403429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4262595976377201E-2</c:v>
+                  <c:v>-0.62403865282487503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33304642862635703</c:v>
+                  <c:v>0.81987416990127404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90949515581084905</c:v>
+                  <c:v>-1.6056416566720999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44035281996381798</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2518618359821001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.44145804581688</c:v>
+                  <c:v>-1.62258218314034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,7 +2402,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-273F-4FCE-AB27-73646ABB836A}"/>
+              <c16:uniqueId val="{00000000-36B7-415D-9FD5-0CD0EE2F9849}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -661,11 +2414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901463488"/>
-        <c:axId val="901449088"/>
+        <c:axId val="1210413616"/>
+        <c:axId val="1210412176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901463488"/>
+        <c:axId val="1210413616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,12 +2475,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901449088"/>
+        <c:crossAx val="1210412176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901449088"/>
+        <c:axId val="1210412176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +2537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901463488"/>
+        <c:crossAx val="1210413616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -895,11 +2648,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3'!$J$1</c:f>
+              <c:f>'15'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_dh</c:v>
+                  <c:v>log_K600</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -928,60 +2681,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$F$2:$F$8</c:f>
+              <c:f>'15'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.422753905123254</c:v>
+                  <c:v>1.38566869103697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51440368670947101</c:v>
+                  <c:v>1.8990765269663299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.363585946262801</c:v>
+                  <c:v>1.5031427092643601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32324005414038398</c:v>
+                  <c:v>1.5367296105642001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11668969198078299</c:v>
+                  <c:v>0.90988836207992196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87871579907905895</c:v>
+                  <c:v>2.3406710570227699E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39510332832113498</c:v>
+                  <c:v>2.8438024043583199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99647912105049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6313244136241201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$J$2:$J$8</c:f>
+              <c:f>'15'!$L$2:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.59196125458791E-3</c:v>
+                  <c:v>-1.59304907081334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0436212997519201E-2</c:v>
+                  <c:v>-0.28604396556749101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1531697631642701E-2</c:v>
+                  <c:v>-1.84580142009374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02097823373577E-3</c:v>
+                  <c:v>-0.47749521907417602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15210983764305899</c:v>
+                  <c:v>-4.1199609750822097E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.200053915250054</c:v>
+                  <c:v>-0.35619921814487299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21503761105255101</c:v>
+                  <c:v>-0.75961479433178603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7556399815570502E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38764926573799202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +2754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEFE-41F0-B92C-E49084EEE226}"/>
+              <c16:uniqueId val="{00000000-BD5E-4DB8-84F7-06B76C4DBC80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1001,11 +2766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901448128"/>
-        <c:axId val="901465888"/>
+        <c:axId val="1210422256"/>
+        <c:axId val="1210428496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901448128"/>
+        <c:axId val="1210422256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,12 +2827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901465888"/>
+        <c:crossAx val="1210428496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901465888"/>
+        <c:axId val="1210428496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901448128"/>
+        <c:crossAx val="1210422256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1235,7 +3000,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5'!$J$1</c:f>
+              <c:f>'15'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1268,87 +3033,69 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$F$2:$F$15</c:f>
+              <c:f>'15'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.9249035421147699E-2</c:v>
+                  <c:v>0.19585224806813301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.216853459021603</c:v>
+                  <c:v>0.274027142180158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11608970854305301</c:v>
+                  <c:v>0.21147963946277601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8657298433478003E-2</c:v>
+                  <c:v>0.21609790544256399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31670942796431001</c:v>
+                  <c:v>0.14324969531057899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6975516888096697E-2</c:v>
+                  <c:v>8.0274044883753906E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2176871323439502E-2</c:v>
+                  <c:v>0.50826006985347305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.285012367816944</c:v>
+                  <c:v>0.29201786247728301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4511311120524399E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.20071662604863699</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9109156854677397E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75658739105356998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.47694777291652501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13001805807807401</c:v>
+                  <c:v>0.22996315545078599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$J$2:$J$15</c:f>
+              <c:f>'15'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5524128899415702E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17242135645319001</c:v>
+                  <c:v>0.51755443495451803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4262595976377201E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.09288241918769E-2</c:v>
+                  <c:v>0.33304642862635703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9854762303598699E-2</c:v>
+                  <c:v>0.90949515581084905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.05761348096275E-2</c:v>
+                  <c:v>0.44035281996381798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6304595414703E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7932408519058297E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6934508597743303E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3454575425552002E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2086852237835102E-3</c:v>
+                  <c:v>1.2518618359821001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.44145804581688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +3103,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD04-411E-BB08-5AFDA4CB2377}"/>
+              <c16:uniqueId val="{00000000-7545-4757-93EE-63C4B7BD6606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1368,11 +3115,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901467328"/>
-        <c:axId val="901466848"/>
+        <c:axId val="1210431376"/>
+        <c:axId val="1210373776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901467328"/>
+        <c:axId val="1210431376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,12 +3176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901466848"/>
+        <c:crossAx val="1210373776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901466848"/>
+        <c:axId val="1210373776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +3238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901467328"/>
+        <c:crossAx val="1210431376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1602,7 +3349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5a'!$J$1</c:f>
+              <c:f>'5'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1635,42 +3382,93 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5a'!$F$2:$F$6</c:f>
+              <c:f>'5'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.52599051773861105</c:v>
+                  <c:v>5.9249035421147699E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51969792065458198</c:v>
+                  <c:v>0.216853459021603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45046535211951499</c:v>
+                  <c:v>0.106979611271476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45326953896332001</c:v>
+                  <c:v>3.8657298433478003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48690939353906698</c:v>
+                  <c:v>0.31670942796431001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6975516888096697E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2176871323439502E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.285012367816944</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4511311120524399E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20071662604863699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9109156854677397E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75658739105356998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47694777291652501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13001805807807401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5a'!$J$2:$J$6</c:f>
+              <c:f>'5'!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.84133921279000901</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26663868660533402</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.27094099773852E-2</c:v>
+                  <c:v>0.17242135645319001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59835790323903604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.114810057389193</c:v>
+                  <c:v>4.9854762303598699E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.64162808869427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6304595414703E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63468059732398197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7932408519058297E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.70467538288039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6934508597743303E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3454575425552002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,7 +3476,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3408-4D29-A561-2E30F6C30F37}"/>
+              <c16:uniqueId val="{00000000-91BC-42FE-9750-E6A99231EF57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1690,11 +3488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901483168"/>
-        <c:axId val="901475488"/>
+        <c:axId val="1210428016"/>
+        <c:axId val="1324663456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901483168"/>
+        <c:axId val="1210428016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,12 +3549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901475488"/>
+        <c:crossAx val="1324663456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901475488"/>
+        <c:axId val="1324663456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +3611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901483168"/>
+        <c:crossAx val="1210428016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1924,11 +3722,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6'!$J$1</c:f>
+              <c:f>'5'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_dh</c:v>
+                  <c:v>log_K600</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1957,96 +3755,93 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$F$2:$F$15</c:f>
+              <c:f>'5'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.12874386448073599</c:v>
+                  <c:v>1.5644463224313101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44772677954446899</c:v>
+                  <c:v>2.1363066465568199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39129596301150699</c:v>
+                  <c:v>1.8248813349739299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3763074219128699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9138536458891403E-2</c:v>
+                  <c:v>2.3032668856264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.146682711547242</c:v>
+                  <c:v>1.5471916791810501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37002135752523302</c:v>
+                  <c:v>1.41463921516754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30001852958251402</c:v>
+                  <c:v>2.25677183450206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18724196474367</c:v>
+                  <c:v>1.32621116564357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.234268725880109</c:v>
+                  <c:v>2.1022229180133301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14840614156752799</c:v>
+                  <c:v>1.3813339579941699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34695286733230901</c:v>
+                  <c:v>2.6870902813892399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30285820571641198</c:v>
+                  <c:v>2.4837232842553898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42756115791951899</c:v>
+                  <c:v>1.9108457971817301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$J$2:$J$15</c:f>
+              <c:f>'5'!$L$2:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.90951118423101E-2</c:v>
+                  <c:v>-7.5028869195106498E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4306204774390801E-2</c:v>
+                  <c:v>-0.76340894259865999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9326891841915099E-2</c:v>
+                  <c:v>-0.22303896834228401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.19519645480923E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7280533772406299</c:v>
+                  <c:v>-1.30229335002258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19759869761570001</c:v>
+                  <c:v>0.215274774389667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4751540809886499</c:v>
+                  <c:v>-1.24945615786977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7763528639902799</c:v>
+                  <c:v>-0.19744477820082099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0333831699921499E-2</c:v>
+                  <c:v>-1.42098958088467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58086027463756795</c:v>
+                  <c:v>0.43211514822866398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9277292154952998E-2</c:v>
+                  <c:v>-1.1743499206535499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.215449086397794</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.20015690036934E-2</c:v>
+                  <c:v>-1.6297724242392599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +3849,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B241-4D77-A3E0-0C8DDEA56C1A}"/>
+              <c16:uniqueId val="{00000000-4CAB-44EB-BE1F-141063D3FB45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2066,11 +3861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901490368"/>
-        <c:axId val="901481248"/>
+        <c:axId val="1324677376"/>
+        <c:axId val="1324683136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901490368"/>
+        <c:axId val="1324677376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,12 +3922,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901481248"/>
+        <c:crossAx val="1324683136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901481248"/>
+        <c:axId val="1324683136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,7 +3984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901490368"/>
+        <c:crossAx val="1324677376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2300,11 +4095,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6a'!$J$1</c:f>
+              <c:f>'5a'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_dh</c:v>
+                  <c:v>log_K600</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,48 +4128,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6a'!$F$2:$F$6</c:f>
+              <c:f>'5a'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.30386676206507501</c:v>
+                  <c:v>1.3708185978996801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23014485917083699</c:v>
+                  <c:v>1.35314747870436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23937442308451001</c:v>
+                  <c:v>1.14244247106486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29234008845640103</c:v>
+                  <c:v>1.1521339482850199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58613206590049605</c:v>
+                  <c:v>1.25718073142374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6a'!$J$2:$J$6</c:f>
+              <c:f>'5a'!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.58388781907339</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.263883780252057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45342657131430503</c:v>
+                  <c:v>-0.57407683856692704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44003583756701897</c:v>
+                  <c:v>-1.89587461069805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.87415413273145E-3</c:v>
+                  <c:v>-0.94002006596844701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,7 +4171,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEC4-496A-8576-7DE00B5B8307}"/>
+              <c16:uniqueId val="{00000000-58CB-4465-986B-D2613AF2B7A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2394,11 +4183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901492288"/>
-        <c:axId val="901479328"/>
+        <c:axId val="1324705216"/>
+        <c:axId val="1324690336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901492288"/>
+        <c:axId val="1324705216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +4244,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901479328"/>
+        <c:crossAx val="1324690336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901479328"/>
+        <c:axId val="1324690336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +4306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901492288"/>
+        <c:crossAx val="1324705216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2628,7 +4417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7'!$J$1</c:f>
+              <c:f>'5a'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2661,57 +4450,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$F$2:$F$8</c:f>
+              <c:f>'5a'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23229443381963699</c:v>
+                  <c:v>0.52599051773861105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32786079628103298</c:v>
+                  <c:v>0.51969792065458198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.201730648915843</c:v>
+                  <c:v>0.45046535211951499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20831663046725299</c:v>
+                  <c:v>0.45326953896332001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13055244711888001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72138680186451298</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.253452518093848</c:v>
+                  <c:v>0.48690939353906698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$J$2:$J$8</c:f>
+              <c:f>'5a'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.2110586942343202E-2</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0.75123960858564598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0275221237242905E-2</c:v>
+                  <c:v>0.26663868660533402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1376184809108202E-2</c:v>
+                  <c:v>1.27094099773852E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.02631658657456E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22266258013392901</c:v>
+                  <c:v>0.114810057389193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,7 +4493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80AE-4BE7-BC7C-DE3428F69D90}"/>
+              <c16:uniqueId val="{00000000-BB95-4F91-AC65-AF91B708F07D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2731,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901487488"/>
-        <c:axId val="901487968"/>
+        <c:axId val="1084792768"/>
+        <c:axId val="1084814368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901487488"/>
+        <c:axId val="1084792768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,12 +4566,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901487968"/>
+        <c:crossAx val="1084814368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901487968"/>
+        <c:axId val="1084814368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +4628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901487488"/>
+        <c:crossAx val="1084792768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2965,7 +4739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9'!$J$1</c:f>
+              <c:f>'6'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2998,78 +4772,87 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$F$2:$F$13</c:f>
+              <c:f>'6'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0095874737204102E-2</c:v>
+                  <c:v>0.12874386448073599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.304619300450722</c:v>
+                  <c:v>0.44772677954446899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.196666010534818</c:v>
+                  <c:v>0.39129596301150699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.189070453385662</c:v>
+                  <c:v>5.9138536458891403E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14022503226824601</c:v>
+                  <c:v>0.146682711547242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.67954910734997E-2</c:v>
+                  <c:v>0.37002135752523302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2948582820242806E-2</c:v>
+                  <c:v>0.30001852958251402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5228227659252498E-2</c:v>
+                  <c:v>0.18724196474367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26214009253193299</c:v>
+                  <c:v>0.234268725880109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14969712289074899</c:v>
+                  <c:v>0.14840614156752799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19368252554686899</c:v>
+                  <c:v>0.34695286733230901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30285820571641198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42756115791951899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$J$2:$J$13</c:f>
+              <c:f>'6'!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.7428936539669E-2</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
-                  <c:v>5.6427577340035402E-2</c:v>
+                  <c:v>3.4306204774390801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20618270723144499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8288066770139E-2</c:v>
+                  <c:v>1.9326891841915099E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5498747068957698E-2</c:v>
+                  <c:v>1.7280533772406299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19759869761570001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3953767192955307E-3</c:v>
+                  <c:v>2.4751540809886499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7763528639902799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.100544975455905</c:v>
+                  <c:v>0.58086027463756795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5267627188960799E-2</c:v>
+                  <c:v>9.9277292154952998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.215449086397794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.20015690036934E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +4860,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBF4-49AC-A928-81B7B2021DD3}"/>
+              <c16:uniqueId val="{00000000-476E-4E7B-B94B-037F2B070F33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3089,11 +4872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901491328"/>
-        <c:axId val="901478368"/>
+        <c:axId val="1381081728"/>
+        <c:axId val="1381098528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901491328"/>
+        <c:axId val="1381081728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,12 +4933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901478368"/>
+        <c:crossAx val="1381098528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901478368"/>
+        <c:axId val="1381098528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +4995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901491328"/>
+        <c:crossAx val="1381081728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3269,6 +5052,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4144,7 +6127,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4660,7 +6643,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5176,7 +7159,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5692,7 +7675,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6208,7 +8191,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6724,7 +8707,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7240,7 +9223,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7756,7 +9739,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8272,27 +10255,2607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68262</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91915E63-EF8F-FF77-EADC-F85FA17A9BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A3FF95-E675-852C-90C9-22A908BDD016}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8310,6 +12873,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC0F7EF-D0FC-7DEC-CE5C-B51885E98E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8317,23 +12916,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35FCD86-B4BE-D2A8-C832-344D1ACA502F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494322E3-56A4-6848-EBEB-10AB8EE2C6F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8351,6 +12950,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88B2833-2232-2ECD-906B-F7CA6EDEB19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8358,23 +12993,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB49100-A701-C02E-AB54-A85EA19E085B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6C9A35-C274-7254-33FD-F47CFA87CA18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8392,6 +13027,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589BA749-BCCF-EC4F-82D8-5B87210CC39B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8399,23 +13070,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1C1A9A-EEF5-BB4D-A5B0-6B9A6F38DFC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589A6BE3-AFE2-18C6-1916-6CB18875478F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8433,6 +13104,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DCF5BD-CA69-36C6-D815-8D1F65D8DA7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8440,23 +13147,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DB8110-059B-0A2B-66C4-F73691F64F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B6FC6F-6C37-3290-E656-4E6A1E71369B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8474,6 +13181,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E830ECF-051D-9343-9290-1B9645023497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8481,23 +13224,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1598824C-9F52-9004-5E3B-AC4023D9F35A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37622C4-9A99-4479-9E5E-279FFCB1842E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8515,6 +13258,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83902FA3-A6A6-797D-9516-7A8F8DE938F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8522,23 +13301,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB96D6D7-1495-C3A6-2B8F-ABFF9384E288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305799E6-95CD-B4E4-07CF-281F49686D0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8556,30 +13335,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6587260-72E9-E6B7-4154-211E64D65ED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66503924-4BA2-B77C-DBF3-DC81EE11188A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8591,48 +13365,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B326C9F3-8A1F-E9F0-A7BF-15CE11699493}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8923,15 +13656,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8969,7 +13702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-9.4602287968859097E-2</v>
       </c>
@@ -9007,7 +13740,7 @@
         <v>-2.1689593362525699</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.94412255542288104</v>
       </c>
@@ -9045,7 +13778,7 @@
         <v>-1.47103249403429</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.59219990094441599</v>
       </c>
@@ -9083,7 +13816,7 @@
         <v>-0.62403865282487503</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.4070280222368301</v>
       </c>
@@ -9111,6 +13844,9 @@
       <c r="I5">
         <v>5.4401628671565296</v>
       </c>
+      <c r="J5">
+        <v>6.6050205004409301</v>
+      </c>
       <c r="K5">
         <v>5.4401628671565296</v>
       </c>
@@ -9118,7 +13854,7 @@
         <v>0.81987416990127404</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.77272923925196801</v>
       </c>
@@ -9156,7 +13892,7 @@
         <v>-1.6056416566720999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.0661612972879999</v>
       </c>
@@ -9194,7 +13930,7 @@
         <v>-1.62258218314034</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.2314090687618999</v>
       </c>
@@ -9222,14 +13958,8 @@
       <c r="I8">
         <v>-3.3927945946732298E-2</v>
       </c>
-      <c r="J8">
-        <v>4.16356543733956E-2</v>
-      </c>
       <c r="K8">
         <v>3.3927945946732298E-2</v>
-      </c>
-      <c r="L8">
-        <v>-1.38053460529363</v>
       </c>
     </row>
   </sheetData>
@@ -9244,15 +13974,12 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9290,7 +14017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.38566869103697</v>
       </c>
@@ -9328,9 +14055,9 @@
         <v>-1.59304907081334</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.91855663221169</v>
+        <v>1.8990765269663299</v>
       </c>
       <c r="B3" s="1">
         <v>45684.479050925896</v>
@@ -9348,7 +14075,7 @@
         <v>0.274027142180158</v>
       </c>
       <c r="G3">
-        <v>82.900401175148204</v>
+        <v>79.264098932679701</v>
       </c>
       <c r="H3">
         <v>52.302624999999999</v>
@@ -9366,9 +14093,9 @@
         <v>-0.28604396556749101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.5031427092643601</v>
       </c>
       <c r="B4" s="1">
         <v>45742.4440972222</v>
@@ -9383,10 +14110,10 @@
         <v>3992.6460000000002</v>
       </c>
       <c r="F4">
-        <v>0.212860009356382</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+        <v>0.21147963946277601</v>
+      </c>
+      <c r="G4">
+        <v>31.8524402167807</v>
       </c>
       <c r="H4">
         <v>63.360818181818203</v>
@@ -9404,7 +14131,7 @@
         <v>-1.84580142009374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5367296105642001</v>
       </c>
@@ -9442,7 +14169,7 @@
         <v>-0.47749521907417602</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.90988836207992196</v>
       </c>
@@ -9480,7 +14207,7 @@
         <v>-4.1199609750822097E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.3406710570227699E-2</v>
       </c>
@@ -9518,7 +14245,7 @@
         <v>-0.35619921814487299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.8438024043583199</v>
       </c>
@@ -9553,7 +14280,7 @@
         <v>-0.75961479433178603</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.99647912105049</v>
       </c>
@@ -9591,7 +14318,7 @@
         <v>9.7556399815570502E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6313244136241201</v>
       </c>
@@ -9640,16 +14367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9687,7 +14409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.8103990009162001</v>
       </c>
@@ -9725,9 +14447,9 @@
         <v>-2.7980675063995002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.0932198129686301</v>
+        <v>2.0682796406555601</v>
       </c>
       <c r="B3" s="1">
         <v>45684.528587963003</v>
@@ -9745,7 +14467,7 @@
         <v>0.51440368670947101</v>
       </c>
       <c r="G3">
-        <v>123.942374733896</v>
+        <v>117.025266996404</v>
       </c>
       <c r="H3">
         <v>52.1867083333333</v>
@@ -9763,7 +14485,7 @@
         <v>-1.6895995795087999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.6129383420109</v>
       </c>
@@ -9801,7 +14523,7 @@
         <v>-1.50125264668922</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.4589110779254</v>
       </c>
@@ -9839,7 +14561,7 @@
         <v>-2.9909835165508998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.13330872482825201</v>
       </c>
@@ -9877,7 +14599,7 @@
         <v>-0.81784269721634195</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.7704634593489401</v>
       </c>
@@ -9915,7 +14637,7 @@
         <v>-0.69885294463562198</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7220346442007499</v>
       </c>
@@ -9956,7 +14678,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9965,15 +14686,15 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10011,7 +14732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.5644463224313101</v>
       </c>
@@ -10039,6 +14760,9 @@
       <c r="I2">
         <v>-0.69249876487298101</v>
       </c>
+      <c r="J2">
+        <v>0.84133921279000901</v>
+      </c>
       <c r="K2">
         <v>0.69249876487298101</v>
       </c>
@@ -10046,9 +14770,9 @@
         <v>-7.5028869195106498E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.1455655389075199</v>
+        <v>2.1363066465568199</v>
       </c>
       <c r="B3" s="1">
         <v>45684.409837963001</v>
@@ -10066,7 +14790,7 @@
         <v>0.216853459021603</v>
       </c>
       <c r="G3">
-        <v>139.818789841654</v>
+        <v>136.86948922984999</v>
       </c>
       <c r="H3">
         <v>53.521625</v>
@@ -10084,9 +14808,9 @@
         <v>-0.76340894259865999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.8248813349739299</v>
       </c>
       <c r="B4" s="1">
         <v>45742.371412036999</v>
@@ -10101,25 +14825,28 @@
         <v>2805.3159999999998</v>
       </c>
       <c r="F4">
-        <v>0.11608970854305301</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+        <v>0.106979611271476</v>
+      </c>
+      <c r="G4">
+        <v>66.816132668238495</v>
       </c>
       <c r="H4">
-        <v>63.179400000000001</v>
+        <v>63.225333333333303</v>
       </c>
       <c r="I4">
-        <v>-0.53480672124956896</v>
+        <v>-0.53520797229477701</v>
+      </c>
+      <c r="J4">
+        <v>0.59835790323903604</v>
       </c>
       <c r="K4">
-        <v>0.53480672124956896</v>
+        <v>0.53520797229477701</v>
       </c>
       <c r="L4">
-        <v>-0.222943331674155</v>
+        <v>-0.22303896834228401</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.3763074219128699</v>
       </c>
@@ -10147,17 +14874,11 @@
       <c r="I5">
         <v>-3.2356668078645297E-2</v>
       </c>
-      <c r="J5">
-        <v>3.09288241918769E-2</v>
-      </c>
       <c r="K5">
         <v>3.2356668078645297E-2</v>
       </c>
-      <c r="L5">
-        <v>-1.5096365900739599</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.3032668856264</v>
       </c>
@@ -10195,7 +14916,7 @@
         <v>-1.30229335002258</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.5471916791810501</v>
       </c>
@@ -10223,17 +14944,11 @@
       <c r="I7">
         <v>-2.05466990492898E-2</v>
       </c>
-      <c r="J7">
-        <v>2.05761348096275E-2</v>
-      </c>
       <c r="K7">
         <v>2.05466990492898E-2</v>
       </c>
-      <c r="L7">
-        <v>-1.6866362033590201</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.41463921516754</v>
       </c>
@@ -10261,6 +14976,9 @@
       <c r="I8">
         <v>1.6433163391097401</v>
       </c>
+      <c r="J8">
+        <v>1.64162808869427</v>
+      </c>
       <c r="K8">
         <v>1.6433163391097401</v>
       </c>
@@ -10268,7 +14986,7 @@
         <v>0.215274774389667</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.25677183450206</v>
       </c>
@@ -10306,7 +15024,7 @@
         <v>-1.24945615786977</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.32621116564357</v>
       </c>
@@ -10334,6 +15052,9 @@
       <c r="I10">
         <v>0.56366732080101301</v>
       </c>
+      <c r="J10">
+        <v>0.63468059732398197</v>
+      </c>
       <c r="K10">
         <v>0.56366732080101301</v>
       </c>
@@ -10341,7 +15062,7 @@
         <v>-0.19744477820082099</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.1022229180133301</v>
       </c>
@@ -10379,7 +15100,7 @@
         <v>-1.42098958088467</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.3813339579941699</v>
       </c>
@@ -10407,6 +15128,9 @@
       <c r="I12">
         <v>2.152726136449</v>
       </c>
+      <c r="J12">
+        <v>2.70467538288039</v>
+      </c>
       <c r="K12">
         <v>2.152726136449</v>
       </c>
@@ -10414,7 +15138,7 @@
         <v>0.43211514822866398</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.6870902813892399</v>
       </c>
@@ -10452,7 +15176,7 @@
         <v>-1.1743499206535499</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.4837232842553898</v>
       </c>
@@ -10490,7 +15214,7 @@
         <v>-1.6297724242392599</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.9108457971817301</v>
       </c>
@@ -10518,14 +15242,8 @@
       <c r="I15">
         <v>-5.7577800276754597E-3</v>
       </c>
-      <c r="J15">
-        <v>5.2086852237835102E-3</v>
-      </c>
       <c r="K15">
         <v>5.7577800276754597E-3</v>
-      </c>
-      <c r="L15">
-        <v>-2.2832718874712299</v>
       </c>
     </row>
   </sheetData>
@@ -10539,16 +15257,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10586,7 +15305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.3708185978996801</v>
       </c>
@@ -10617,13 +15336,10 @@
       <c r="K2">
         <v>2.2810224388765399E-2</v>
       </c>
-      <c r="L2">
-        <v>-1.5294991116990899</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.36282116233381</v>
+        <v>1.35314747870436</v>
       </c>
       <c r="B3" s="1">
         <v>45684.449305555601</v>
@@ -10641,7 +15357,7 @@
         <v>0.51969792065458198</v>
       </c>
       <c r="G3">
-        <v>23.057974912814998</v>
+        <v>22.550048418024101</v>
       </c>
       <c r="H3">
         <v>53.172249999999998</v>
@@ -10659,7 +15375,7 @@
         <v>-0.57407683856692704</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.14244247106486</v>
       </c>
@@ -10690,11 +15406,8 @@
       <c r="K4">
         <v>0.62628271367326904</v>
       </c>
-      <c r="L4">
-        <v>-0.193343929569118</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.1521339482850199</v>
       </c>
@@ -10732,7 +15445,7 @@
         <v>-1.89587461069805</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.25718073142374</v>
       </c>
@@ -10782,15 +15495,15 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10828,7 +15541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.70019397293433605</v>
       </c>
@@ -10856,17 +15569,11 @@
       <c r="I2">
         <v>-2.48130778879441E-2</v>
       </c>
-      <c r="J2">
-        <v>2.90951118423101E-2</v>
-      </c>
       <c r="K2">
         <v>2.48130778879441E-2</v>
       </c>
-      <c r="L2">
-        <v>-1.53617996902892</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.2740057658618702</v>
       </c>
@@ -10904,9 +15611,9 @@
         <v>-1.4646273244010499</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.1285964316053398</v>
+        <v>2.10430758848611</v>
       </c>
       <c r="B4" s="1">
         <v>45684.584027777797</v>
@@ -10924,7 +15631,7 @@
         <v>0.39129596301150699</v>
       </c>
       <c r="G4">
-        <v>134.46102934551399</v>
+        <v>127.14743063651601</v>
       </c>
       <c r="H4">
         <v>53.251916666666702</v>
@@ -10942,7 +15649,7 @@
         <v>-1.71383798375942</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45742.522453703699</v>
       </c>
@@ -10952,17 +15659,8 @@
       <c r="D5">
         <v>342.608475</v>
       </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.267984159791466</v>
       </c>
@@ -10990,17 +15688,11 @@
       <c r="I6">
         <v>-1.2026837343753901E-2</v>
       </c>
-      <c r="J6">
-        <v>1.19519645480923E-2</v>
-      </c>
       <c r="K6">
         <v>1.2026837343753901E-2</v>
       </c>
-      <c r="L6">
-        <v>-1.92256070373071</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.87402491488739797</v>
       </c>
@@ -11038,7 +15730,7 @@
         <v>0.23755715312148601</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.0336012675366701</v>
       </c>
@@ -11076,7 +15768,7 @@
         <v>-0.704215922198688</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.76858300033389</v>
       </c>
@@ -11114,7 +15806,7 @@
         <v>0.393602239407076</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.1818835069426701</v>
       </c>
@@ -11152,7 +15844,7 @@
         <v>0.44347466248342199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.45544825395334</v>
       </c>
@@ -11180,17 +15872,11 @@
       <c r="I11">
         <v>-9.2342488193686706E-3</v>
       </c>
-      <c r="J11">
-        <v>1.0333831699921499E-2</v>
-      </c>
       <c r="K11">
         <v>9.2342488193686706E-3</v>
       </c>
-      <c r="L11">
-        <v>-1.98573861579119</v>
-      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.87959255255997504</v>
       </c>
@@ -11228,7 +15914,7 @@
         <v>-0.235928324153202</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.95257332203598</v>
       </c>
@@ -11266,7 +15952,7 @@
         <v>-1.0031500769787001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.78124699332156</v>
       </c>
@@ -11304,7 +15990,7 @@
         <v>-0.666655343178018</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.2177716434911199</v>
       </c>
@@ -11353,16 +16039,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11400,9 +16084,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>1.5745170474306001</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B2" s="1">
         <v>45684.6167824074</v>
@@ -11419,8 +16103,8 @@
       <c r="F2">
         <v>0.30386676206507501</v>
       </c>
-      <c r="G2">
-        <v>37.541969059188197</v>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H2">
         <v>49.510666666666701</v>
@@ -11438,9 +16122,9 @@
         <v>0.19972441886794701</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>1.14348697820814</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B3" s="1">
         <v>45590.492476851898</v>
@@ -11457,8 +16141,8 @@
       <c r="F3">
         <v>0.23014485917083699</v>
       </c>
-      <c r="G3">
-        <v>13.9151207142201</v>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H3">
         <v>67.998583333333301</v>
@@ -11476,9 +16160,9 @@
         <v>-0.57858730308616901</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>1.2025711866527999</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B4" s="1">
         <v>45296.649884259299</v>
@@ -11495,8 +16179,8 @@
       <c r="F4">
         <v>0.23937442308451001</v>
       </c>
-      <c r="G4">
-        <v>15.943041869970999</v>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H4">
         <v>52.158749999999998</v>
@@ -11514,9 +16198,9 @@
         <v>-0.34349303331172698</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>1.50592712199711</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B5" s="1">
         <v>45502.510416666701</v>
@@ -11533,8 +16217,8 @@
       <c r="F5">
         <v>0.29234008845640103</v>
       </c>
-      <c r="G5">
-        <v>32.057313326349899</v>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H5">
         <v>76.433750000000003</v>
@@ -11552,9 +16236,9 @@
         <v>-0.35651195209609199</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>2.5567220175275498</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B6" s="1">
         <v>45279.534722222197</v>
@@ -11571,8 +16255,8 @@
       <c r="F6">
         <v>0.58613206590049605</v>
       </c>
-      <c r="G6">
-        <v>360.34791830663801</v>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H6">
         <v>57.410541666666703</v>
@@ -11593,7 +16277,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11602,16 +16285,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11649,9 +16331,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.45642883673255</v>
+        <v>1.15981658525691</v>
       </c>
       <c r="B2" s="1">
         <v>45296.551157407397</v>
@@ -11669,7 +16351,7 @@
         <v>0.23229443381963699</v>
       </c>
       <c r="G2">
-        <v>28.604136163398302</v>
+        <v>14.448294498683101</v>
       </c>
       <c r="H2">
         <v>57.088374999999999</v>
@@ -11687,9 +16369,9 @@
         <v>-1.65539972859101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.9265347991375199</v>
+        <v>1.6792522246747701</v>
       </c>
       <c r="B3" s="1">
         <v>45684.551504629599</v>
@@ -11707,7 +16389,7 @@
         <v>0.32786079628103298</v>
       </c>
       <c r="G3">
-        <v>84.437389716922397</v>
+        <v>47.780668829864602</v>
       </c>
       <c r="H3">
         <v>52.709458333333302</v>
@@ -11725,9 +16407,9 @@
         <v>-0.124221522263913</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.92681498499496695</v>
       </c>
       <c r="B4" s="1">
         <v>45742.479282407403</v>
@@ -11742,10 +16424,10 @@
         <v>11964.4</v>
       </c>
       <c r="F4">
-        <v>0.201730648915843</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+        <v>0.19939243401214099</v>
+      </c>
+      <c r="G4">
+        <v>8.4491882225159092</v>
       </c>
       <c r="H4">
         <v>62.968499999999999</v>
@@ -11763,9 +16445,9 @@
         <v>-1.15319777849231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.31349058741088</v>
+        <v>0.99275275900728999</v>
       </c>
       <c r="B5" s="1">
         <v>45590.450462963003</v>
@@ -11783,7 +16465,7 @@
         <v>0.20831663046725299</v>
       </c>
       <c r="G5">
-        <v>20.582142817889899</v>
+        <v>9.8345107413557908</v>
       </c>
       <c r="H5">
         <v>69.406999999999996</v>
@@ -11801,9 +16483,9 @@
         <v>-1.28923814954167</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.70758523822296304</v>
+        <v>0.28665282711034601</v>
       </c>
       <c r="B6" s="1">
         <v>45231.5222222222</v>
@@ -11821,7 +16503,7 @@
         <v>0.13055244711888001</v>
       </c>
       <c r="G6">
-        <v>5.1001768803724898</v>
+        <v>1.9348746162310799</v>
       </c>
       <c r="H6">
         <v>68.842375000000004</v>
@@ -11839,9 +16521,9 @@
         <v>-1.6932927006039999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.9250980683261201</v>
+        <v>2.8711515815179101</v>
       </c>
       <c r="B7" s="1">
         <v>45279.418749999997</v>
@@ -11859,7 +16541,7 @@
         <v>0.72138680186451298</v>
       </c>
       <c r="G7">
-        <v>841.58515909551397</v>
+        <v>743.27851864173499</v>
       </c>
       <c r="H7">
         <v>60.173708333333302</v>
@@ -11870,13 +16552,10 @@
       <c r="K7">
         <v>1.7867765253196301E-2</v>
       </c>
-      <c r="L7">
-        <v>-1.6753504469219</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.5681700744090501</v>
+        <v>1.28965733618624</v>
       </c>
       <c r="B8" s="1">
         <v>45569.448379629597</v>
@@ -11894,7 +16573,7 @@
         <v>0.253452518093848</v>
       </c>
       <c r="G8">
-        <v>36.997303685117799</v>
+        <v>19.4830675459072</v>
       </c>
       <c r="H8">
         <v>76.006291666666698</v>
@@ -11923,16 +16602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11970,9 +16649,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.84279273217053396</v>
+        <v>-0.52875994714951202</v>
       </c>
       <c r="B2" s="1">
         <v>45660.5559027778</v>
@@ -11990,7 +16669,7 @@
         <v>5.0095874737204102E-2</v>
       </c>
       <c r="G2">
-        <v>6.9629412716540502</v>
+        <v>0.295964793657363</v>
       </c>
       <c r="H2">
         <v>50.861624999999997</v>
@@ -11998,19 +16677,13 @@
       <c r="I2">
         <v>-2.6571209433532701E-2</v>
       </c>
-      <c r="J2">
-        <v>3.7428936539669E-2</v>
-      </c>
       <c r="K2">
         <v>2.6571209433532701E-2</v>
       </c>
-      <c r="L2">
-        <v>-1.4267925122260701</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.2521605019698501</v>
+        <v>1.8072708752009401</v>
       </c>
       <c r="B3" s="1">
         <v>45296.691319444399</v>
@@ -12028,7 +16701,7 @@
         <v>0.304619300450722</v>
       </c>
       <c r="G3">
-        <v>178.71479280859799</v>
+        <v>64.160963220889599</v>
       </c>
       <c r="H3">
         <v>52.267458333333302</v>
@@ -12036,19 +16709,13 @@
       <c r="I3">
         <v>-4.1153993632000299E-2</v>
       </c>
-      <c r="J3">
-        <v>5.6427577340035402E-2</v>
-      </c>
       <c r="K3">
         <v>4.1153993632000299E-2</v>
       </c>
-      <c r="L3">
-        <v>-1.2485085953163499</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.9298004039872101</v>
+        <v>1.2393381121064</v>
       </c>
       <c r="B4" s="1">
         <v>45684.6496527778</v>
@@ -12066,7 +16733,7 @@
         <v>0.196666010534818</v>
       </c>
       <c r="G4">
-        <v>85.074695626684701</v>
+        <v>17.3515434504375</v>
       </c>
       <c r="H4">
         <v>50.617791666666697</v>
@@ -12084,7 +16751,7 @@
         <v>-0.68574776227701295</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45742.576273148203</v>
       </c>
@@ -12107,9 +16774,9 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.87941370477432</v>
+        <v>1.18858542995784</v>
       </c>
       <c r="B6" s="1">
         <v>45590.536805555603</v>
@@ -12127,7 +16794,7 @@
         <v>0.189070453385662</v>
       </c>
       <c r="G6">
-        <v>75.755419030113302</v>
+        <v>15.4378007004605</v>
       </c>
       <c r="H6">
         <v>67.770875000000004</v>
@@ -12145,9 +16812,9 @@
         <v>-1.7378322013270699</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.64584113116905</v>
+        <v>0.80091193253836901</v>
       </c>
       <c r="B7" s="1">
         <v>45597.512847222199</v>
@@ -12165,7 +16832,7 @@
         <v>0.14022503226824601</v>
       </c>
       <c r="G7">
-        <v>44.242649916102501</v>
+        <v>6.3228362211664404</v>
       </c>
       <c r="H7">
         <v>68.742208333333295</v>
@@ -12183,9 +16850,9 @@
         <v>-1.4497869751319601</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.1755615533525701</v>
+        <v>2.10447931568736E-2</v>
       </c>
       <c r="B8" s="1">
         <v>45618.559143518498</v>
@@ -12203,7 +16870,7 @@
         <v>7.67954910734997E-2</v>
       </c>
       <c r="G8">
-        <v>14.9817157660029</v>
+        <v>1.04965068409908</v>
       </c>
       <c r="H8">
         <v>56.827624999999998</v>
@@ -12214,13 +16881,10 @@
       <c r="K8">
         <v>1.0375902024202499</v>
       </c>
-      <c r="L8">
-        <v>0.11559183749072301</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.3244402894665099</v>
+        <v>0.26735758572693402</v>
       </c>
       <c r="B9" s="1">
         <v>45266.638425925899</v>
@@ -12238,7 +16902,7 @@
         <v>9.2948582820242806E-2</v>
       </c>
       <c r="G9">
-        <v>21.107669694951699</v>
+        <v>1.8507918811930499</v>
       </c>
       <c r="H9">
         <v>57.605125000000001</v>
@@ -12256,9 +16920,9 @@
         <v>-2.0759598113257498</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.91903067039514397</v>
+        <v>-0.40198248879310999</v>
       </c>
       <c r="B10" s="1">
         <v>45639.595601851797</v>
@@ -12273,15 +16937,15 @@
         <v>5.5228227659252498E-2</v>
       </c>
       <c r="G10">
-        <v>8.2990937463643704</v>
+        <v>0.39629401292160898</v>
       </c>
       <c r="H10">
         <v>51.593166666666697</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.1348836283946802</v>
+        <v>1.6128546432438899</v>
       </c>
       <c r="B11" s="1">
         <v>45331.513657407399</v>
@@ -12299,7 +16963,7 @@
         <v>0.26214009253193299</v>
       </c>
       <c r="G11">
-        <v>136.42175379842601</v>
+        <v>41.006683216447897</v>
       </c>
       <c r="H11">
         <v>55.680374999999998</v>
@@ -12307,6 +16971,9 @@
       <c r="I11">
         <v>-1.4668428620366101</v>
       </c>
+      <c r="J11">
+        <v>1.88456765595585</v>
+      </c>
       <c r="K11">
         <v>1.4668428620366101</v>
       </c>
@@ -12314,9 +16981,9 @@
         <v>0.27521173323209103</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.6976786416304599</v>
+        <v>0.88878557577406003</v>
       </c>
       <c r="B12" s="1">
         <v>45502.6175925926</v>
@@ -12334,7 +17001,7 @@
         <v>0.14969712289074899</v>
       </c>
       <c r="G12">
-        <v>49.851547193774898</v>
+        <v>7.7407951713826604</v>
       </c>
       <c r="H12">
         <v>77.678708333333304</v>
@@ -12352,9 +17019,9 @@
         <v>-0.99763962756646996</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.8983149978362499</v>
+        <v>1.22011061857209</v>
       </c>
       <c r="B13" s="1">
         <v>45569.557407407403</v>
@@ -12372,7 +17039,7 @@
         <v>0.19368252554686899</v>
       </c>
       <c r="G13">
-        <v>79.125232260735004</v>
+        <v>16.600096724586301</v>
       </c>
       <c r="H13">
         <v>76.782666666666699</v>

--- a/04_Output/rC_k600.xlsx
+++ b/04_Output/rC_k600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340F330-F1A5-4FC0-930D-8481AC2917B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACF8E3-5BE9-40C2-83F6-6A2873DD9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30585" windowHeight="14370" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -546,6 +546,373 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'6'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_dh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.12874386448073599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44772677954446899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39129596301150699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9138536458891403E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.146682711547242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37002135752523302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30001852958251402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18724196474367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.234268725880109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14840614156752799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34695286733230901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30285820571641198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42756115791951899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>3.4306204774390801E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9326891841915099E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7280533772406299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19759869761570001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4751540809886499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7763528639902799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58086027463756795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9277292154952998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.215449086397794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.20015690036934E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-476E-4E7B-B94B-037F2B070F33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1381081728"/>
+        <c:axId val="1381098528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1381081728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381098528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381098528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381081728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'6'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -858,7 +1225,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1195,7 +1562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1532,7 +1899,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1887,7 +2254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2739,9 +3106,6 @@
                 <c:pt idx="5">
                   <c:v>-0.35619921814487299</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.75961479433178603</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>9.7556399815570502E-2</c:v>
                 </c:pt>
@@ -3349,6 +3713,340 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'3'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8103990009162001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0682796406555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6129383420109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4589110779254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7704634593489401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7220346442007499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2.7980675063995002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6895995795087999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.50125264668922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9909835165508998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.69885294463562198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.66748557336798098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB86-4A4F-B6C8-2FB81CF58F80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="360003199"/>
+        <c:axId val="360004159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="360003199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360004159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="360004159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360003199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'5'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3667,7 +4365,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4040,7 +4738,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4362,7 +5060,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4629,373 +5327,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1084792768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_dh</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6'!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.12874386448073599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44772677954446899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39129596301150699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9138536458891403E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.146682711547242</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37002135752523302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30001852958251402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18724196474367</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.234268725880109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14840614156752799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34695286733230901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.30285820571641198</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.42756115791951899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6'!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="1">
-                  <c:v>3.4306204774390801E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9326891841915099E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7280533772406299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19759869761570001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4751540809886499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7763528639902799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.58086027463756795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.9277292154952998E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.215449086397794</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.20015690036934E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-476E-4E7B-B94B-037F2B070F33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1381081728"/>
-        <c:axId val="1381098528"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1381081728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1381098528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1381098528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1381081728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5252,6 +5583,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8707,6 +9078,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12953,15 +13840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12990,6 +13877,47 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46740105-7EE2-B45B-E446-102E3224178D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13066,7 +13994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13143,7 +14071,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13220,7 +14148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13297,7 +14225,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13656,15 +14584,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="L1" activeCellId="1" sqref="A1:A1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13702,7 +14630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>-9.4602287968859097E-2</v>
       </c>
@@ -13740,7 +14668,7 @@
         <v>-2.1689593362525699</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>0.94412255542288104</v>
       </c>
@@ -13778,7 +14706,7 @@
         <v>-1.47103249403429</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>0.59219990094441599</v>
       </c>
@@ -13816,7 +14744,7 @@
         <v>-0.62403865282487503</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.4070280222368301</v>
       </c>
@@ -13854,7 +14782,7 @@
         <v>0.81987416990127404</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.77272923925196801</v>
       </c>
@@ -13892,7 +14820,7 @@
         <v>-1.6056416566720999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>1.0661612972879999</v>
       </c>
@@ -13930,7 +14858,7 @@
         <v>-1.62258218314034</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2.2314090687618999</v>
       </c>
@@ -13973,13 +14901,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14017,7 +14945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.38566869103697</v>
       </c>
@@ -14055,7 +14983,7 @@
         <v>-1.59304907081334</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.8990765269663299</v>
       </c>
@@ -14093,7 +15021,7 @@
         <v>-0.28604396556749101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.5031427092643601</v>
       </c>
@@ -14131,7 +15059,7 @@
         <v>-1.84580142009374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.5367296105642001</v>
       </c>
@@ -14169,7 +15097,7 @@
         <v>-0.47749521907417602</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.90988836207992196</v>
       </c>
@@ -14207,7 +15135,7 @@
         <v>-4.1199609750822097E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2.3406710570227699E-2</v>
       </c>
@@ -14245,7 +15173,7 @@
         <v>-0.35619921814487299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2.8438024043583199</v>
       </c>
@@ -14276,11 +15204,8 @@
       <c r="K8">
         <v>0.14126099627199201</v>
       </c>
-      <c r="L8">
-        <v>-0.75961479433178603</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>1.99647912105049</v>
       </c>
@@ -14318,7 +15243,7 @@
         <v>9.7556399815570502E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>1.6313244136241201</v>
       </c>
@@ -14367,11 +15292,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="11.40625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14409,7 +15339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.8103990009162001</v>
       </c>
@@ -14447,7 +15377,7 @@
         <v>-2.7980675063995002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.0682796406555601</v>
       </c>
@@ -14485,7 +15415,7 @@
         <v>-1.6895995795087999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.6129383420109</v>
       </c>
@@ -14523,7 +15453,7 @@
         <v>-1.50125264668922</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.4589110779254</v>
       </c>
@@ -14561,10 +15491,7 @@
         <v>-2.9909835165508998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.13330872482825201</v>
-      </c>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B6" s="1">
         <v>45639.526967592603</v>
       </c>
@@ -14589,17 +15516,11 @@
       <c r="I6">
         <v>-0.11659482634669301</v>
       </c>
-      <c r="J6">
-        <v>0.15210983764305899</v>
-      </c>
       <c r="K6">
         <v>0.11659482634669301</v>
       </c>
-      <c r="L6">
-        <v>-0.81784269721634195</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2.7704634593489401</v>
       </c>
@@ -14637,7 +15558,7 @@
         <v>-0.69885294463562198</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1.7220346442007499</v>
       </c>
@@ -14678,6 +15599,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14689,12 +15611,12 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14732,7 +15654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.5644463224313101</v>
       </c>
@@ -14770,7 +15692,7 @@
         <v>-7.5028869195106498E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.1363066465568199</v>
       </c>
@@ -14808,7 +15730,7 @@
         <v>-0.76340894259865999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.8248813349739299</v>
       </c>
@@ -14846,7 +15768,7 @@
         <v>-0.22303896834228401</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.3763074219128699</v>
       </c>
@@ -14878,7 +15800,7 @@
         <v>3.2356668078645297E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2.3032668856264</v>
       </c>
@@ -14916,7 +15838,7 @@
         <v>-1.30229335002258</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>1.5471916791810501</v>
       </c>
@@ -14948,7 +15870,7 @@
         <v>2.05466990492898E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1.41463921516754</v>
       </c>
@@ -14986,7 +15908,7 @@
         <v>0.215274774389667</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>2.25677183450206</v>
       </c>
@@ -15024,7 +15946,7 @@
         <v>-1.24945615786977</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>1.32621116564357</v>
       </c>
@@ -15062,7 +15984,7 @@
         <v>-0.19744477820082099</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>2.1022229180133301</v>
       </c>
@@ -15100,7 +16022,7 @@
         <v>-1.42098958088467</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>1.3813339579941699</v>
       </c>
@@ -15138,7 +16060,7 @@
         <v>0.43211514822866398</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>2.6870902813892399</v>
       </c>
@@ -15176,7 +16098,7 @@
         <v>-1.1743499206535499</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>2.4837232842553898</v>
       </c>
@@ -15214,7 +16136,7 @@
         <v>-1.6297724242392599</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>1.9108457971817301</v>
       </c>
@@ -15261,13 +16183,13 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15305,7 +16227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.3708185978996801</v>
       </c>
@@ -15337,7 +16259,7 @@
         <v>2.2810224388765399E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.35314747870436</v>
       </c>
@@ -15375,7 +16297,7 @@
         <v>-0.57407683856692704</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.14244247106486</v>
       </c>
@@ -15407,7 +16329,7 @@
         <v>0.62628271367326904</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.1521339482850199</v>
       </c>
@@ -15445,7 +16367,7 @@
         <v>-1.89587461069805</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>1.25718073142374</v>
       </c>
@@ -15498,12 +16420,12 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15541,7 +16463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.70019397293433605</v>
       </c>
@@ -15573,7 +16495,7 @@
         <v>2.48130778879441E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2.2740057658618702</v>
       </c>
@@ -15611,7 +16533,7 @@
         <v>-1.4646273244010499</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>2.10430758848611</v>
       </c>
@@ -15649,7 +16571,7 @@
         <v>-1.71383798375942</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B5" s="1">
         <v>45742.522453703699</v>
       </c>
@@ -15660,7 +16582,7 @@
         <v>342.608475</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>-0.267984159791466</v>
       </c>
@@ -15692,7 +16614,7 @@
         <v>1.2026837343753901E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>0.87402491488739797</v>
       </c>
@@ -15730,7 +16652,7 @@
         <v>0.23755715312148601</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2.0336012675366701</v>
       </c>
@@ -15768,7 +16690,7 @@
         <v>-0.704215922198688</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>1.76858300033389</v>
       </c>
@@ -15806,7 +16728,7 @@
         <v>0.393602239407076</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>1.1818835069426701</v>
       </c>
@@ -15844,7 +16766,7 @@
         <v>0.44347466248342199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>1.45544825395334</v>
       </c>
@@ -15876,7 +16798,7 @@
         <v>9.2342488193686706E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>0.87959255255997504</v>
       </c>
@@ -15914,7 +16836,7 @@
         <v>-0.235928324153202</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>1.95257332203598</v>
       </c>
@@ -15952,7 +16874,7 @@
         <v>-1.0031500769787001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>1.78124699332156</v>
       </c>
@@ -15990,7 +16912,7 @@
         <v>-0.666655343178018</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>2.2177716434911199</v>
       </c>
@@ -16041,12 +16963,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16084,7 +17006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" t="e">
         <v>#NUM!</v>
       </c>
@@ -16122,7 +17044,7 @@
         <v>0.19972441886794701</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" t="e">
         <v>#NUM!</v>
       </c>
@@ -16160,7 +17082,7 @@
         <v>-0.57858730308616901</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4" t="e">
         <v>#NUM!</v>
       </c>
@@ -16198,7 +17120,7 @@
         <v>-0.34349303331172698</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5" t="e">
         <v>#NUM!</v>
       </c>
@@ -16236,7 +17158,7 @@
         <v>-0.35651195209609199</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6" t="e">
         <v>#NUM!</v>
       </c>
@@ -16288,12 +17210,12 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16331,7 +17253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1.15981658525691</v>
       </c>
@@ -16369,7 +17291,7 @@
         <v>-1.65539972859101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.6792522246747701</v>
       </c>
@@ -16407,7 +17329,7 @@
         <v>-0.124221522263913</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>0.92681498499496695</v>
       </c>
@@ -16445,7 +17367,7 @@
         <v>-1.15319777849231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>0.99275275900728999</v>
       </c>
@@ -16483,7 +17405,7 @@
         <v>-1.28923814954167</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.28665282711034601</v>
       </c>
@@ -16521,7 +17443,7 @@
         <v>-1.6932927006039999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2.8711515815179101</v>
       </c>
@@ -16553,7 +17475,7 @@
         <v>1.7867765253196301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1.28965733618624</v>
       </c>
@@ -16602,16 +17524,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16649,7 +17571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>-0.52875994714951202</v>
       </c>
@@ -16681,7 +17603,7 @@
         <v>2.6571209433532701E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.8072708752009401</v>
       </c>
@@ -16713,7 +17635,7 @@
         <v>4.1153993632000299E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1.2393381121064</v>
       </c>
@@ -16751,7 +17673,7 @@
         <v>-0.68574776227701295</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B5" s="1">
         <v>45742.576273148203</v>
       </c>
@@ -16774,7 +17696,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>1.18858542995784</v>
       </c>
@@ -16812,7 +17734,7 @@
         <v>-1.7378322013270699</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>0.80091193253836901</v>
       </c>
@@ -16850,7 +17772,7 @@
         <v>-1.4497869751319601</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2.10447931568736E-2</v>
       </c>
@@ -16882,7 +17804,7 @@
         <v>1.0375902024202499</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>0.26735758572693402</v>
       </c>
@@ -16920,7 +17842,7 @@
         <v>-2.0759598113257498</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>-0.40198248879310999</v>
       </c>
@@ -16943,7 +17865,7 @@
         <v>51.593166666666697</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>1.6128546432438899</v>
       </c>
@@ -16981,7 +17903,7 @@
         <v>0.27521173323209103</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>0.88878557577406003</v>
       </c>
@@ -17019,7 +17941,7 @@
         <v>-0.99763962756646996</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>1.22011061857209</v>
       </c>
